--- a/Assets/Data/excel/功法数据表.xlsx
+++ b/Assets/Data/excel/功法数据表.xlsx
@@ -184,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ActionCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,6 +437,10 @@
   </si>
   <si>
     <t>{"Private":10.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseActionCost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1154,7 +1154,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1228,13 +1228,13 @@
     </row>
     <row r="2" spans="1:40" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>23</v>
@@ -1294,17 +1294,17 @@
         <v>21</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y2" s="25"/>
       <c r="Z2" s="25"/>
       <c r="AA2" s="25"/>
       <c r="AB2" s="26"/>
       <c r="AC2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD2" s="5" t="s">
         <v>33</v>
@@ -1330,10 +1330,10 @@
     </row>
     <row r="3" spans="1:40" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -1376,91 +1376,91 @@
     </row>
     <row r="4" spans="1:40" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" s="14" t="s">
+      <c r="Q4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="T4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="X4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="X4" s="15" t="s">
+      <c r="Y4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Z4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="AA4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AA4" s="15" t="s">
+      <c r="AB4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AB4" s="15" t="s">
-        <v>75</v>
-      </c>
       <c r="AC4" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD4" s="14"/>
       <c r="AE4" s="14"/>
@@ -1476,91 +1476,91 @@
     </row>
     <row r="5" spans="1:40" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="D5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>43</v>
-      </c>
       <c r="H5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="14" t="s">
+      <c r="L5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="14" t="s">
+      <c r="N5" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="O5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="X5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC5" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="R5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="V5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="X5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC5" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="AD5" s="14"/>
       <c r="AE5" s="14"/>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="6" spans="1:40" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="8" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1707,10 +1707,10 @@
     <row r="9" spans="1:40" s="21" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="18">
         <v>9</v>
@@ -1738,15 +1738,15 @@
         <v>27</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
       <c r="P9" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="20" t="s">
         <v>84</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>85</v>
       </c>
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
@@ -1754,19 +1754,19 @@
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
       <c r="W9" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X9" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y9" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
       <c r="AC9" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD9" s="20"/>
       <c r="AE9" s="20"/>
@@ -1783,10 +1783,10 @@
     <row r="10" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
       <c r="B10" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="18">
         <v>8</v>
@@ -1815,26 +1815,26 @@
       </c>
       <c r="M10" s="20"/>
       <c r="N10" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="20" t="s">
         <v>82</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>83</v>
       </c>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="20"/>
       <c r="S10" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T10" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="U10" s="20" t="s">
         <v>86</v>
-      </c>
-      <c r="U10" s="20" t="s">
-        <v>87</v>
       </c>
       <c r="V10" s="20"/>
       <c r="W10" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
@@ -1842,7 +1842,7 @@
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
       <c r="AC10" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="20"/>
       <c r="AE10" s="20"/>

--- a/Assets/Data/excel/功法数据表.xlsx
+++ b/Assets/Data/excel/功法数据表.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__Study\Projects\Unity3d\Gongfu-World\Assets\Data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__I_Study\Projects\Gongfu-World\Assets\Data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EA353A-F9D9-4B95-8EDD-368AC7712BEF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="120" windowWidth="19200" windowHeight="11610" tabRatio="763"/>
+    <workbookView xWindow="1040" yWindow="120" windowWidth="19200" windowHeight="11610" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GongfaDef" sheetId="27" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GongfaDef!$C$2:$C$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GongfaDef!$C$2:$C$162</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="117">
   <si>
     <t>功法名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,10 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60,0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>90,0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,13 +438,65 @@
   </si>
   <si>
     <t>BaseActionCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练成经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -673,9 +722,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -687,6 +733,9 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -707,12 +756,12 @@
   <cellStyles count="8">
     <cellStyle name="百分比" xfId="7" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
-    <cellStyle name="常规 3 2" xfId="3"/>
-    <cellStyle name="常规 3 3" xfId="5"/>
-    <cellStyle name="常规 4" xfId="6"/>
-    <cellStyle name="常规 5" xfId="4"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 3 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -937,6 +986,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -972,6 +1038,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1147,74 +1230,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AO162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.375" style="10" customWidth="1"/>
-    <col min="3" max="4" width="8.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="10" customWidth="1"/>
-    <col min="6" max="7" width="8.75" style="10" customWidth="1"/>
-    <col min="8" max="12" width="7.25" style="12" customWidth="1"/>
-    <col min="13" max="13" width="6.625" style="12" customWidth="1"/>
-    <col min="14" max="15" width="7.25" style="12" customWidth="1"/>
-    <col min="16" max="22" width="4.75" style="12" customWidth="1"/>
-    <col min="23" max="23" width="26.875" style="12" customWidth="1"/>
-    <col min="24" max="28" width="6.125" style="12" customWidth="1"/>
-    <col min="29" max="29" width="10.25" style="12" customWidth="1"/>
-    <col min="30" max="40" width="7.25" style="12" customWidth="1"/>
-    <col min="41" max="16384" width="9" style="10"/>
+    <col min="1" max="2" width="10.36328125" style="10" customWidth="1"/>
+    <col min="3" max="4" width="8.7265625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" style="10" customWidth="1"/>
+    <col min="7" max="8" width="8.7265625" style="10" customWidth="1"/>
+    <col min="9" max="13" width="7.26953125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="6.6328125" style="12" customWidth="1"/>
+    <col min="15" max="16" width="7.26953125" style="12" customWidth="1"/>
+    <col min="17" max="23" width="4.7265625" style="12" customWidth="1"/>
+    <col min="24" max="24" width="26.90625" style="12" customWidth="1"/>
+    <col min="25" max="29" width="6.08984375" style="12" customWidth="1"/>
+    <col min="30" max="30" width="10.26953125" style="12" customWidth="1"/>
+    <col min="31" max="41" width="7.26953125" style="12" customWidth="1"/>
+    <col min="42" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="24" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="24" t="s">
+      <c r="O1" s="25"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="25"/>
       <c r="R1" s="25"/>
       <c r="S1" s="25"/>
       <c r="T1" s="25"/>
       <c r="U1" s="25"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="17"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="3"/>
       <c r="Y1" s="17"/>
       <c r="Z1" s="17"/>
       <c r="AA1" s="17"/>
       <c r="AB1" s="17"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="5"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="4"/>
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
       <c r="AG1" s="5"/>
@@ -1225,8 +1309,9 @@
       <c r="AL1" s="5"/>
       <c r="AM1" s="5"/>
       <c r="AN1" s="5"/>
-    </row>
-    <row r="2" spans="1:40" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="AO1" s="5"/>
+    </row>
+    <row r="2" spans="1:41" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -1239,108 +1324,111 @@
       <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y2" s="25"/>
+      <c r="X2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>91</v>
+      </c>
       <c r="Z2" s="25"/>
       <c r="AA2" s="25"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="4" t="s">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
       <c r="AN2" s="5"/>
-    </row>
-    <row r="3" spans="1:40" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO2" s="5"/>
+    </row>
+    <row r="3" spans="1:41" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>93</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>94</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
@@ -1356,13 +1444,13 @@
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
-      <c r="X3" s="15"/>
+      <c r="X3" s="14"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="15"/>
       <c r="AB3" s="15"/>
       <c r="AC3" s="15"/>
-      <c r="AD3" s="14"/>
+      <c r="AD3" s="15"/>
       <c r="AE3" s="14"/>
       <c r="AF3" s="14"/>
       <c r="AG3" s="14"/>
@@ -1373,8 +1461,9 @@
       <c r="AL3" s="14"/>
       <c r="AM3" s="14"/>
       <c r="AN3" s="14"/>
-    </row>
-    <row r="4" spans="1:40" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO3" s="14"/>
+    </row>
+    <row r="4" spans="1:41" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>67</v>
       </c>
@@ -1387,82 +1476,84 @@
       <c r="D4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>104</v>
-      </c>
       <c r="G4" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="N4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="P4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="Q4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="R4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="S4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="T4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="U4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="V4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="W4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="X4" s="15" t="s">
+      <c r="X4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Z4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="AA4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AA4" s="15" t="s">
+      <c r="AB4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AC4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AD4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AD4" s="14"/>
       <c r="AE4" s="14"/>
       <c r="AF4" s="14"/>
       <c r="AG4" s="14"/>
@@ -1473,8 +1564,9 @@
       <c r="AL4" s="14"/>
       <c r="AM4" s="14"/>
       <c r="AN4" s="14"/>
-    </row>
-    <row r="5" spans="1:40" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO4" s="14"/>
+    </row>
+    <row r="5" spans="1:41" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>64</v>
       </c>
@@ -1487,35 +1579,35 @@
       <c r="D5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="K5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="L5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="M5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="N5" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>62</v>
       </c>
       <c r="O5" s="14" t="s">
         <v>62</v>
@@ -1533,19 +1625,19 @@
         <v>62</v>
       </c>
       <c r="T5" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U5" s="14" t="s">
         <v>61</v>
       </c>
       <c r="V5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="W5" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="X5" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="X5" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="Y5" s="14" t="s">
         <v>75</v>
@@ -1560,9 +1652,11 @@
         <v>75</v>
       </c>
       <c r="AC5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="AD5" s="14"/>
       <c r="AE5" s="14"/>
       <c r="AF5" s="14"/>
       <c r="AG5" s="14"/>
@@ -1573,18 +1667,19 @@
       <c r="AL5" s="14"/>
       <c r="AM5" s="14"/>
       <c r="AN5" s="14"/>
-    </row>
-    <row r="6" spans="1:40" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO5" s="14"/>
+    </row>
+    <row r="6" spans="1:41" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -1617,16 +1712,17 @@
       <c r="AL6" s="14"/>
       <c r="AM6" s="14"/>
       <c r="AN6" s="14"/>
-    </row>
-    <row r="7" spans="1:40" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO6" s="14"/>
+    </row>
+    <row r="7" spans="1:41" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -1659,18 +1755,19 @@
       <c r="AL7" s="14"/>
       <c r="AM7" s="14"/>
       <c r="AN7" s="14"/>
-    </row>
-    <row r="8" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO7" s="14"/>
+    </row>
+    <row r="8" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -1703,630 +1800,684 @@
       <c r="AL8" s="9"/>
       <c r="AM8" s="9"/>
       <c r="AN8" s="9"/>
-    </row>
-    <row r="9" spans="1:40" s="21" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO8" s="9"/>
+    </row>
+    <row r="9" spans="1:41" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="18">
         <v>9</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="18">
         <v>5</v>
       </c>
-      <c r="F9" s="18">
+      <c r="G9" s="18">
         <v>100</v>
       </c>
-      <c r="G9" s="23">
-        <v>5</v>
-      </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="22">
+        <v>2</v>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="19"/>
+      <c r="K9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="L9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="M9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="X9" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y9" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-    </row>
-    <row r="10" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N9" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z9" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+    </row>
+    <row r="10" spans="1:41" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="18">
         <v>8</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="18">
         <v>10</v>
       </c>
-      <c r="F10" s="18">
+      <c r="G10" s="18">
         <v>100</v>
       </c>
-      <c r="G10" s="19">
-        <v>5</v>
-      </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="22">
+        <v>2</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y10" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z10" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+    </row>
+    <row r="11" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="18">
+        <v>8</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="18">
+        <v>10</v>
+      </c>
+      <c r="G11" s="18">
+        <v>100</v>
+      </c>
+      <c r="H11" s="22">
+        <v>2</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="L11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="M11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20" t="s">
+      <c r="N11" s="19"/>
+      <c r="O11" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="P11" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20" t="s">
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="T10" s="20" t="s">
+      <c r="U11" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="20" t="s">
+      <c r="V11" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="20"/>
-    </row>
-    <row r="11" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="20"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="20"/>
-      <c r="AN11" s="20"/>
-    </row>
-    <row r="12" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20"/>
-    </row>
-    <row r="13" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="20"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="20"/>
-      <c r="AN13" s="20"/>
-    </row>
-    <row r="14" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="20"/>
-      <c r="AH14" s="20"/>
-      <c r="AI14" s="20"/>
-      <c r="AJ14" s="20"/>
-      <c r="AK14" s="20"/>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="20"/>
-      <c r="AN14" s="20"/>
-    </row>
-    <row r="15" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="20"/>
-      <c r="AH15" s="20"/>
-      <c r="AI15" s="20"/>
-      <c r="AJ15" s="20"/>
-      <c r="AK15" s="20"/>
-      <c r="AL15" s="20"/>
-      <c r="AM15" s="20"/>
-      <c r="AN15" s="20"/>
-    </row>
-    <row r="16" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="20"/>
-      <c r="AH16" s="20"/>
-      <c r="AI16" s="20"/>
-      <c r="AJ16" s="20"/>
-      <c r="AK16" s="20"/>
-      <c r="AL16" s="20"/>
-      <c r="AM16" s="20"/>
-      <c r="AN16" s="20"/>
-    </row>
-    <row r="17" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="20"/>
-      <c r="AI17" s="20"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="20"/>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="20"/>
-    </row>
-    <row r="18" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="20"/>
-      <c r="AI18" s="20"/>
-      <c r="AJ18" s="20"/>
-      <c r="AK18" s="20"/>
-      <c r="AL18" s="20"/>
-      <c r="AM18" s="20"/>
-      <c r="AN18" s="20"/>
-    </row>
-    <row r="19" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="20"/>
-      <c r="AI19" s="20"/>
-      <c r="AJ19" s="20"/>
-      <c r="AK19" s="20"/>
-      <c r="AL19" s="20"/>
-      <c r="AM19" s="20"/>
-      <c r="AN19" s="20"/>
-    </row>
-    <row r="20" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="20"/>
-      <c r="AH20" s="20"/>
-      <c r="AI20" s="20"/>
-      <c r="AJ20" s="20"/>
-      <c r="AK20" s="20"/>
-      <c r="AL20" s="20"/>
-      <c r="AM20" s="20"/>
-      <c r="AN20" s="20"/>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="W11" s="19"/>
+      <c r="X11" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y11" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z11" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
+    </row>
+    <row r="12" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+    </row>
+    <row r="13" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="19"/>
+    </row>
+    <row r="14" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+    </row>
+    <row r="15" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="19"/>
+    </row>
+    <row r="16" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+    </row>
+    <row r="17" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="19"/>
+    </row>
+    <row r="18" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="19"/>
+    </row>
+    <row r="19" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+    </row>
+    <row r="20" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+    </row>
+    <row r="21" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="19"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -2359,16 +2510,17 @@
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
       <c r="AN22" s="9"/>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO22" s="9"/>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="9"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -2401,16 +2553,17 @@
       <c r="AL23" s="9"/>
       <c r="AM23" s="9"/>
       <c r="AN23" s="9"/>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO23" s="9"/>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="9"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -2443,16 +2596,17 @@
       <c r="AL24" s="9"/>
       <c r="AM24" s="9"/>
       <c r="AN24" s="9"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO24" s="9"/>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="9"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -2485,16 +2639,17 @@
       <c r="AL25" s="9"/>
       <c r="AM25" s="9"/>
       <c r="AN25" s="9"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO25" s="9"/>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="9"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -2527,16 +2682,17 @@
       <c r="AL26" s="9"/>
       <c r="AM26" s="9"/>
       <c r="AN26" s="9"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO26" s="9"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="9"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -2569,16 +2725,17 @@
       <c r="AL27" s="9"/>
       <c r="AM27" s="9"/>
       <c r="AN27" s="9"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO27" s="9"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="11"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -2611,16 +2768,17 @@
       <c r="AL28" s="9"/>
       <c r="AM28" s="9"/>
       <c r="AN28" s="9"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO28" s="9"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="9"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -2653,16 +2811,17 @@
       <c r="AL29" s="9"/>
       <c r="AM29" s="9"/>
       <c r="AN29" s="9"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO29" s="9"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -2695,16 +2854,17 @@
       <c r="AL30" s="9"/>
       <c r="AM30" s="9"/>
       <c r="AN30" s="9"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO30" s="9"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -2737,16 +2897,17 @@
       <c r="AL31" s="9"/>
       <c r="AM31" s="9"/>
       <c r="AN31" s="9"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO31" s="9"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="9"/>
+      <c r="H32" s="11"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -2779,16 +2940,17 @@
       <c r="AL32" s="9"/>
       <c r="AM32" s="9"/>
       <c r="AN32" s="9"/>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO32" s="9"/>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="9"/>
+      <c r="H33" s="11"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -2821,16 +2983,17 @@
       <c r="AL33" s="9"/>
       <c r="AM33" s="9"/>
       <c r="AN33" s="9"/>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO33" s="9"/>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -2863,16 +3026,17 @@
       <c r="AL34" s="9"/>
       <c r="AM34" s="9"/>
       <c r="AN34" s="9"/>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO34" s="9"/>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="11"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -2905,16 +3069,17 @@
       <c r="AL35" s="9"/>
       <c r="AM35" s="9"/>
       <c r="AN35" s="9"/>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO35" s="9"/>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="11"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -2947,16 +3112,17 @@
       <c r="AL36" s="9"/>
       <c r="AM36" s="9"/>
       <c r="AN36" s="9"/>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO36" s="9"/>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="11"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -2989,16 +3155,17 @@
       <c r="AL37" s="9"/>
       <c r="AM37" s="9"/>
       <c r="AN37" s="9"/>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO37" s="9"/>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -3031,16 +3198,17 @@
       <c r="AL38" s="9"/>
       <c r="AM38" s="9"/>
       <c r="AN38" s="9"/>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO38" s="9"/>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="E39" s="9"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="11"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -3073,16 +3241,17 @@
       <c r="AL39" s="9"/>
       <c r="AM39" s="9"/>
       <c r="AN39" s="9"/>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO39" s="9"/>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="E40" s="9"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="9"/>
+      <c r="H40" s="11"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -3115,16 +3284,17 @@
       <c r="AL40" s="9"/>
       <c r="AM40" s="9"/>
       <c r="AN40" s="9"/>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO40" s="9"/>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+      <c r="E41" s="9"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="11"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -3157,16 +3327,17 @@
       <c r="AL41" s="9"/>
       <c r="AM41" s="9"/>
       <c r="AN41" s="9"/>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO41" s="9"/>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
+      <c r="E42" s="9"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="9"/>
+      <c r="H42" s="11"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -3199,16 +3370,17 @@
       <c r="AL42" s="9"/>
       <c r="AM42" s="9"/>
       <c r="AN42" s="9"/>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO42" s="9"/>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
+      <c r="E43" s="9"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="9"/>
+      <c r="H43" s="11"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -3241,16 +3413,17 @@
       <c r="AL43" s="9"/>
       <c r="AM43" s="9"/>
       <c r="AN43" s="9"/>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO43" s="9"/>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="11"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -3283,16 +3456,17 @@
       <c r="AL44" s="9"/>
       <c r="AM44" s="9"/>
       <c r="AN44" s="9"/>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO44" s="9"/>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
+      <c r="E45" s="9"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="11"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -3325,16 +3499,17 @@
       <c r="AL45" s="9"/>
       <c r="AM45" s="9"/>
       <c r="AN45" s="9"/>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO45" s="9"/>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
+      <c r="E46" s="9"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="9"/>
+      <c r="H46" s="11"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -3367,16 +3542,17 @@
       <c r="AL46" s="9"/>
       <c r="AM46" s="9"/>
       <c r="AN46" s="9"/>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO46" s="9"/>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="11"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -3409,16 +3585,17 @@
       <c r="AL47" s="9"/>
       <c r="AM47" s="9"/>
       <c r="AN47" s="9"/>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO47" s="9"/>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
+      <c r="E48" s="9"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="11"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -3451,16 +3628,17 @@
       <c r="AL48" s="9"/>
       <c r="AM48" s="9"/>
       <c r="AN48" s="9"/>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO48" s="9"/>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
+      <c r="E49" s="9"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="11"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -3493,16 +3671,17 @@
       <c r="AL49" s="9"/>
       <c r="AM49" s="9"/>
       <c r="AN49" s="9"/>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO49" s="9"/>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="9"/>
+      <c r="H50" s="11"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -3535,16 +3714,17 @@
       <c r="AL50" s="9"/>
       <c r="AM50" s="9"/>
       <c r="AN50" s="9"/>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO50" s="9"/>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
+      <c r="E51" s="9"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="11"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -3577,16 +3757,17 @@
       <c r="AL51" s="9"/>
       <c r="AM51" s="9"/>
       <c r="AN51" s="9"/>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO51" s="9"/>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
+      <c r="E52" s="9"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="9"/>
+      <c r="H52" s="11"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -3619,16 +3800,17 @@
       <c r="AL52" s="9"/>
       <c r="AM52" s="9"/>
       <c r="AN52" s="9"/>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO52" s="9"/>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
+      <c r="E53" s="9"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="11"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -3661,16 +3843,17 @@
       <c r="AL53" s="9"/>
       <c r="AM53" s="9"/>
       <c r="AN53" s="9"/>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO53" s="9"/>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
+      <c r="E54" s="9"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="9"/>
+      <c r="H54" s="11"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -3703,16 +3886,17 @@
       <c r="AL54" s="9"/>
       <c r="AM54" s="9"/>
       <c r="AN54" s="9"/>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO54" s="9"/>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
+      <c r="E55" s="9"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="9"/>
+      <c r="H55" s="11"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
@@ -3745,16 +3929,17 @@
       <c r="AL55" s="9"/>
       <c r="AM55" s="9"/>
       <c r="AN55" s="9"/>
-    </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO55" s="9"/>
+    </row>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
+      <c r="E56" s="9"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="9"/>
+      <c r="H56" s="11"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -3787,16 +3972,17 @@
       <c r="AL56" s="9"/>
       <c r="AM56" s="9"/>
       <c r="AN56" s="9"/>
-    </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO56" s="9"/>
+    </row>
+    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
+      <c r="E57" s="9"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="9"/>
+      <c r="H57" s="11"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
@@ -3829,16 +4015,17 @@
       <c r="AL57" s="9"/>
       <c r="AM57" s="9"/>
       <c r="AN57" s="9"/>
-    </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO57" s="9"/>
+    </row>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
+      <c r="E58" s="9"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="9"/>
+      <c r="H58" s="11"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -3871,16 +4058,17 @@
       <c r="AL58" s="9"/>
       <c r="AM58" s="9"/>
       <c r="AN58" s="9"/>
-    </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO58" s="9"/>
+    </row>
+    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
+      <c r="E59" s="9"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
-      <c r="H59" s="9"/>
+      <c r="H59" s="11"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -3913,16 +4101,17 @@
       <c r="AL59" s="9"/>
       <c r="AM59" s="9"/>
       <c r="AN59" s="9"/>
-    </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO59" s="9"/>
+    </row>
+    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
+      <c r="E60" s="9"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
-      <c r="H60" s="9"/>
+      <c r="H60" s="11"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
@@ -3955,16 +4144,17 @@
       <c r="AL60" s="9"/>
       <c r="AM60" s="9"/>
       <c r="AN60" s="9"/>
-    </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO60" s="9"/>
+    </row>
+    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
+      <c r="E61" s="9"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="9"/>
+      <c r="H61" s="11"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
@@ -3997,16 +4187,17 @@
       <c r="AL61" s="9"/>
       <c r="AM61" s="9"/>
       <c r="AN61" s="9"/>
-    </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO61" s="9"/>
+    </row>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
+      <c r="E62" s="9"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
-      <c r="H62" s="9"/>
+      <c r="H62" s="11"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -4039,16 +4230,17 @@
       <c r="AL62" s="9"/>
       <c r="AM62" s="9"/>
       <c r="AN62" s="9"/>
-    </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO62" s="9"/>
+    </row>
+    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
+      <c r="E63" s="9"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
-      <c r="H63" s="9"/>
+      <c r="H63" s="11"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
@@ -4081,16 +4273,17 @@
       <c r="AL63" s="9"/>
       <c r="AM63" s="9"/>
       <c r="AN63" s="9"/>
-    </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO63" s="9"/>
+    </row>
+    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
+      <c r="E64" s="9"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="9"/>
+      <c r="H64" s="11"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -4123,16 +4316,17 @@
       <c r="AL64" s="9"/>
       <c r="AM64" s="9"/>
       <c r="AN64" s="9"/>
-    </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO64" s="9"/>
+    </row>
+    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
-      <c r="H65" s="9"/>
+      <c r="H65" s="11"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -4165,16 +4359,17 @@
       <c r="AL65" s="9"/>
       <c r="AM65" s="9"/>
       <c r="AN65" s="9"/>
-    </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO65" s="9"/>
+    </row>
+    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
+      <c r="E66" s="9"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="9"/>
+      <c r="H66" s="11"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -4207,16 +4402,17 @@
       <c r="AL66" s="9"/>
       <c r="AM66" s="9"/>
       <c r="AN66" s="9"/>
-    </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO66" s="9"/>
+    </row>
+    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
+      <c r="E67" s="9"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
-      <c r="H67" s="9"/>
+      <c r="H67" s="11"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
@@ -4249,16 +4445,17 @@
       <c r="AL67" s="9"/>
       <c r="AM67" s="9"/>
       <c r="AN67" s="9"/>
-    </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO67" s="9"/>
+    </row>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
+      <c r="E68" s="9"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="9"/>
+      <c r="H68" s="11"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -4291,16 +4488,17 @@
       <c r="AL68" s="9"/>
       <c r="AM68" s="9"/>
       <c r="AN68" s="9"/>
-    </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO68" s="9"/>
+    </row>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
+      <c r="E69" s="9"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
-      <c r="H69" s="9"/>
+      <c r="H69" s="11"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -4333,16 +4531,17 @@
       <c r="AL69" s="9"/>
       <c r="AM69" s="9"/>
       <c r="AN69" s="9"/>
-    </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO69" s="9"/>
+    </row>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
+      <c r="E70" s="9"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
-      <c r="H70" s="9"/>
+      <c r="H70" s="11"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -4375,16 +4574,17 @@
       <c r="AL70" s="9"/>
       <c r="AM70" s="9"/>
       <c r="AN70" s="9"/>
-    </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO70" s="9"/>
+    </row>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
+      <c r="E71" s="9"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
-      <c r="H71" s="9"/>
+      <c r="H71" s="11"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
@@ -4417,16 +4617,17 @@
       <c r="AL71" s="9"/>
       <c r="AM71" s="9"/>
       <c r="AN71" s="9"/>
-    </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO71" s="9"/>
+    </row>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
+      <c r="E72" s="9"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
-      <c r="H72" s="9"/>
+      <c r="H72" s="11"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -4459,16 +4660,17 @@
       <c r="AL72" s="9"/>
       <c r="AM72" s="9"/>
       <c r="AN72" s="9"/>
-    </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO72" s="9"/>
+    </row>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
+      <c r="E73" s="9"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
-      <c r="H73" s="9"/>
+      <c r="H73" s="11"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -4501,16 +4703,17 @@
       <c r="AL73" s="9"/>
       <c r="AM73" s="9"/>
       <c r="AN73" s="9"/>
-    </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO73" s="9"/>
+    </row>
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
+      <c r="E74" s="9"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
-      <c r="H74" s="9"/>
+      <c r="H74" s="11"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -4543,16 +4746,17 @@
       <c r="AL74" s="9"/>
       <c r="AM74" s="9"/>
       <c r="AN74" s="9"/>
-    </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO74" s="9"/>
+    </row>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
+      <c r="E75" s="9"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="9"/>
+      <c r="H75" s="11"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
@@ -4585,16 +4789,17 @@
       <c r="AL75" s="9"/>
       <c r="AM75" s="9"/>
       <c r="AN75" s="9"/>
-    </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO75" s="9"/>
+    </row>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
+      <c r="E76" s="9"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
-      <c r="H76" s="9"/>
+      <c r="H76" s="11"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -4627,16 +4832,17 @@
       <c r="AL76" s="9"/>
       <c r="AM76" s="9"/>
       <c r="AN76" s="9"/>
-    </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO76" s="9"/>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
+      <c r="E77" s="9"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
-      <c r="H77" s="9"/>
+      <c r="H77" s="11"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
@@ -4669,16 +4875,17 @@
       <c r="AL77" s="9"/>
       <c r="AM77" s="9"/>
       <c r="AN77" s="9"/>
-    </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO77" s="9"/>
+    </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
+      <c r="E78" s="9"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
-      <c r="H78" s="9"/>
+      <c r="H78" s="11"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
@@ -4711,16 +4918,17 @@
       <c r="AL78" s="9"/>
       <c r="AM78" s="9"/>
       <c r="AN78" s="9"/>
-    </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO78" s="9"/>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
+      <c r="E79" s="9"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
-      <c r="H79" s="9"/>
+      <c r="H79" s="11"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
@@ -4753,16 +4961,17 @@
       <c r="AL79" s="9"/>
       <c r="AM79" s="9"/>
       <c r="AN79" s="9"/>
-    </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO79" s="9"/>
+    </row>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
+      <c r="E80" s="9"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
-      <c r="H80" s="9"/>
+      <c r="H80" s="11"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
@@ -4795,16 +5004,17 @@
       <c r="AL80" s="9"/>
       <c r="AM80" s="9"/>
       <c r="AN80" s="9"/>
-    </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO80" s="9"/>
+    </row>
+    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
+      <c r="E81" s="9"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
-      <c r="H81" s="9"/>
+      <c r="H81" s="11"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
@@ -4837,16 +5047,17 @@
       <c r="AL81" s="9"/>
       <c r="AM81" s="9"/>
       <c r="AN81" s="9"/>
-    </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO81" s="9"/>
+    </row>
+    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
+      <c r="E82" s="9"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
-      <c r="H82" s="9"/>
+      <c r="H82" s="11"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
@@ -4879,16 +5090,17 @@
       <c r="AL82" s="9"/>
       <c r="AM82" s="9"/>
       <c r="AN82" s="9"/>
-    </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO82" s="9"/>
+    </row>
+    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
+      <c r="E83" s="9"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
-      <c r="H83" s="9"/>
+      <c r="H83" s="11"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
@@ -4921,16 +5133,17 @@
       <c r="AL83" s="9"/>
       <c r="AM83" s="9"/>
       <c r="AN83" s="9"/>
-    </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO83" s="9"/>
+    </row>
+    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
+      <c r="E84" s="9"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
-      <c r="H84" s="9"/>
+      <c r="H84" s="11"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
@@ -4963,16 +5176,17 @@
       <c r="AL84" s="9"/>
       <c r="AM84" s="9"/>
       <c r="AN84" s="9"/>
-    </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO84" s="9"/>
+    </row>
+    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
+      <c r="E85" s="9"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
-      <c r="H85" s="9"/>
+      <c r="H85" s="11"/>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
@@ -5005,16 +5219,17 @@
       <c r="AL85" s="9"/>
       <c r="AM85" s="9"/>
       <c r="AN85" s="9"/>
-    </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO85" s="9"/>
+    </row>
+    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
+      <c r="E86" s="9"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
-      <c r="H86" s="9"/>
+      <c r="H86" s="11"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
@@ -5047,16 +5262,17 @@
       <c r="AL86" s="9"/>
       <c r="AM86" s="9"/>
       <c r="AN86" s="9"/>
-    </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO86" s="9"/>
+    </row>
+    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
+      <c r="E87" s="9"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
-      <c r="H87" s="9"/>
+      <c r="H87" s="11"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
@@ -5089,16 +5305,17 @@
       <c r="AL87" s="9"/>
       <c r="AM87" s="9"/>
       <c r="AN87" s="9"/>
-    </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO87" s="9"/>
+    </row>
+    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
+      <c r="E88" s="9"/>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
-      <c r="H88" s="9"/>
+      <c r="H88" s="11"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -5131,16 +5348,17 @@
       <c r="AL88" s="9"/>
       <c r="AM88" s="9"/>
       <c r="AN88" s="9"/>
-    </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO88" s="9"/>
+    </row>
+    <row r="89" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
+      <c r="E89" s="9"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
-      <c r="H89" s="9"/>
+      <c r="H89" s="11"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
@@ -5173,16 +5391,17 @@
       <c r="AL89" s="9"/>
       <c r="AM89" s="9"/>
       <c r="AN89" s="9"/>
-    </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO89" s="9"/>
+    </row>
+    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
+      <c r="E90" s="9"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
-      <c r="H90" s="9"/>
+      <c r="H90" s="11"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -5215,16 +5434,17 @@
       <c r="AL90" s="9"/>
       <c r="AM90" s="9"/>
       <c r="AN90" s="9"/>
-    </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO90" s="9"/>
+    </row>
+    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
+      <c r="E91" s="9"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
-      <c r="H91" s="9"/>
+      <c r="H91" s="11"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
@@ -5257,16 +5477,17 @@
       <c r="AL91" s="9"/>
       <c r="AM91" s="9"/>
       <c r="AN91" s="9"/>
-    </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO91" s="9"/>
+    </row>
+    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
+      <c r="E92" s="9"/>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
-      <c r="H92" s="9"/>
+      <c r="H92" s="11"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
@@ -5299,16 +5520,17 @@
       <c r="AL92" s="9"/>
       <c r="AM92" s="9"/>
       <c r="AN92" s="9"/>
-    </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO92" s="9"/>
+    </row>
+    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
+      <c r="E93" s="9"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
-      <c r="H93" s="9"/>
+      <c r="H93" s="11"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
@@ -5341,16 +5563,17 @@
       <c r="AL93" s="9"/>
       <c r="AM93" s="9"/>
       <c r="AN93" s="9"/>
-    </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO93" s="9"/>
+    </row>
+    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
+      <c r="E94" s="9"/>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
-      <c r="H94" s="9"/>
+      <c r="H94" s="11"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
@@ -5383,16 +5606,17 @@
       <c r="AL94" s="9"/>
       <c r="AM94" s="9"/>
       <c r="AN94" s="9"/>
-    </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO94" s="9"/>
+    </row>
+    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
+      <c r="E95" s="9"/>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
-      <c r="H95" s="9"/>
+      <c r="H95" s="11"/>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
@@ -5425,16 +5649,17 @@
       <c r="AL95" s="9"/>
       <c r="AM95" s="9"/>
       <c r="AN95" s="9"/>
-    </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO95" s="9"/>
+    </row>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
+      <c r="E96" s="9"/>
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
-      <c r="H96" s="9"/>
+      <c r="H96" s="11"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -5467,16 +5692,17 @@
       <c r="AL96" s="9"/>
       <c r="AM96" s="9"/>
       <c r="AN96" s="9"/>
-    </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO96" s="9"/>
+    </row>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
+      <c r="E97" s="9"/>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
-      <c r="H97" s="9"/>
+      <c r="H97" s="11"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
@@ -5509,16 +5735,17 @@
       <c r="AL97" s="9"/>
       <c r="AM97" s="9"/>
       <c r="AN97" s="9"/>
-    </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO97" s="9"/>
+    </row>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
+      <c r="E98" s="9"/>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
-      <c r="H98" s="9"/>
+      <c r="H98" s="11"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -5551,16 +5778,17 @@
       <c r="AL98" s="9"/>
       <c r="AM98" s="9"/>
       <c r="AN98" s="9"/>
-    </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO98" s="9"/>
+    </row>
+    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
+      <c r="E99" s="9"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
-      <c r="H99" s="9"/>
+      <c r="H99" s="11"/>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
@@ -5593,16 +5821,17 @@
       <c r="AL99" s="9"/>
       <c r="AM99" s="9"/>
       <c r="AN99" s="9"/>
-    </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO99" s="9"/>
+    </row>
+    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
+      <c r="E100" s="9"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
-      <c r="H100" s="9"/>
+      <c r="H100" s="11"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -5635,16 +5864,17 @@
       <c r="AL100" s="9"/>
       <c r="AM100" s="9"/>
       <c r="AN100" s="9"/>
-    </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO100" s="9"/>
+    </row>
+    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
+      <c r="E101" s="9"/>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
-      <c r="H101" s="9"/>
+      <c r="H101" s="11"/>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
@@ -5677,16 +5907,17 @@
       <c r="AL101" s="9"/>
       <c r="AM101" s="9"/>
       <c r="AN101" s="9"/>
-    </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO101" s="9"/>
+    </row>
+    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
+      <c r="E102" s="9"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
-      <c r="H102" s="9"/>
+      <c r="H102" s="11"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
@@ -5719,16 +5950,17 @@
       <c r="AL102" s="9"/>
       <c r="AM102" s="9"/>
       <c r="AN102" s="9"/>
-    </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO102" s="9"/>
+    </row>
+    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
+      <c r="E103" s="9"/>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
-      <c r="H103" s="9"/>
+      <c r="H103" s="11"/>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
@@ -5761,16 +5993,17 @@
       <c r="AL103" s="9"/>
       <c r="AM103" s="9"/>
       <c r="AN103" s="9"/>
-    </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO103" s="9"/>
+    </row>
+    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
+      <c r="E104" s="9"/>
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
-      <c r="H104" s="9"/>
+      <c r="H104" s="11"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -5803,16 +6036,17 @@
       <c r="AL104" s="9"/>
       <c r="AM104" s="9"/>
       <c r="AN104" s="9"/>
-    </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO104" s="9"/>
+    </row>
+    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
+      <c r="E105" s="9"/>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
-      <c r="H105" s="9"/>
+      <c r="H105" s="11"/>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
@@ -5845,16 +6079,17 @@
       <c r="AL105" s="9"/>
       <c r="AM105" s="9"/>
       <c r="AN105" s="9"/>
-    </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO105" s="9"/>
+    </row>
+    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
+      <c r="E106" s="9"/>
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
-      <c r="H106" s="9"/>
+      <c r="H106" s="11"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
@@ -5887,16 +6122,17 @@
       <c r="AL106" s="9"/>
       <c r="AM106" s="9"/>
       <c r="AN106" s="9"/>
-    </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO106" s="9"/>
+    </row>
+    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
+      <c r="E107" s="9"/>
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
-      <c r="H107" s="9"/>
+      <c r="H107" s="11"/>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
@@ -5929,16 +6165,17 @@
       <c r="AL107" s="9"/>
       <c r="AM107" s="9"/>
       <c r="AN107" s="9"/>
-    </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO107" s="9"/>
+    </row>
+    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
+      <c r="E108" s="9"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
-      <c r="H108" s="9"/>
+      <c r="H108" s="11"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
@@ -5971,16 +6208,17 @@
       <c r="AL108" s="9"/>
       <c r="AM108" s="9"/>
       <c r="AN108" s="9"/>
-    </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO108" s="9"/>
+    </row>
+    <row r="109" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
+      <c r="E109" s="9"/>
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
-      <c r="H109" s="9"/>
+      <c r="H109" s="11"/>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
@@ -6013,16 +6251,17 @@
       <c r="AL109" s="9"/>
       <c r="AM109" s="9"/>
       <c r="AN109" s="9"/>
-    </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO109" s="9"/>
+    </row>
+    <row r="110" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
+      <c r="E110" s="9"/>
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
-      <c r="H110" s="9"/>
+      <c r="H110" s="11"/>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
@@ -6055,16 +6294,17 @@
       <c r="AL110" s="9"/>
       <c r="AM110" s="9"/>
       <c r="AN110" s="9"/>
-    </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO110" s="9"/>
+    </row>
+    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
+      <c r="E111" s="9"/>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
-      <c r="H111" s="9"/>
+      <c r="H111" s="11"/>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
@@ -6097,16 +6337,17 @@
       <c r="AL111" s="9"/>
       <c r="AM111" s="9"/>
       <c r="AN111" s="9"/>
-    </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO111" s="9"/>
+    </row>
+    <row r="112" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
+      <c r="E112" s="9"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
-      <c r="H112" s="9"/>
+      <c r="H112" s="11"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
@@ -6139,16 +6380,17 @@
       <c r="AL112" s="9"/>
       <c r="AM112" s="9"/>
       <c r="AN112" s="9"/>
-    </row>
-    <row r="113" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO112" s="9"/>
+    </row>
+    <row r="113" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
+      <c r="E113" s="9"/>
       <c r="F113" s="11"/>
       <c r="G113" s="11"/>
-      <c r="H113" s="9"/>
+      <c r="H113" s="11"/>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
@@ -6181,16 +6423,17 @@
       <c r="AL113" s="9"/>
       <c r="AM113" s="9"/>
       <c r="AN113" s="9"/>
-    </row>
-    <row r="114" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO113" s="9"/>
+    </row>
+    <row r="114" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
+      <c r="E114" s="9"/>
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
-      <c r="H114" s="9"/>
+      <c r="H114" s="11"/>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
@@ -6223,16 +6466,17 @@
       <c r="AL114" s="9"/>
       <c r="AM114" s="9"/>
       <c r="AN114" s="9"/>
-    </row>
-    <row r="115" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO114" s="9"/>
+    </row>
+    <row r="115" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
+      <c r="E115" s="9"/>
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
-      <c r="H115" s="9"/>
+      <c r="H115" s="11"/>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
@@ -6265,16 +6509,17 @@
       <c r="AL115" s="9"/>
       <c r="AM115" s="9"/>
       <c r="AN115" s="9"/>
-    </row>
-    <row r="116" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO115" s="9"/>
+    </row>
+    <row r="116" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
+      <c r="E116" s="9"/>
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
-      <c r="H116" s="9"/>
+      <c r="H116" s="11"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
@@ -6307,16 +6552,17 @@
       <c r="AL116" s="9"/>
       <c r="AM116" s="9"/>
       <c r="AN116" s="9"/>
-    </row>
-    <row r="117" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO116" s="9"/>
+    </row>
+    <row r="117" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
+      <c r="E117" s="9"/>
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
-      <c r="H117" s="9"/>
+      <c r="H117" s="11"/>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
@@ -6349,16 +6595,17 @@
       <c r="AL117" s="9"/>
       <c r="AM117" s="9"/>
       <c r="AN117" s="9"/>
-    </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO117" s="9"/>
+    </row>
+    <row r="118" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
+      <c r="E118" s="9"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
-      <c r="H118" s="9"/>
+      <c r="H118" s="11"/>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
@@ -6391,16 +6638,17 @@
       <c r="AL118" s="9"/>
       <c r="AM118" s="9"/>
       <c r="AN118" s="9"/>
-    </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO118" s="9"/>
+    </row>
+    <row r="119" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
+      <c r="E119" s="9"/>
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
-      <c r="H119" s="9"/>
+      <c r="H119" s="11"/>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
@@ -6433,16 +6681,17 @@
       <c r="AL119" s="9"/>
       <c r="AM119" s="9"/>
       <c r="AN119" s="9"/>
-    </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO119" s="9"/>
+    </row>
+    <row r="120" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
+      <c r="E120" s="9"/>
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
-      <c r="H120" s="9"/>
+      <c r="H120" s="11"/>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
@@ -6475,16 +6724,17 @@
       <c r="AL120" s="9"/>
       <c r="AM120" s="9"/>
       <c r="AN120" s="9"/>
-    </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO120" s="9"/>
+    </row>
+    <row r="121" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
+      <c r="E121" s="9"/>
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
-      <c r="H121" s="9"/>
+      <c r="H121" s="11"/>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
@@ -6517,16 +6767,17 @@
       <c r="AL121" s="9"/>
       <c r="AM121" s="9"/>
       <c r="AN121" s="9"/>
-    </row>
-    <row r="122" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO121" s="9"/>
+    </row>
+    <row r="122" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
+      <c r="E122" s="9"/>
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
-      <c r="H122" s="9"/>
+      <c r="H122" s="11"/>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
@@ -6559,16 +6810,17 @@
       <c r="AL122" s="9"/>
       <c r="AM122" s="9"/>
       <c r="AN122" s="9"/>
-    </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO122" s="9"/>
+    </row>
+    <row r="123" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
+      <c r="E123" s="9"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
-      <c r="H123" s="9"/>
+      <c r="H123" s="11"/>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
@@ -6601,16 +6853,17 @@
       <c r="AL123" s="9"/>
       <c r="AM123" s="9"/>
       <c r="AN123" s="9"/>
-    </row>
-    <row r="124" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO123" s="9"/>
+    </row>
+    <row r="124" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
+      <c r="E124" s="9"/>
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
-      <c r="H124" s="9"/>
+      <c r="H124" s="11"/>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
@@ -6643,16 +6896,17 @@
       <c r="AL124" s="9"/>
       <c r="AM124" s="9"/>
       <c r="AN124" s="9"/>
-    </row>
-    <row r="125" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO124" s="9"/>
+    </row>
+    <row r="125" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
+      <c r="E125" s="9"/>
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
-      <c r="H125" s="9"/>
+      <c r="H125" s="11"/>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
@@ -6685,16 +6939,17 @@
       <c r="AL125" s="9"/>
       <c r="AM125" s="9"/>
       <c r="AN125" s="9"/>
-    </row>
-    <row r="126" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO125" s="9"/>
+    </row>
+    <row r="126" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
-      <c r="E126" s="11"/>
+      <c r="E126" s="9"/>
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
-      <c r="H126" s="9"/>
+      <c r="H126" s="11"/>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
@@ -6727,16 +6982,17 @@
       <c r="AL126" s="9"/>
       <c r="AM126" s="9"/>
       <c r="AN126" s="9"/>
-    </row>
-    <row r="127" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO126" s="9"/>
+    </row>
+    <row r="127" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
+      <c r="E127" s="9"/>
       <c r="F127" s="11"/>
       <c r="G127" s="11"/>
-      <c r="H127" s="9"/>
+      <c r="H127" s="11"/>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
@@ -6769,16 +7025,17 @@
       <c r="AL127" s="9"/>
       <c r="AM127" s="9"/>
       <c r="AN127" s="9"/>
-    </row>
-    <row r="128" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO127" s="9"/>
+    </row>
+    <row r="128" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
+      <c r="E128" s="9"/>
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
-      <c r="H128" s="9"/>
+      <c r="H128" s="11"/>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -6811,16 +7068,17 @@
       <c r="AL128" s="9"/>
       <c r="AM128" s="9"/>
       <c r="AN128" s="9"/>
-    </row>
-    <row r="129" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO128" s="9"/>
+    </row>
+    <row r="129" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
+      <c r="E129" s="9"/>
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
-      <c r="H129" s="9"/>
+      <c r="H129" s="11"/>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
@@ -6853,16 +7111,17 @@
       <c r="AL129" s="9"/>
       <c r="AM129" s="9"/>
       <c r="AN129" s="9"/>
-    </row>
-    <row r="130" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO129" s="9"/>
+    </row>
+    <row r="130" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
+      <c r="E130" s="9"/>
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
-      <c r="H130" s="9"/>
+      <c r="H130" s="11"/>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
@@ -6895,16 +7154,17 @@
       <c r="AL130" s="9"/>
       <c r="AM130" s="9"/>
       <c r="AN130" s="9"/>
-    </row>
-    <row r="131" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO130" s="9"/>
+    </row>
+    <row r="131" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
+      <c r="E131" s="9"/>
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
-      <c r="H131" s="9"/>
+      <c r="H131" s="11"/>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
@@ -6937,16 +7197,17 @@
       <c r="AL131" s="9"/>
       <c r="AM131" s="9"/>
       <c r="AN131" s="9"/>
-    </row>
-    <row r="132" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO131" s="9"/>
+    </row>
+    <row r="132" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
-      <c r="E132" s="11"/>
+      <c r="E132" s="9"/>
       <c r="F132" s="11"/>
       <c r="G132" s="11"/>
-      <c r="H132" s="9"/>
+      <c r="H132" s="11"/>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
@@ -6979,16 +7240,17 @@
       <c r="AL132" s="9"/>
       <c r="AM132" s="9"/>
       <c r="AN132" s="9"/>
-    </row>
-    <row r="133" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO132" s="9"/>
+    </row>
+    <row r="133" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
+      <c r="E133" s="9"/>
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
-      <c r="H133" s="9"/>
+      <c r="H133" s="11"/>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
@@ -7021,16 +7283,17 @@
       <c r="AL133" s="9"/>
       <c r="AM133" s="9"/>
       <c r="AN133" s="9"/>
-    </row>
-    <row r="134" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO133" s="9"/>
+    </row>
+    <row r="134" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
+      <c r="E134" s="9"/>
       <c r="F134" s="11"/>
       <c r="G134" s="11"/>
-      <c r="H134" s="9"/>
+      <c r="H134" s="11"/>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
@@ -7063,16 +7326,17 @@
       <c r="AL134" s="9"/>
       <c r="AM134" s="9"/>
       <c r="AN134" s="9"/>
-    </row>
-    <row r="135" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO134" s="9"/>
+    </row>
+    <row r="135" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
-      <c r="E135" s="11"/>
+      <c r="E135" s="9"/>
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
-      <c r="H135" s="9"/>
+      <c r="H135" s="11"/>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
@@ -7105,16 +7369,17 @@
       <c r="AL135" s="9"/>
       <c r="AM135" s="9"/>
       <c r="AN135" s="9"/>
-    </row>
-    <row r="136" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO135" s="9"/>
+    </row>
+    <row r="136" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
+      <c r="E136" s="9"/>
       <c r="F136" s="11"/>
       <c r="G136" s="11"/>
-      <c r="H136" s="9"/>
+      <c r="H136" s="11"/>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
@@ -7147,16 +7412,17 @@
       <c r="AL136" s="9"/>
       <c r="AM136" s="9"/>
       <c r="AN136" s="9"/>
-    </row>
-    <row r="137" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO136" s="9"/>
+    </row>
+    <row r="137" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
-      <c r="E137" s="11"/>
+      <c r="E137" s="9"/>
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
-      <c r="H137" s="9"/>
+      <c r="H137" s="11"/>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
@@ -7189,16 +7455,17 @@
       <c r="AL137" s="9"/>
       <c r="AM137" s="9"/>
       <c r="AN137" s="9"/>
-    </row>
-    <row r="138" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO137" s="9"/>
+    </row>
+    <row r="138" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
+      <c r="E138" s="9"/>
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
-      <c r="H138" s="9"/>
+      <c r="H138" s="11"/>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
@@ -7231,16 +7498,17 @@
       <c r="AL138" s="9"/>
       <c r="AM138" s="9"/>
       <c r="AN138" s="9"/>
-    </row>
-    <row r="139" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO138" s="9"/>
+    </row>
+    <row r="139" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
+      <c r="E139" s="9"/>
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
-      <c r="H139" s="9"/>
+      <c r="H139" s="11"/>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
@@ -7273,16 +7541,17 @@
       <c r="AL139" s="9"/>
       <c r="AM139" s="9"/>
       <c r="AN139" s="9"/>
-    </row>
-    <row r="140" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO139" s="9"/>
+    </row>
+    <row r="140" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
-      <c r="E140" s="11"/>
+      <c r="E140" s="9"/>
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
-      <c r="H140" s="9"/>
+      <c r="H140" s="11"/>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
@@ -7315,16 +7584,17 @@
       <c r="AL140" s="9"/>
       <c r="AM140" s="9"/>
       <c r="AN140" s="9"/>
-    </row>
-    <row r="141" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO140" s="9"/>
+    </row>
+    <row r="141" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
-      <c r="E141" s="11"/>
+      <c r="E141" s="9"/>
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
-      <c r="H141" s="9"/>
+      <c r="H141" s="11"/>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
@@ -7357,16 +7627,17 @@
       <c r="AL141" s="9"/>
       <c r="AM141" s="9"/>
       <c r="AN141" s="9"/>
-    </row>
-    <row r="142" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO141" s="9"/>
+    </row>
+    <row r="142" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
+      <c r="E142" s="9"/>
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
-      <c r="H142" s="9"/>
+      <c r="H142" s="11"/>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
@@ -7399,16 +7670,17 @@
       <c r="AL142" s="9"/>
       <c r="AM142" s="9"/>
       <c r="AN142" s="9"/>
-    </row>
-    <row r="143" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO142" s="9"/>
+    </row>
+    <row r="143" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
+      <c r="E143" s="9"/>
       <c r="F143" s="11"/>
       <c r="G143" s="11"/>
-      <c r="H143" s="9"/>
+      <c r="H143" s="11"/>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
@@ -7441,16 +7713,17 @@
       <c r="AL143" s="9"/>
       <c r="AM143" s="9"/>
       <c r="AN143" s="9"/>
-    </row>
-    <row r="144" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO143" s="9"/>
+    </row>
+    <row r="144" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
+      <c r="E144" s="9"/>
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
-      <c r="H144" s="9"/>
+      <c r="H144" s="11"/>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
@@ -7483,16 +7756,17 @@
       <c r="AL144" s="9"/>
       <c r="AM144" s="9"/>
       <c r="AN144" s="9"/>
-    </row>
-    <row r="145" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO144" s="9"/>
+    </row>
+    <row r="145" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
+      <c r="E145" s="9"/>
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
-      <c r="H145" s="9"/>
+      <c r="H145" s="11"/>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
@@ -7525,16 +7799,17 @@
       <c r="AL145" s="9"/>
       <c r="AM145" s="9"/>
       <c r="AN145" s="9"/>
-    </row>
-    <row r="146" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO145" s="9"/>
+    </row>
+    <row r="146" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
+      <c r="E146" s="9"/>
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
-      <c r="H146" s="9"/>
+      <c r="H146" s="11"/>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
@@ -7567,16 +7842,17 @@
       <c r="AL146" s="9"/>
       <c r="AM146" s="9"/>
       <c r="AN146" s="9"/>
-    </row>
-    <row r="147" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO146" s="9"/>
+    </row>
+    <row r="147" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
-      <c r="E147" s="11"/>
+      <c r="E147" s="9"/>
       <c r="F147" s="11"/>
       <c r="G147" s="11"/>
-      <c r="H147" s="9"/>
+      <c r="H147" s="11"/>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
@@ -7609,16 +7885,17 @@
       <c r="AL147" s="9"/>
       <c r="AM147" s="9"/>
       <c r="AN147" s="9"/>
-    </row>
-    <row r="148" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO147" s="9"/>
+    </row>
+    <row r="148" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
-      <c r="E148" s="11"/>
+      <c r="E148" s="9"/>
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
-      <c r="H148" s="9"/>
+      <c r="H148" s="11"/>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
@@ -7651,16 +7928,17 @@
       <c r="AL148" s="9"/>
       <c r="AM148" s="9"/>
       <c r="AN148" s="9"/>
-    </row>
-    <row r="149" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO148" s="9"/>
+    </row>
+    <row r="149" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
-      <c r="E149" s="11"/>
+      <c r="E149" s="9"/>
       <c r="F149" s="11"/>
       <c r="G149" s="11"/>
-      <c r="H149" s="9"/>
+      <c r="H149" s="11"/>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
@@ -7693,16 +7971,17 @@
       <c r="AL149" s="9"/>
       <c r="AM149" s="9"/>
       <c r="AN149" s="9"/>
-    </row>
-    <row r="150" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO149" s="9"/>
+    </row>
+    <row r="150" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
-      <c r="E150" s="11"/>
+      <c r="E150" s="9"/>
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
-      <c r="H150" s="9"/>
+      <c r="H150" s="11"/>
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
@@ -7735,16 +8014,17 @@
       <c r="AL150" s="9"/>
       <c r="AM150" s="9"/>
       <c r="AN150" s="9"/>
-    </row>
-    <row r="151" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO150" s="9"/>
+    </row>
+    <row r="151" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
-      <c r="E151" s="11"/>
+      <c r="E151" s="9"/>
       <c r="F151" s="11"/>
       <c r="G151" s="11"/>
-      <c r="H151" s="9"/>
+      <c r="H151" s="11"/>
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
@@ -7777,16 +8057,17 @@
       <c r="AL151" s="9"/>
       <c r="AM151" s="9"/>
       <c r="AN151" s="9"/>
-    </row>
-    <row r="152" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO151" s="9"/>
+    </row>
+    <row r="152" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
+      <c r="E152" s="9"/>
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
-      <c r="H152" s="9"/>
+      <c r="H152" s="11"/>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
@@ -7819,16 +8100,17 @@
       <c r="AL152" s="9"/>
       <c r="AM152" s="9"/>
       <c r="AN152" s="9"/>
-    </row>
-    <row r="153" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO152" s="9"/>
+    </row>
+    <row r="153" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
-      <c r="E153" s="11"/>
+      <c r="E153" s="9"/>
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
-      <c r="H153" s="9"/>
+      <c r="H153" s="11"/>
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
       <c r="K153" s="9"/>
@@ -7861,16 +8143,17 @@
       <c r="AL153" s="9"/>
       <c r="AM153" s="9"/>
       <c r="AN153" s="9"/>
-    </row>
-    <row r="154" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO153" s="9"/>
+    </row>
+    <row r="154" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
-      <c r="E154" s="11"/>
+      <c r="E154" s="9"/>
       <c r="F154" s="11"/>
       <c r="G154" s="11"/>
-      <c r="H154" s="9"/>
+      <c r="H154" s="11"/>
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
       <c r="K154" s="9"/>
@@ -7903,16 +8186,17 @@
       <c r="AL154" s="9"/>
       <c r="AM154" s="9"/>
       <c r="AN154" s="9"/>
-    </row>
-    <row r="155" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO154" s="9"/>
+    </row>
+    <row r="155" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
-      <c r="E155" s="11"/>
+      <c r="E155" s="9"/>
       <c r="F155" s="11"/>
       <c r="G155" s="11"/>
-      <c r="H155" s="9"/>
+      <c r="H155" s="11"/>
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
       <c r="K155" s="9"/>
@@ -7945,16 +8229,17 @@
       <c r="AL155" s="9"/>
       <c r="AM155" s="9"/>
       <c r="AN155" s="9"/>
-    </row>
-    <row r="156" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO155" s="9"/>
+    </row>
+    <row r="156" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
-      <c r="E156" s="11"/>
+      <c r="E156" s="9"/>
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
-      <c r="H156" s="9"/>
+      <c r="H156" s="11"/>
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
       <c r="K156" s="9"/>
@@ -7987,16 +8272,17 @@
       <c r="AL156" s="9"/>
       <c r="AM156" s="9"/>
       <c r="AN156" s="9"/>
-    </row>
-    <row r="157" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO156" s="9"/>
+    </row>
+    <row r="157" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
-      <c r="E157" s="11"/>
+      <c r="E157" s="9"/>
       <c r="F157" s="11"/>
       <c r="G157" s="11"/>
-      <c r="H157" s="9"/>
+      <c r="H157" s="11"/>
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
       <c r="K157" s="9"/>
@@ -8029,16 +8315,17 @@
       <c r="AL157" s="9"/>
       <c r="AM157" s="9"/>
       <c r="AN157" s="9"/>
-    </row>
-    <row r="158" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO157" s="9"/>
+    </row>
+    <row r="158" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
+      <c r="E158" s="9"/>
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
-      <c r="H158" s="9"/>
+      <c r="H158" s="11"/>
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
       <c r="K158" s="9"/>
@@ -8071,16 +8358,17 @@
       <c r="AL158" s="9"/>
       <c r="AM158" s="9"/>
       <c r="AN158" s="9"/>
-    </row>
-    <row r="159" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO158" s="9"/>
+    </row>
+    <row r="159" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
-      <c r="E159" s="11"/>
+      <c r="E159" s="9"/>
       <c r="F159" s="11"/>
       <c r="G159" s="11"/>
-      <c r="H159" s="9"/>
+      <c r="H159" s="11"/>
       <c r="I159" s="9"/>
       <c r="J159" s="9"/>
       <c r="K159" s="9"/>
@@ -8113,16 +8401,17 @@
       <c r="AL159" s="9"/>
       <c r="AM159" s="9"/>
       <c r="AN159" s="9"/>
-    </row>
-    <row r="160" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO159" s="9"/>
+    </row>
+    <row r="160" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
-      <c r="E160" s="11"/>
+      <c r="E160" s="9"/>
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
-      <c r="H160" s="9"/>
+      <c r="H160" s="11"/>
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
       <c r="K160" s="9"/>
@@ -8155,16 +8444,17 @@
       <c r="AL160" s="9"/>
       <c r="AM160" s="9"/>
       <c r="AN160" s="9"/>
-    </row>
-    <row r="161" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="AO160" s="9"/>
+    </row>
+    <row r="161" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
-      <c r="E161" s="11"/>
+      <c r="E161" s="9"/>
       <c r="F161" s="11"/>
       <c r="G161" s="11"/>
-      <c r="H161" s="9"/>
+      <c r="H161" s="11"/>
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
       <c r="K161" s="9"/>
@@ -8197,18 +8487,62 @@
       <c r="AL161" s="9"/>
       <c r="AM161" s="9"/>
       <c r="AN161" s="9"/>
+      <c r="AO161" s="9"/>
+    </row>
+    <row r="162" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
+      <c r="L162" s="9"/>
+      <c r="M162" s="9"/>
+      <c r="N162" s="9"/>
+      <c r="O162" s="9"/>
+      <c r="P162" s="9"/>
+      <c r="Q162" s="9"/>
+      <c r="R162" s="9"/>
+      <c r="S162" s="9"/>
+      <c r="T162" s="9"/>
+      <c r="U162" s="9"/>
+      <c r="V162" s="9"/>
+      <c r="W162" s="9"/>
+      <c r="X162" s="9"/>
+      <c r="Y162" s="9"/>
+      <c r="Z162" s="9"/>
+      <c r="AA162" s="9"/>
+      <c r="AB162" s="9"/>
+      <c r="AC162" s="9"/>
+      <c r="AD162" s="9"/>
+      <c r="AE162" s="9"/>
+      <c r="AF162" s="9"/>
+      <c r="AG162" s="9"/>
+      <c r="AH162" s="9"/>
+      <c r="AI162" s="9"/>
+      <c r="AJ162" s="9"/>
+      <c r="AK162" s="9"/>
+      <c r="AL162" s="9"/>
+      <c r="AM162" s="9"/>
+      <c r="AN162" s="9"/>
+      <c r="AO162" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B11:D1048576 B2:D2 B4:D7">
+  <conditionalFormatting sqref="B12:E1048576 B2:E2 B4:E7">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>
@@ -8219,7 +8553,7 @@
       <formula>"50_59"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D1">
+  <conditionalFormatting sqref="B1:E1">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>
@@ -8230,7 +8564,7 @@
       <formula>"50_59"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A1048576 A2 A4:A7">
+  <conditionalFormatting sqref="A12:A1048576 A2 A4:A7">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>
@@ -8252,7 +8586,7 @@
       <formula>"50_59"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:D3">
+  <conditionalFormatting sqref="B3:E3">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>

--- a/Assets/Data/excel/功法数据表.xlsx
+++ b/Assets/Data/excel/功法数据表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__I_Study\Projects\Gongfu-World\Assets\Data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__Study\Projects\Unity3d\Gongfu-World\Assets\Data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EA353A-F9D9-4B95-8EDD-368AC7712BEF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="120" windowWidth="19200" windowHeight="11610" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="120" windowWidth="19200" windowHeight="11610" tabRatio="763"/>
   </bookViews>
   <sheets>
     <sheet name="GongfaDef" sheetId="27" r:id="rId1"/>
@@ -19,11 +18,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GongfaDef!$C$2:$C$162</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="119">
   <si>
     <t>功法名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,13 +490,21 @@
   </si>
   <si>
     <t>60,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqVitality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -664,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,6 +745,9 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -756,12 +767,12 @@
   <cellStyles count="8">
     <cellStyle name="百分比" xfId="7" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 3 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 3 2" xfId="3"/>
+    <cellStyle name="常规 3 3" xfId="5"/>
+    <cellStyle name="常规 4" xfId="6"/>
+    <cellStyle name="常规 5" xfId="4"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -986,23 +997,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1038,23 +1032,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1230,76 +1207,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.36328125" style="10" customWidth="1"/>
-    <col min="3" max="4" width="8.7265625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" style="10" customWidth="1"/>
-    <col min="7" max="8" width="8.7265625" style="10" customWidth="1"/>
-    <col min="9" max="13" width="7.26953125" style="12" customWidth="1"/>
-    <col min="14" max="14" width="6.6328125" style="12" customWidth="1"/>
-    <col min="15" max="16" width="7.26953125" style="12" customWidth="1"/>
-    <col min="17" max="23" width="4.7265625" style="12" customWidth="1"/>
-    <col min="24" max="24" width="26.90625" style="12" customWidth="1"/>
-    <col min="25" max="29" width="6.08984375" style="12" customWidth="1"/>
-    <col min="30" max="30" width="10.26953125" style="12" customWidth="1"/>
-    <col min="31" max="41" width="7.26953125" style="12" customWidth="1"/>
-    <col min="42" max="16384" width="9" style="10"/>
+    <col min="1" max="2" width="10.375" style="10" customWidth="1"/>
+    <col min="3" max="4" width="8.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="12" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="10" customWidth="1"/>
+    <col min="7" max="8" width="8.75" style="10" customWidth="1"/>
+    <col min="9" max="13" width="7.25" style="12" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="12" customWidth="1"/>
+    <col min="15" max="16" width="7.25" style="12" customWidth="1"/>
+    <col min="17" max="23" width="4.75" style="12" customWidth="1"/>
+    <col min="24" max="24" width="26.875" style="12" customWidth="1"/>
+    <col min="25" max="30" width="6.125" style="12" customWidth="1"/>
+    <col min="31" max="31" width="10.25" style="12" customWidth="1"/>
+    <col min="32" max="42" width="7.25" style="12" customWidth="1"/>
+    <col min="43" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="23"/>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="28"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="24" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="24" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="24" t="s">
+      <c r="O1" s="26"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="27"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="17"/>
       <c r="Z1" s="17"/>
       <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
+      <c r="AB1" s="24"/>
       <c r="AC1" s="17"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="5"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="4"/>
       <c r="AF1" s="5"/>
       <c r="AG1" s="5"/>
       <c r="AH1" s="5"/>
@@ -1310,8 +1287,9 @@
       <c r="AM1" s="5"/>
       <c r="AN1" s="5"/>
       <c r="AO1" s="5"/>
-    </row>
-    <row r="2" spans="1:41" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.25">
+      <c r="AP1" s="5"/>
+    </row>
+    <row r="2" spans="1:42" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -1384,39 +1362,40 @@
       <c r="X2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="Y2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
       <c r="AC2" s="26"/>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
       <c r="AN2" s="5"/>
       <c r="AO2" s="5"/>
-    </row>
-    <row r="3" spans="1:41" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP2" s="5"/>
+    </row>
+    <row r="3" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>92</v>
       </c>
@@ -1451,7 +1430,7 @@
       <c r="AB3" s="15"/>
       <c r="AC3" s="15"/>
       <c r="AD3" s="15"/>
-      <c r="AE3" s="14"/>
+      <c r="AE3" s="15"/>
       <c r="AF3" s="14"/>
       <c r="AG3" s="14"/>
       <c r="AH3" s="14"/>
@@ -1462,8 +1441,9 @@
       <c r="AM3" s="14"/>
       <c r="AN3" s="14"/>
       <c r="AO3" s="14"/>
-    </row>
-    <row r="4" spans="1:41" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP3" s="14"/>
+    </row>
+    <row r="4" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>67</v>
       </c>
@@ -1546,15 +1526,17 @@
         <v>72</v>
       </c>
       <c r="AB4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AD4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AE4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AE4" s="14"/>
       <c r="AF4" s="14"/>
       <c r="AG4" s="14"/>
       <c r="AH4" s="14"/>
@@ -1565,8 +1547,9 @@
       <c r="AM4" s="14"/>
       <c r="AN4" s="14"/>
       <c r="AO4" s="14"/>
-    </row>
-    <row r="5" spans="1:41" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP4" s="14"/>
+    </row>
+    <row r="5" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>64</v>
       </c>
@@ -1649,15 +1632,17 @@
         <v>75</v>
       </c>
       <c r="AB5" s="14" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AC5" s="14" t="s">
         <v>75</v>
       </c>
       <c r="AD5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="AE5" s="14"/>
       <c r="AF5" s="14"/>
       <c r="AG5" s="14"/>
       <c r="AH5" s="14"/>
@@ -1668,8 +1653,9 @@
       <c r="AM5" s="14"/>
       <c r="AN5" s="14"/>
       <c r="AO5" s="14"/>
-    </row>
-    <row r="6" spans="1:41" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP5" s="14"/>
+    </row>
+    <row r="6" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
         <v>96</v>
       </c>
@@ -1713,8 +1699,9 @@
       <c r="AM6" s="14"/>
       <c r="AN6" s="14"/>
       <c r="AO6" s="14"/>
-    </row>
-    <row r="7" spans="1:41" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP6" s="14"/>
+    </row>
+    <row r="7" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1756,8 +1743,9 @@
       <c r="AM7" s="14"/>
       <c r="AN7" s="14"/>
       <c r="AO7" s="14"/>
-    </row>
-    <row r="8" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP7" s="14"/>
+    </row>
+    <row r="8" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>65</v>
       </c>
@@ -1801,8 +1789,9 @@
       <c r="AM8" s="9"/>
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
-    </row>
-    <row r="9" spans="1:41" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP8" s="9"/>
+    </row>
+    <row r="9" spans="1:42" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
         <v>109</v>
@@ -1862,10 +1851,10 @@
       <c r="AA9" s="19"/>
       <c r="AB9" s="19"/>
       <c r="AC9" s="19"/>
-      <c r="AD9" s="19" t="s">
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
@@ -1876,8 +1865,9 @@
       <c r="AM9" s="19"/>
       <c r="AN9" s="19"/>
       <c r="AO9" s="19"/>
-    </row>
-    <row r="10" spans="1:41" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP9" s="19"/>
+    </row>
+    <row r="10" spans="1:42" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
       <c r="B10" s="18" t="s">
         <v>99</v>
@@ -1941,10 +1931,10 @@
       <c r="AA10" s="19"/>
       <c r="AB10" s="19"/>
       <c r="AC10" s="19"/>
-      <c r="AD10" s="19" t="s">
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
@@ -1955,8 +1945,9 @@
       <c r="AM10" s="19"/>
       <c r="AN10" s="19"/>
       <c r="AO10" s="19"/>
-    </row>
-    <row r="11" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AP10" s="19"/>
+    </row>
+    <row r="11" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
       <c r="B11" s="18" t="s">
         <v>100</v>
@@ -2024,10 +2015,10 @@
       <c r="AA11" s="19"/>
       <c r="AB11" s="19"/>
       <c r="AC11" s="19"/>
-      <c r="AD11" s="19" t="s">
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
@@ -2038,8 +2029,9 @@
       <c r="AM11" s="19"/>
       <c r="AN11" s="19"/>
       <c r="AO11" s="19"/>
-    </row>
-    <row r="12" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AP11" s="19"/>
+    </row>
+    <row r="12" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -2081,8 +2073,9 @@
       <c r="AM12" s="19"/>
       <c r="AN12" s="19"/>
       <c r="AO12" s="19"/>
-    </row>
-    <row r="13" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AP12" s="19"/>
+    </row>
+    <row r="13" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -2124,8 +2117,9 @@
       <c r="AM13" s="19"/>
       <c r="AN13" s="19"/>
       <c r="AO13" s="19"/>
-    </row>
-    <row r="14" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AP13" s="19"/>
+    </row>
+    <row r="14" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -2167,8 +2161,9 @@
       <c r="AM14" s="19"/>
       <c r="AN14" s="19"/>
       <c r="AO14" s="19"/>
-    </row>
-    <row r="15" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AP14" s="19"/>
+    </row>
+    <row r="15" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -2210,8 +2205,9 @@
       <c r="AM15" s="19"/>
       <c r="AN15" s="19"/>
       <c r="AO15" s="19"/>
-    </row>
-    <row r="16" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AP15" s="19"/>
+    </row>
+    <row r="16" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -2253,8 +2249,9 @@
       <c r="AM16" s="19"/>
       <c r="AN16" s="19"/>
       <c r="AO16" s="19"/>
-    </row>
-    <row r="17" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AP16" s="19"/>
+    </row>
+    <row r="17" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -2296,8 +2293,9 @@
       <c r="AM17" s="19"/>
       <c r="AN17" s="19"/>
       <c r="AO17" s="19"/>
-    </row>
-    <row r="18" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AP17" s="19"/>
+    </row>
+    <row r="18" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -2339,8 +2337,9 @@
       <c r="AM18" s="19"/>
       <c r="AN18" s="19"/>
       <c r="AO18" s="19"/>
-    </row>
-    <row r="19" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AP18" s="19"/>
+    </row>
+    <row r="19" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -2382,8 +2381,9 @@
       <c r="AM19" s="19"/>
       <c r="AN19" s="19"/>
       <c r="AO19" s="19"/>
-    </row>
-    <row r="20" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AP19" s="19"/>
+    </row>
+    <row r="20" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -2425,8 +2425,9 @@
       <c r="AM20" s="19"/>
       <c r="AN20" s="19"/>
       <c r="AO20" s="19"/>
-    </row>
-    <row r="21" spans="1:41" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AP20" s="19"/>
+    </row>
+    <row r="21" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -2468,8 +2469,9 @@
       <c r="AM21" s="19"/>
       <c r="AN21" s="19"/>
       <c r="AO21" s="19"/>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP21" s="19"/>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2511,8 +2513,9 @@
       <c r="AM22" s="9"/>
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP22" s="9"/>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2554,8 +2557,9 @@
       <c r="AM23" s="9"/>
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP23" s="9"/>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2597,8 +2601,9 @@
       <c r="AM24" s="9"/>
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP24" s="9"/>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2640,8 +2645,9 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP25" s="9"/>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2683,8 +2689,9 @@
       <c r="AM26" s="9"/>
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP26" s="9"/>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2726,8 +2733,9 @@
       <c r="AM27" s="9"/>
       <c r="AN27" s="9"/>
       <c r="AO27" s="9"/>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP27" s="9"/>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2769,8 +2777,9 @@
       <c r="AM28" s="9"/>
       <c r="AN28" s="9"/>
       <c r="AO28" s="9"/>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP28" s="9"/>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2812,8 +2821,9 @@
       <c r="AM29" s="9"/>
       <c r="AN29" s="9"/>
       <c r="AO29" s="9"/>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP29" s="9"/>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2855,8 +2865,9 @@
       <c r="AM30" s="9"/>
       <c r="AN30" s="9"/>
       <c r="AO30" s="9"/>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP30" s="9"/>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2898,8 +2909,9 @@
       <c r="AM31" s="9"/>
       <c r="AN31" s="9"/>
       <c r="AO31" s="9"/>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP31" s="9"/>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2941,8 +2953,9 @@
       <c r="AM32" s="9"/>
       <c r="AN32" s="9"/>
       <c r="AO32" s="9"/>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP32" s="9"/>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2984,8 +2997,9 @@
       <c r="AM33" s="9"/>
       <c r="AN33" s="9"/>
       <c r="AO33" s="9"/>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP33" s="9"/>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -3027,8 +3041,9 @@
       <c r="AM34" s="9"/>
       <c r="AN34" s="9"/>
       <c r="AO34" s="9"/>
-    </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP34" s="9"/>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -3070,8 +3085,9 @@
       <c r="AM35" s="9"/>
       <c r="AN35" s="9"/>
       <c r="AO35" s="9"/>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP35" s="9"/>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -3113,8 +3129,9 @@
       <c r="AM36" s="9"/>
       <c r="AN36" s="9"/>
       <c r="AO36" s="9"/>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP36" s="9"/>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -3156,8 +3173,9 @@
       <c r="AM37" s="9"/>
       <c r="AN37" s="9"/>
       <c r="AO37" s="9"/>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP37" s="9"/>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -3199,8 +3217,9 @@
       <c r="AM38" s="9"/>
       <c r="AN38" s="9"/>
       <c r="AO38" s="9"/>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP38" s="9"/>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -3242,8 +3261,9 @@
       <c r="AM39" s="9"/>
       <c r="AN39" s="9"/>
       <c r="AO39" s="9"/>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP39" s="9"/>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -3285,8 +3305,9 @@
       <c r="AM40" s="9"/>
       <c r="AN40" s="9"/>
       <c r="AO40" s="9"/>
-    </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP40" s="9"/>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -3328,8 +3349,9 @@
       <c r="AM41" s="9"/>
       <c r="AN41" s="9"/>
       <c r="AO41" s="9"/>
-    </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP41" s="9"/>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -3371,8 +3393,9 @@
       <c r="AM42" s="9"/>
       <c r="AN42" s="9"/>
       <c r="AO42" s="9"/>
-    </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP42" s="9"/>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -3414,8 +3437,9 @@
       <c r="AM43" s="9"/>
       <c r="AN43" s="9"/>
       <c r="AO43" s="9"/>
-    </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP43" s="9"/>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -3457,8 +3481,9 @@
       <c r="AM44" s="9"/>
       <c r="AN44" s="9"/>
       <c r="AO44" s="9"/>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP44" s="9"/>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3500,8 +3525,9 @@
       <c r="AM45" s="9"/>
       <c r="AN45" s="9"/>
       <c r="AO45" s="9"/>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP45" s="9"/>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -3543,8 +3569,9 @@
       <c r="AM46" s="9"/>
       <c r="AN46" s="9"/>
       <c r="AO46" s="9"/>
-    </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP46" s="9"/>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -3586,8 +3613,9 @@
       <c r="AM47" s="9"/>
       <c r="AN47" s="9"/>
       <c r="AO47" s="9"/>
-    </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP47" s="9"/>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -3629,8 +3657,9 @@
       <c r="AM48" s="9"/>
       <c r="AN48" s="9"/>
       <c r="AO48" s="9"/>
-    </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP48" s="9"/>
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -3672,8 +3701,9 @@
       <c r="AM49" s="9"/>
       <c r="AN49" s="9"/>
       <c r="AO49" s="9"/>
-    </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP49" s="9"/>
+    </row>
+    <row r="50" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -3715,8 +3745,9 @@
       <c r="AM50" s="9"/>
       <c r="AN50" s="9"/>
       <c r="AO50" s="9"/>
-    </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP50" s="9"/>
+    </row>
+    <row r="51" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -3758,8 +3789,9 @@
       <c r="AM51" s="9"/>
       <c r="AN51" s="9"/>
       <c r="AO51" s="9"/>
-    </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP51" s="9"/>
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -3801,8 +3833,9 @@
       <c r="AM52" s="9"/>
       <c r="AN52" s="9"/>
       <c r="AO52" s="9"/>
-    </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP52" s="9"/>
+    </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -3844,8 +3877,9 @@
       <c r="AM53" s="9"/>
       <c r="AN53" s="9"/>
       <c r="AO53" s="9"/>
-    </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP53" s="9"/>
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -3887,8 +3921,9 @@
       <c r="AM54" s="9"/>
       <c r="AN54" s="9"/>
       <c r="AO54" s="9"/>
-    </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP54" s="9"/>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -3930,8 +3965,9 @@
       <c r="AM55" s="9"/>
       <c r="AN55" s="9"/>
       <c r="AO55" s="9"/>
-    </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP55" s="9"/>
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -3973,8 +4009,9 @@
       <c r="AM56" s="9"/>
       <c r="AN56" s="9"/>
       <c r="AO56" s="9"/>
-    </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP56" s="9"/>
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -4016,8 +4053,9 @@
       <c r="AM57" s="9"/>
       <c r="AN57" s="9"/>
       <c r="AO57" s="9"/>
-    </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP57" s="9"/>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -4059,8 +4097,9 @@
       <c r="AM58" s="9"/>
       <c r="AN58" s="9"/>
       <c r="AO58" s="9"/>
-    </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP58" s="9"/>
+    </row>
+    <row r="59" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -4102,8 +4141,9 @@
       <c r="AM59" s="9"/>
       <c r="AN59" s="9"/>
       <c r="AO59" s="9"/>
-    </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP59" s="9"/>
+    </row>
+    <row r="60" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -4145,8 +4185,9 @@
       <c r="AM60" s="9"/>
       <c r="AN60" s="9"/>
       <c r="AO60" s="9"/>
-    </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP60" s="9"/>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -4188,8 +4229,9 @@
       <c r="AM61" s="9"/>
       <c r="AN61" s="9"/>
       <c r="AO61" s="9"/>
-    </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP61" s="9"/>
+    </row>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -4231,8 +4273,9 @@
       <c r="AM62" s="9"/>
       <c r="AN62" s="9"/>
       <c r="AO62" s="9"/>
-    </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP62" s="9"/>
+    </row>
+    <row r="63" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -4274,8 +4317,9 @@
       <c r="AM63" s="9"/>
       <c r="AN63" s="9"/>
       <c r="AO63" s="9"/>
-    </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP63" s="9"/>
+    </row>
+    <row r="64" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -4317,8 +4361,9 @@
       <c r="AM64" s="9"/>
       <c r="AN64" s="9"/>
       <c r="AO64" s="9"/>
-    </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP64" s="9"/>
+    </row>
+    <row r="65" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -4360,8 +4405,9 @@
       <c r="AM65" s="9"/>
       <c r="AN65" s="9"/>
       <c r="AO65" s="9"/>
-    </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP65" s="9"/>
+    </row>
+    <row r="66" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -4403,8 +4449,9 @@
       <c r="AM66" s="9"/>
       <c r="AN66" s="9"/>
       <c r="AO66" s="9"/>
-    </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP66" s="9"/>
+    </row>
+    <row r="67" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -4446,8 +4493,9 @@
       <c r="AM67" s="9"/>
       <c r="AN67" s="9"/>
       <c r="AO67" s="9"/>
-    </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP67" s="9"/>
+    </row>
+    <row r="68" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -4489,8 +4537,9 @@
       <c r="AM68" s="9"/>
       <c r="AN68" s="9"/>
       <c r="AO68" s="9"/>
-    </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP68" s="9"/>
+    </row>
+    <row r="69" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -4532,8 +4581,9 @@
       <c r="AM69" s="9"/>
       <c r="AN69" s="9"/>
       <c r="AO69" s="9"/>
-    </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP69" s="9"/>
+    </row>
+    <row r="70" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -4575,8 +4625,9 @@
       <c r="AM70" s="9"/>
       <c r="AN70" s="9"/>
       <c r="AO70" s="9"/>
-    </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP70" s="9"/>
+    </row>
+    <row r="71" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -4618,8 +4669,9 @@
       <c r="AM71" s="9"/>
       <c r="AN71" s="9"/>
       <c r="AO71" s="9"/>
-    </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP71" s="9"/>
+    </row>
+    <row r="72" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -4661,8 +4713,9 @@
       <c r="AM72" s="9"/>
       <c r="AN72" s="9"/>
       <c r="AO72" s="9"/>
-    </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP72" s="9"/>
+    </row>
+    <row r="73" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4704,8 +4757,9 @@
       <c r="AM73" s="9"/>
       <c r="AN73" s="9"/>
       <c r="AO73" s="9"/>
-    </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP73" s="9"/>
+    </row>
+    <row r="74" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4747,8 +4801,9 @@
       <c r="AM74" s="9"/>
       <c r="AN74" s="9"/>
       <c r="AO74" s="9"/>
-    </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP74" s="9"/>
+    </row>
+    <row r="75" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -4790,8 +4845,9 @@
       <c r="AM75" s="9"/>
       <c r="AN75" s="9"/>
       <c r="AO75" s="9"/>
-    </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP75" s="9"/>
+    </row>
+    <row r="76" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -4833,8 +4889,9 @@
       <c r="AM76" s="9"/>
       <c r="AN76" s="9"/>
       <c r="AO76" s="9"/>
-    </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP76" s="9"/>
+    </row>
+    <row r="77" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -4876,8 +4933,9 @@
       <c r="AM77" s="9"/>
       <c r="AN77" s="9"/>
       <c r="AO77" s="9"/>
-    </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP77" s="9"/>
+    </row>
+    <row r="78" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -4919,8 +4977,9 @@
       <c r="AM78" s="9"/>
       <c r="AN78" s="9"/>
       <c r="AO78" s="9"/>
-    </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP78" s="9"/>
+    </row>
+    <row r="79" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -4962,8 +5021,9 @@
       <c r="AM79" s="9"/>
       <c r="AN79" s="9"/>
       <c r="AO79" s="9"/>
-    </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP79" s="9"/>
+    </row>
+    <row r="80" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -5005,8 +5065,9 @@
       <c r="AM80" s="9"/>
       <c r="AN80" s="9"/>
       <c r="AO80" s="9"/>
-    </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP80" s="9"/>
+    </row>
+    <row r="81" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -5048,8 +5109,9 @@
       <c r="AM81" s="9"/>
       <c r="AN81" s="9"/>
       <c r="AO81" s="9"/>
-    </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP81" s="9"/>
+    </row>
+    <row r="82" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -5091,8 +5153,9 @@
       <c r="AM82" s="9"/>
       <c r="AN82" s="9"/>
       <c r="AO82" s="9"/>
-    </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP82" s="9"/>
+    </row>
+    <row r="83" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -5134,8 +5197,9 @@
       <c r="AM83" s="9"/>
       <c r="AN83" s="9"/>
       <c r="AO83" s="9"/>
-    </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP83" s="9"/>
+    </row>
+    <row r="84" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -5177,8 +5241,9 @@
       <c r="AM84" s="9"/>
       <c r="AN84" s="9"/>
       <c r="AO84" s="9"/>
-    </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP84" s="9"/>
+    </row>
+    <row r="85" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -5220,8 +5285,9 @@
       <c r="AM85" s="9"/>
       <c r="AN85" s="9"/>
       <c r="AO85" s="9"/>
-    </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP85" s="9"/>
+    </row>
+    <row r="86" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -5263,8 +5329,9 @@
       <c r="AM86" s="9"/>
       <c r="AN86" s="9"/>
       <c r="AO86" s="9"/>
-    </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP86" s="9"/>
+    </row>
+    <row r="87" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -5306,8 +5373,9 @@
       <c r="AM87" s="9"/>
       <c r="AN87" s="9"/>
       <c r="AO87" s="9"/>
-    </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP87" s="9"/>
+    </row>
+    <row r="88" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -5349,8 +5417,9 @@
       <c r="AM88" s="9"/>
       <c r="AN88" s="9"/>
       <c r="AO88" s="9"/>
-    </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP88" s="9"/>
+    </row>
+    <row r="89" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -5392,8 +5461,9 @@
       <c r="AM89" s="9"/>
       <c r="AN89" s="9"/>
       <c r="AO89" s="9"/>
-    </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP89" s="9"/>
+    </row>
+    <row r="90" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -5435,8 +5505,9 @@
       <c r="AM90" s="9"/>
       <c r="AN90" s="9"/>
       <c r="AO90" s="9"/>
-    </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP90" s="9"/>
+    </row>
+    <row r="91" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -5478,8 +5549,9 @@
       <c r="AM91" s="9"/>
       <c r="AN91" s="9"/>
       <c r="AO91" s="9"/>
-    </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP91" s="9"/>
+    </row>
+    <row r="92" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -5521,8 +5593,9 @@
       <c r="AM92" s="9"/>
       <c r="AN92" s="9"/>
       <c r="AO92" s="9"/>
-    </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP92" s="9"/>
+    </row>
+    <row r="93" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -5564,8 +5637,9 @@
       <c r="AM93" s="9"/>
       <c r="AN93" s="9"/>
       <c r="AO93" s="9"/>
-    </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP93" s="9"/>
+    </row>
+    <row r="94" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -5607,8 +5681,9 @@
       <c r="AM94" s="9"/>
       <c r="AN94" s="9"/>
       <c r="AO94" s="9"/>
-    </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP94" s="9"/>
+    </row>
+    <row r="95" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -5650,8 +5725,9 @@
       <c r="AM95" s="9"/>
       <c r="AN95" s="9"/>
       <c r="AO95" s="9"/>
-    </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP95" s="9"/>
+    </row>
+    <row r="96" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -5693,8 +5769,9 @@
       <c r="AM96" s="9"/>
       <c r="AN96" s="9"/>
       <c r="AO96" s="9"/>
-    </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP96" s="9"/>
+    </row>
+    <row r="97" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -5736,8 +5813,9 @@
       <c r="AM97" s="9"/>
       <c r="AN97" s="9"/>
       <c r="AO97" s="9"/>
-    </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP97" s="9"/>
+    </row>
+    <row r="98" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -5779,8 +5857,9 @@
       <c r="AM98" s="9"/>
       <c r="AN98" s="9"/>
       <c r="AO98" s="9"/>
-    </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP98" s="9"/>
+    </row>
+    <row r="99" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -5822,8 +5901,9 @@
       <c r="AM99" s="9"/>
       <c r="AN99" s="9"/>
       <c r="AO99" s="9"/>
-    </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP99" s="9"/>
+    </row>
+    <row r="100" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -5865,8 +5945,9 @@
       <c r="AM100" s="9"/>
       <c r="AN100" s="9"/>
       <c r="AO100" s="9"/>
-    </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP100" s="9"/>
+    </row>
+    <row r="101" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -5908,8 +5989,9 @@
       <c r="AM101" s="9"/>
       <c r="AN101" s="9"/>
       <c r="AO101" s="9"/>
-    </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP101" s="9"/>
+    </row>
+    <row r="102" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -5951,8 +6033,9 @@
       <c r="AM102" s="9"/>
       <c r="AN102" s="9"/>
       <c r="AO102" s="9"/>
-    </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP102" s="9"/>
+    </row>
+    <row r="103" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -5994,8 +6077,9 @@
       <c r="AM103" s="9"/>
       <c r="AN103" s="9"/>
       <c r="AO103" s="9"/>
-    </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP103" s="9"/>
+    </row>
+    <row r="104" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -6037,8 +6121,9 @@
       <c r="AM104" s="9"/>
       <c r="AN104" s="9"/>
       <c r="AO104" s="9"/>
-    </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP104" s="9"/>
+    </row>
+    <row r="105" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -6080,8 +6165,9 @@
       <c r="AM105" s="9"/>
       <c r="AN105" s="9"/>
       <c r="AO105" s="9"/>
-    </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP105" s="9"/>
+    </row>
+    <row r="106" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -6123,8 +6209,9 @@
       <c r="AM106" s="9"/>
       <c r="AN106" s="9"/>
       <c r="AO106" s="9"/>
-    </row>
-    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP106" s="9"/>
+    </row>
+    <row r="107" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -6166,8 +6253,9 @@
       <c r="AM107" s="9"/>
       <c r="AN107" s="9"/>
       <c r="AO107" s="9"/>
-    </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP107" s="9"/>
+    </row>
+    <row r="108" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -6209,8 +6297,9 @@
       <c r="AM108" s="9"/>
       <c r="AN108" s="9"/>
       <c r="AO108" s="9"/>
-    </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP108" s="9"/>
+    </row>
+    <row r="109" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -6252,8 +6341,9 @@
       <c r="AM109" s="9"/>
       <c r="AN109" s="9"/>
       <c r="AO109" s="9"/>
-    </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP109" s="9"/>
+    </row>
+    <row r="110" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -6295,8 +6385,9 @@
       <c r="AM110" s="9"/>
       <c r="AN110" s="9"/>
       <c r="AO110" s="9"/>
-    </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP110" s="9"/>
+    </row>
+    <row r="111" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -6338,8 +6429,9 @@
       <c r="AM111" s="9"/>
       <c r="AN111" s="9"/>
       <c r="AO111" s="9"/>
-    </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP111" s="9"/>
+    </row>
+    <row r="112" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6381,8 +6473,9 @@
       <c r="AM112" s="9"/>
       <c r="AN112" s="9"/>
       <c r="AO112" s="9"/>
-    </row>
-    <row r="113" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP112" s="9"/>
+    </row>
+    <row r="113" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -6424,8 +6517,9 @@
       <c r="AM113" s="9"/>
       <c r="AN113" s="9"/>
       <c r="AO113" s="9"/>
-    </row>
-    <row r="114" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP113" s="9"/>
+    </row>
+    <row r="114" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -6467,8 +6561,9 @@
       <c r="AM114" s="9"/>
       <c r="AN114" s="9"/>
       <c r="AO114" s="9"/>
-    </row>
-    <row r="115" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP114" s="9"/>
+    </row>
+    <row r="115" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -6510,8 +6605,9 @@
       <c r="AM115" s="9"/>
       <c r="AN115" s="9"/>
       <c r="AO115" s="9"/>
-    </row>
-    <row r="116" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP115" s="9"/>
+    </row>
+    <row r="116" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -6553,8 +6649,9 @@
       <c r="AM116" s="9"/>
       <c r="AN116" s="9"/>
       <c r="AO116" s="9"/>
-    </row>
-    <row r="117" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP116" s="9"/>
+    </row>
+    <row r="117" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -6596,8 +6693,9 @@
       <c r="AM117" s="9"/>
       <c r="AN117" s="9"/>
       <c r="AO117" s="9"/>
-    </row>
-    <row r="118" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP117" s="9"/>
+    </row>
+    <row r="118" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -6639,8 +6737,9 @@
       <c r="AM118" s="9"/>
       <c r="AN118" s="9"/>
       <c r="AO118" s="9"/>
-    </row>
-    <row r="119" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP118" s="9"/>
+    </row>
+    <row r="119" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -6682,8 +6781,9 @@
       <c r="AM119" s="9"/>
       <c r="AN119" s="9"/>
       <c r="AO119" s="9"/>
-    </row>
-    <row r="120" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP119" s="9"/>
+    </row>
+    <row r="120" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -6725,8 +6825,9 @@
       <c r="AM120" s="9"/>
       <c r="AN120" s="9"/>
       <c r="AO120" s="9"/>
-    </row>
-    <row r="121" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP120" s="9"/>
+    </row>
+    <row r="121" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -6768,8 +6869,9 @@
       <c r="AM121" s="9"/>
       <c r="AN121" s="9"/>
       <c r="AO121" s="9"/>
-    </row>
-    <row r="122" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP121" s="9"/>
+    </row>
+    <row r="122" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -6811,8 +6913,9 @@
       <c r="AM122" s="9"/>
       <c r="AN122" s="9"/>
       <c r="AO122" s="9"/>
-    </row>
-    <row r="123" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP122" s="9"/>
+    </row>
+    <row r="123" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -6854,8 +6957,9 @@
       <c r="AM123" s="9"/>
       <c r="AN123" s="9"/>
       <c r="AO123" s="9"/>
-    </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP123" s="9"/>
+    </row>
+    <row r="124" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -6897,8 +7001,9 @@
       <c r="AM124" s="9"/>
       <c r="AN124" s="9"/>
       <c r="AO124" s="9"/>
-    </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP124" s="9"/>
+    </row>
+    <row r="125" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -6940,8 +7045,9 @@
       <c r="AM125" s="9"/>
       <c r="AN125" s="9"/>
       <c r="AO125" s="9"/>
-    </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP125" s="9"/>
+    </row>
+    <row r="126" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -6983,8 +7089,9 @@
       <c r="AM126" s="9"/>
       <c r="AN126" s="9"/>
       <c r="AO126" s="9"/>
-    </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP126" s="9"/>
+    </row>
+    <row r="127" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -7026,8 +7133,9 @@
       <c r="AM127" s="9"/>
       <c r="AN127" s="9"/>
       <c r="AO127" s="9"/>
-    </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP127" s="9"/>
+    </row>
+    <row r="128" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -7069,8 +7177,9 @@
       <c r="AM128" s="9"/>
       <c r="AN128" s="9"/>
       <c r="AO128" s="9"/>
-    </row>
-    <row r="129" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP128" s="9"/>
+    </row>
+    <row r="129" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -7112,8 +7221,9 @@
       <c r="AM129" s="9"/>
       <c r="AN129" s="9"/>
       <c r="AO129" s="9"/>
-    </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP129" s="9"/>
+    </row>
+    <row r="130" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -7155,8 +7265,9 @@
       <c r="AM130" s="9"/>
       <c r="AN130" s="9"/>
       <c r="AO130" s="9"/>
-    </row>
-    <row r="131" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP130" s="9"/>
+    </row>
+    <row r="131" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -7198,8 +7309,9 @@
       <c r="AM131" s="9"/>
       <c r="AN131" s="9"/>
       <c r="AO131" s="9"/>
-    </row>
-    <row r="132" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP131" s="9"/>
+    </row>
+    <row r="132" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -7241,8 +7353,9 @@
       <c r="AM132" s="9"/>
       <c r="AN132" s="9"/>
       <c r="AO132" s="9"/>
-    </row>
-    <row r="133" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP132" s="9"/>
+    </row>
+    <row r="133" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -7284,8 +7397,9 @@
       <c r="AM133" s="9"/>
       <c r="AN133" s="9"/>
       <c r="AO133" s="9"/>
-    </row>
-    <row r="134" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP133" s="9"/>
+    </row>
+    <row r="134" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -7327,8 +7441,9 @@
       <c r="AM134" s="9"/>
       <c r="AN134" s="9"/>
       <c r="AO134" s="9"/>
-    </row>
-    <row r="135" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP134" s="9"/>
+    </row>
+    <row r="135" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -7370,8 +7485,9 @@
       <c r="AM135" s="9"/>
       <c r="AN135" s="9"/>
       <c r="AO135" s="9"/>
-    </row>
-    <row r="136" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP135" s="9"/>
+    </row>
+    <row r="136" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -7413,8 +7529,9 @@
       <c r="AM136" s="9"/>
       <c r="AN136" s="9"/>
       <c r="AO136" s="9"/>
-    </row>
-    <row r="137" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP136" s="9"/>
+    </row>
+    <row r="137" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -7456,8 +7573,9 @@
       <c r="AM137" s="9"/>
       <c r="AN137" s="9"/>
       <c r="AO137" s="9"/>
-    </row>
-    <row r="138" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP137" s="9"/>
+    </row>
+    <row r="138" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -7499,8 +7617,9 @@
       <c r="AM138" s="9"/>
       <c r="AN138" s="9"/>
       <c r="AO138" s="9"/>
-    </row>
-    <row r="139" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP138" s="9"/>
+    </row>
+    <row r="139" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -7542,8 +7661,9 @@
       <c r="AM139" s="9"/>
       <c r="AN139" s="9"/>
       <c r="AO139" s="9"/>
-    </row>
-    <row r="140" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP139" s="9"/>
+    </row>
+    <row r="140" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -7585,8 +7705,9 @@
       <c r="AM140" s="9"/>
       <c r="AN140" s="9"/>
       <c r="AO140" s="9"/>
-    </row>
-    <row r="141" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP140" s="9"/>
+    </row>
+    <row r="141" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -7628,8 +7749,9 @@
       <c r="AM141" s="9"/>
       <c r="AN141" s="9"/>
       <c r="AO141" s="9"/>
-    </row>
-    <row r="142" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP141" s="9"/>
+    </row>
+    <row r="142" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -7671,8 +7793,9 @@
       <c r="AM142" s="9"/>
       <c r="AN142" s="9"/>
       <c r="AO142" s="9"/>
-    </row>
-    <row r="143" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP142" s="9"/>
+    </row>
+    <row r="143" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -7714,8 +7837,9 @@
       <c r="AM143" s="9"/>
       <c r="AN143" s="9"/>
       <c r="AO143" s="9"/>
-    </row>
-    <row r="144" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP143" s="9"/>
+    </row>
+    <row r="144" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -7757,8 +7881,9 @@
       <c r="AM144" s="9"/>
       <c r="AN144" s="9"/>
       <c r="AO144" s="9"/>
-    </row>
-    <row r="145" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP144" s="9"/>
+    </row>
+    <row r="145" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -7800,8 +7925,9 @@
       <c r="AM145" s="9"/>
       <c r="AN145" s="9"/>
       <c r="AO145" s="9"/>
-    </row>
-    <row r="146" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP145" s="9"/>
+    </row>
+    <row r="146" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -7843,8 +7969,9 @@
       <c r="AM146" s="9"/>
       <c r="AN146" s="9"/>
       <c r="AO146" s="9"/>
-    </row>
-    <row r="147" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP146" s="9"/>
+    </row>
+    <row r="147" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -7886,8 +8013,9 @@
       <c r="AM147" s="9"/>
       <c r="AN147" s="9"/>
       <c r="AO147" s="9"/>
-    </row>
-    <row r="148" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP147" s="9"/>
+    </row>
+    <row r="148" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -7929,8 +8057,9 @@
       <c r="AM148" s="9"/>
       <c r="AN148" s="9"/>
       <c r="AO148" s="9"/>
-    </row>
-    <row r="149" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP148" s="9"/>
+    </row>
+    <row r="149" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -7972,8 +8101,9 @@
       <c r="AM149" s="9"/>
       <c r="AN149" s="9"/>
       <c r="AO149" s="9"/>
-    </row>
-    <row r="150" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP149" s="9"/>
+    </row>
+    <row r="150" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -8015,8 +8145,9 @@
       <c r="AM150" s="9"/>
       <c r="AN150" s="9"/>
       <c r="AO150" s="9"/>
-    </row>
-    <row r="151" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP150" s="9"/>
+    </row>
+    <row r="151" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -8058,8 +8189,9 @@
       <c r="AM151" s="9"/>
       <c r="AN151" s="9"/>
       <c r="AO151" s="9"/>
-    </row>
-    <row r="152" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP151" s="9"/>
+    </row>
+    <row r="152" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -8101,8 +8233,9 @@
       <c r="AM152" s="9"/>
       <c r="AN152" s="9"/>
       <c r="AO152" s="9"/>
-    </row>
-    <row r="153" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP152" s="9"/>
+    </row>
+    <row r="153" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -8144,8 +8277,9 @@
       <c r="AM153" s="9"/>
       <c r="AN153" s="9"/>
       <c r="AO153" s="9"/>
-    </row>
-    <row r="154" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP153" s="9"/>
+    </row>
+    <row r="154" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -8187,8 +8321,9 @@
       <c r="AM154" s="9"/>
       <c r="AN154" s="9"/>
       <c r="AO154" s="9"/>
-    </row>
-    <row r="155" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP154" s="9"/>
+    </row>
+    <row r="155" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -8230,8 +8365,9 @@
       <c r="AM155" s="9"/>
       <c r="AN155" s="9"/>
       <c r="AO155" s="9"/>
-    </row>
-    <row r="156" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP155" s="9"/>
+    </row>
+    <row r="156" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -8273,8 +8409,9 @@
       <c r="AM156" s="9"/>
       <c r="AN156" s="9"/>
       <c r="AO156" s="9"/>
-    </row>
-    <row r="157" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP156" s="9"/>
+    </row>
+    <row r="157" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -8316,8 +8453,9 @@
       <c r="AM157" s="9"/>
       <c r="AN157" s="9"/>
       <c r="AO157" s="9"/>
-    </row>
-    <row r="158" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP157" s="9"/>
+    </row>
+    <row r="158" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -8359,8 +8497,9 @@
       <c r="AM158" s="9"/>
       <c r="AN158" s="9"/>
       <c r="AO158" s="9"/>
-    </row>
-    <row r="159" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP158" s="9"/>
+    </row>
+    <row r="159" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -8402,8 +8541,9 @@
       <c r="AM159" s="9"/>
       <c r="AN159" s="9"/>
       <c r="AO159" s="9"/>
-    </row>
-    <row r="160" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP159" s="9"/>
+    </row>
+    <row r="160" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -8445,8 +8585,9 @@
       <c r="AM160" s="9"/>
       <c r="AN160" s="9"/>
       <c r="AO160" s="9"/>
-    </row>
-    <row r="161" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP160" s="9"/>
+    </row>
+    <row r="161" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -8488,8 +8629,9 @@
       <c r="AM161" s="9"/>
       <c r="AN161" s="9"/>
       <c r="AO161" s="9"/>
-    </row>
-    <row r="162" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP161" s="9"/>
+    </row>
+    <row r="162" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -8531,10 +8673,11 @@
       <c r="AM162" s="9"/>
       <c r="AN162" s="9"/>
       <c r="AO162" s="9"/>
+      <c r="AP162" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="Y2:AD2"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="F1:G1"/>

--- a/Assets/Data/excel/功法数据表.xlsx
+++ b/Assets/Data/excel/功法数据表.xlsx
@@ -15,15 +15,14 @@
     <sheet name="GongfaDef" sheetId="27" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GongfaDef!$C$2:$C$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GongfaDef!$C$2:$C$164</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="152">
   <si>
     <t>功法名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,75 +48,455 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>内伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招式三属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击部位组倾向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上肢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下肢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰腹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击区域方位倾向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲闪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseEnegyCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseEngDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasePower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseClever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtPartGroup_Neck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtPartGroup_Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtPartGroup_Private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtPartGroup_LowerLimbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtArea_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtArea_Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqStrength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqDexterity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqConstitution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqComprehension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqWillpower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资质使用需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqAptitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功法类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GongfaType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级属性使用需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定部位概率倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtPartProbMultiDict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腿法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戳眼抓耳功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撩阴腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"LeftEye":5.0,"RightEye":5.0,"LeftEar":5.0,"RightEar":5.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Private":10.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseActionCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练成经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqVitality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtPartGroup_Head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtPartGroup_Belly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtPartGroup_UpperLimbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtArea_Middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>外伤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招式三属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击部位组倾向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上肢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下肢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腰腹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品阶</t>
+    <t>#BasePhyDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseBluntDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钝伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,7 +504,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20</t>
+    <t>昆仑剑法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -133,371 +520,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击区域方位倾向</t>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透/忽视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pierce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>割伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasePierceDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseCutDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戳眼抓耳功_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆仑剑法_D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>躲闪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卸力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxEfficiency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseEnegyCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasePhyDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseEngDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasePower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseClever</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtPartGroup_Head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtPartGroup_Neck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtPartGroup_Chest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtArea_Mid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtPartGroup_Abdomen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtPartGroup_Private</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtPartGroup_UpperLimbs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtPartGroup_LowerLimbs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEGIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtArea_Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtArea_Down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReqStrength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReqDexterity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReqConstitution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReqComprehension</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReqWillpower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资质使用需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReqAptitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功法类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GongfaType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级属性使用需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定部位概率倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtPartProbMultiDict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拳掌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腿法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戳眼抓耳功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撩阴腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"LeftEye":5.0,"RightEye":5.0,"LeftEar":5.0,"RightEar":5.0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Private":10.0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseActionCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>练成经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReqVitality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +636,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,6 +694,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -672,7 +818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,6 +907,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1208,199 +1369,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP162"/>
+  <dimension ref="A1:AU164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="10" customWidth="1"/>
     <col min="3" max="4" width="8.75" style="10" customWidth="1"/>
     <col min="5" max="5" width="10.25" style="12" customWidth="1"/>
     <col min="6" max="6" width="12.375" style="10" customWidth="1"/>
     <col min="7" max="8" width="8.75" style="10" customWidth="1"/>
-    <col min="9" max="13" width="7.25" style="12" customWidth="1"/>
-    <col min="14" max="14" width="6.625" style="12" customWidth="1"/>
-    <col min="15" max="16" width="7.25" style="12" customWidth="1"/>
-    <col min="17" max="23" width="4.75" style="12" customWidth="1"/>
-    <col min="24" max="24" width="26.875" style="12" customWidth="1"/>
-    <col min="25" max="30" width="6.125" style="12" customWidth="1"/>
-    <col min="31" max="31" width="10.25" style="12" customWidth="1"/>
-    <col min="32" max="42" width="7.25" style="12" customWidth="1"/>
-    <col min="43" max="16384" width="9" style="10"/>
+    <col min="9" max="9" width="7.25" style="34" customWidth="1"/>
+    <col min="10" max="13" width="7.25" style="12" customWidth="1"/>
+    <col min="14" max="15" width="6.875" style="12" customWidth="1"/>
+    <col min="16" max="18" width="7.25" style="12" customWidth="1"/>
+    <col min="19" max="25" width="4.75" style="12" customWidth="1"/>
+    <col min="26" max="26" width="6.625" style="12" customWidth="1"/>
+    <col min="27" max="28" width="7.25" style="12" customWidth="1"/>
+    <col min="29" max="29" width="26.875" style="12" customWidth="1"/>
+    <col min="30" max="35" width="6.125" style="12" customWidth="1"/>
+    <col min="36" max="36" width="10.25" style="12" customWidth="1"/>
+    <col min="37" max="47" width="7.25" style="12" customWidth="1"/>
+    <col min="48" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:47" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="23"/>
       <c r="F1" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="1"/>
       <c r="I1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="25" t="s">
         <v>9</v>
       </c>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="26"/>
       <c r="M1" s="27"/>
       <c r="N1" s="25" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="O1" s="26"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="P1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="25" t="s">
+        <v>15</v>
+      </c>
       <c r="T1" s="26"/>
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="17"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="3"/>
       <c r="AD1" s="17"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="4"/>
       <c r="AK1" s="5"/>
       <c r="AL1" s="5"/>
       <c r="AM1" s="5"/>
       <c r="AN1" s="5"/>
       <c r="AO1" s="5"/>
       <c r="AP1" s="5"/>
-    </row>
-    <row r="2" spans="1:42" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+    </row>
+    <row r="2" spans="1:47" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="N2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="S2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y2" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AM2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
       <c r="AP2" s="5"/>
-    </row>
-    <row r="3" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+    </row>
+    <row r="3" spans="1:47" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -1408,7 +1595,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -1424,240 +1611,275 @@
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
       <c r="X3" s="14"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
       <c r="AD3" s="15"/>
       <c r="AE3" s="15"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
       <c r="AM3" s="14"/>
       <c r="AN3" s="14"/>
       <c r="AO3" s="14"/>
       <c r="AP3" s="14"/>
-    </row>
-    <row r="4" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+    </row>
+    <row r="4" spans="1:47" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="14" t="s">
+      <c r="AI4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="X4" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z4" s="15" t="s">
+      <c r="AJ4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AA4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB4" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC4" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
       <c r="AK4" s="14"/>
       <c r="AL4" s="14"/>
       <c r="AM4" s="14"/>
       <c r="AN4" s="14"/>
       <c r="AO4" s="14"/>
       <c r="AP4" s="14"/>
-    </row>
-    <row r="5" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+    </row>
+    <row r="5" spans="1:47" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>58</v>
+      <c r="I5" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="T5" s="14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="X5" s="14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="Y5" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="Z5" s="14" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AA5" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AB5" s="14" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="AC5" s="14" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="AD5" s="14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AE5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="AF5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG5" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ5" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="AK5" s="14"/>
       <c r="AL5" s="14"/>
       <c r="AM5" s="14"/>
       <c r="AN5" s="14"/>
       <c r="AO5" s="14"/>
       <c r="AP5" s="14"/>
-    </row>
-    <row r="6" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+    </row>
+    <row r="6" spans="1:47" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1666,7 +1888,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -1700,8 +1922,13 @@
       <c r="AN6" s="14"/>
       <c r="AO6" s="14"/>
       <c r="AP6" s="14"/>
-    </row>
-    <row r="7" spans="1:42" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+    </row>
+    <row r="7" spans="1:47" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1710,7 +1937,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -1744,10 +1971,15 @@
       <c r="AN7" s="14"/>
       <c r="AO7" s="14"/>
       <c r="AP7" s="14"/>
-    </row>
-    <row r="8" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+    </row>
+    <row r="8" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1756,7 +1988,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -1790,20 +2022,25 @@
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
       <c r="AP8" s="9"/>
-    </row>
-    <row r="9" spans="1:42" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+    </row>
+    <row r="9" spans="1:47" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D9" s="18">
         <v>9</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F9" s="18">
         <v>5</v>
@@ -1814,72 +2051,81 @@
       <c r="H9" s="22">
         <v>2</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="P9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19" t="s">
+      <c r="Q9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="R9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
       <c r="W9" s="19"/>
       <c r="X9" s="19"/>
-      <c r="Y9" s="19" t="s">
-        <v>114</v>
-      </c>
+      <c r="Y9" s="19"/>
       <c r="Z9" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA9" s="19"/>
+        <v>104</v>
+      </c>
+      <c r="AA9" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="AB9" s="19"/>
       <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
+      <c r="AD9" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="AE9" s="19" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
+      <c r="AJ9" s="19" t="s">
+        <v>145</v>
+      </c>
       <c r="AK9" s="19"/>
       <c r="AL9" s="19"/>
       <c r="AM9" s="19"/>
       <c r="AN9" s="19"/>
       <c r="AO9" s="19"/>
       <c r="AP9" s="19"/>
-    </row>
-    <row r="10" spans="1:42" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="19"/>
+    </row>
+    <row r="10" spans="1:47" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
       <c r="B10" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D10" s="18">
         <v>8</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F10" s="18">
         <v>10</v>
@@ -1890,76 +2136,85 @@
       <c r="H10" s="22">
         <v>2</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>29</v>
+      <c r="I10" s="33" t="s">
+        <v>28</v>
       </c>
       <c r="J10" s="19"/>
-      <c r="K10" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="K10" s="19"/>
       <c r="L10" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
+        <v>117</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="Q10" s="19" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
+        <v>103</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
       <c r="W10" s="19"/>
-      <c r="X10" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y10" s="19" t="s">
-        <v>114</v>
-      </c>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
       <c r="Z10" s="19" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AA10" s="19"/>
       <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
+      <c r="AC10" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD10" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="AE10" s="19" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
+      <c r="AJ10" s="19" t="s">
+        <v>136</v>
+      </c>
       <c r="AK10" s="19"/>
       <c r="AL10" s="19"/>
       <c r="AM10" s="19"/>
       <c r="AN10" s="19"/>
       <c r="AO10" s="19"/>
       <c r="AP10" s="19"/>
-    </row>
-    <row r="11" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+    </row>
+    <row r="11" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
       <c r="B11" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D11" s="18">
         <v>8</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F11" s="18">
         <v>10</v>
@@ -1970,86 +2225,121 @@
       <c r="H11" s="22">
         <v>2</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>29</v>
+      <c r="I11" s="33" t="s">
+        <v>28</v>
       </c>
       <c r="J11" s="19"/>
-      <c r="K11" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="K11" s="19"/>
       <c r="L11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>32</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="M11" s="19"/>
       <c r="N11" s="19"/>
       <c r="O11" s="19" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="S11" s="19"/>
-      <c r="T11" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="U11" s="19" t="s">
-        <v>85</v>
-      </c>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
       <c r="V11" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="W11" s="19"/>
+        <v>76</v>
+      </c>
+      <c r="W11" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="X11" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y11" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z11" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
+        <v>80</v>
+      </c>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD11" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="AE11" s="19" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
+      <c r="AJ11" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="AK11" s="19"/>
       <c r="AL11" s="19"/>
       <c r="AM11" s="19"/>
       <c r="AN11" s="19"/>
       <c r="AO11" s="19"/>
       <c r="AP11" s="19"/>
-    </row>
-    <row r="12" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="19"/>
+    </row>
+    <row r="12" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="18">
+        <v>8</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="18">
+        <v>10</v>
+      </c>
+      <c r="G12" s="18">
+        <v>100</v>
+      </c>
+      <c r="H12" s="22">
+        <v>2</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>118</v>
+      </c>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
+      <c r="N12" s="19" t="s">
+        <v>144</v>
+      </c>
       <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
+      <c r="P12" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>124</v>
+      </c>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
@@ -2057,43 +2347,86 @@
       <c r="W12" s="19"/>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
+      <c r="Z12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA12" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB12" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
+      <c r="AD12" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE12" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
+      <c r="AJ12" s="19" t="s">
+        <v>145</v>
+      </c>
       <c r="AK12" s="19"/>
       <c r="AL12" s="19"/>
       <c r="AM12" s="19"/>
       <c r="AN12" s="19"/>
       <c r="AO12" s="19"/>
       <c r="AP12" s="19"/>
-    </row>
-    <row r="13" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+    </row>
+    <row r="13" spans="1:47" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="18">
+        <v>8</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="18">
+        <v>10</v>
+      </c>
+      <c r="G13" s="18">
+        <v>100</v>
+      </c>
+      <c r="H13" s="22">
+        <v>2</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>28</v>
+      </c>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="L13" s="19" t="s">
+        <v>132</v>
+      </c>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
+      <c r="O13" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>124</v>
+      </c>
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
@@ -2101,43 +2434,86 @@
       <c r="W13" s="19"/>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
+      <c r="Z13" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA13" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB13" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
+      <c r="AD13" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE13" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
+      <c r="AJ13" s="19" t="s">
+        <v>145</v>
+      </c>
       <c r="AK13" s="19"/>
       <c r="AL13" s="19"/>
       <c r="AM13" s="19"/>
       <c r="AN13" s="19"/>
       <c r="AO13" s="19"/>
       <c r="AP13" s="19"/>
-    </row>
-    <row r="14" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="AQ13" s="19"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19"/>
+    </row>
+    <row r="14" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="18">
+        <v>8</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="18">
+        <v>10</v>
+      </c>
+      <c r="G14" s="18">
+        <v>100</v>
+      </c>
+      <c r="H14" s="22">
+        <v>2</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>118</v>
+      </c>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
+      <c r="N14" s="19" t="s">
+        <v>148</v>
+      </c>
       <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
+      <c r="P14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>124</v>
+      </c>
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
       <c r="U14" s="19"/>
@@ -2145,25 +2521,42 @@
       <c r="W14" s="19"/>
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
+      <c r="Z14" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA14" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB14" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
+      <c r="AD14" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE14" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
+      <c r="AJ14" s="19" t="s">
+        <v>145</v>
+      </c>
       <c r="AK14" s="19"/>
       <c r="AL14" s="19"/>
       <c r="AM14" s="19"/>
       <c r="AN14" s="19"/>
       <c r="AO14" s="19"/>
       <c r="AP14" s="19"/>
-    </row>
-    <row r="15" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="19"/>
+    </row>
+    <row r="15" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -2172,7 +2565,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="19"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
@@ -2206,8 +2599,13 @@
       <c r="AN15" s="19"/>
       <c r="AO15" s="19"/>
       <c r="AP15" s="19"/>
-    </row>
-    <row r="16" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AQ15" s="19"/>
+      <c r="AR15" s="19"/>
+      <c r="AS15" s="19"/>
+      <c r="AT15" s="19"/>
+      <c r="AU15" s="19"/>
+    </row>
+    <row r="16" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -2216,7 +2614,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="19"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
@@ -2250,8 +2648,13 @@
       <c r="AN16" s="19"/>
       <c r="AO16" s="19"/>
       <c r="AP16" s="19"/>
-    </row>
-    <row r="17" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="19"/>
+    </row>
+    <row r="17" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -2260,7 +2663,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="19"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
@@ -2294,8 +2697,13 @@
       <c r="AN17" s="19"/>
       <c r="AO17" s="19"/>
       <c r="AP17" s="19"/>
-    </row>
-    <row r="18" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
+    </row>
+    <row r="18" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -2304,7 +2712,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="19"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
@@ -2338,8 +2746,13 @@
       <c r="AN18" s="19"/>
       <c r="AO18" s="19"/>
       <c r="AP18" s="19"/>
-    </row>
-    <row r="19" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="19"/>
+      <c r="AS18" s="19"/>
+      <c r="AT18" s="19"/>
+      <c r="AU18" s="19"/>
+    </row>
+    <row r="19" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -2348,7 +2761,7 @@
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="19"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
@@ -2382,8 +2795,13 @@
       <c r="AN19" s="19"/>
       <c r="AO19" s="19"/>
       <c r="AP19" s="19"/>
-    </row>
-    <row r="20" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+    </row>
+    <row r="20" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -2392,7 +2810,7 @@
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="19"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
@@ -2426,8 +2844,13 @@
       <c r="AN20" s="19"/>
       <c r="AO20" s="19"/>
       <c r="AP20" s="19"/>
-    </row>
-    <row r="21" spans="1:42" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AQ20" s="19"/>
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="19"/>
+      <c r="AU20" s="19"/>
+    </row>
+    <row r="21" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -2436,7 +2859,7 @@
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="19"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
@@ -2470,96 +2893,111 @@
       <c r="AN21" s="19"/>
       <c r="AO21" s="19"/>
       <c r="AP21" s="19"/>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
-      <c r="AL23" s="9"/>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="9"/>
-      <c r="AP23" s="9"/>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ21" s="19"/>
+      <c r="AR21" s="19"/>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="19"/>
+      <c r="AU21" s="19"/>
+    </row>
+    <row r="22" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+    </row>
+    <row r="23" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="19"/>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2568,7 +3006,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="9"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -2602,8 +3040,13 @@
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
       <c r="AP24" s="9"/>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ24" s="9"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="9"/>
+      <c r="AT24" s="9"/>
+      <c r="AU24" s="9"/>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2612,7 +3055,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -2646,8 +3089,13 @@
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
       <c r="AP25" s="9"/>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ25" s="9"/>
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="9"/>
+      <c r="AT25" s="9"/>
+      <c r="AU25" s="9"/>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2656,7 +3104,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -2690,8 +3138,13 @@
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
       <c r="AP26" s="9"/>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ26" s="9"/>
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="9"/>
+      <c r="AT26" s="9"/>
+      <c r="AU26" s="9"/>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2700,7 +3153,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="9"/>
+      <c r="I27" s="32"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -2734,8 +3187,13 @@
       <c r="AN27" s="9"/>
       <c r="AO27" s="9"/>
       <c r="AP27" s="9"/>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ27" s="9"/>
+      <c r="AR27" s="9"/>
+      <c r="AS27" s="9"/>
+      <c r="AT27" s="9"/>
+      <c r="AU27" s="9"/>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2744,7 +3202,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="9"/>
+      <c r="I28" s="32"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -2778,8 +3236,13 @@
       <c r="AN28" s="9"/>
       <c r="AO28" s="9"/>
       <c r="AP28" s="9"/>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ28" s="9"/>
+      <c r="AR28" s="9"/>
+      <c r="AS28" s="9"/>
+      <c r="AT28" s="9"/>
+      <c r="AU28" s="9"/>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2788,7 +3251,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="9"/>
+      <c r="I29" s="32"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -2822,8 +3285,13 @@
       <c r="AN29" s="9"/>
       <c r="AO29" s="9"/>
       <c r="AP29" s="9"/>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ29" s="9"/>
+      <c r="AR29" s="9"/>
+      <c r="AS29" s="9"/>
+      <c r="AT29" s="9"/>
+      <c r="AU29" s="9"/>
+    </row>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2832,7 +3300,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="9"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -2866,8 +3334,13 @@
       <c r="AN30" s="9"/>
       <c r="AO30" s="9"/>
       <c r="AP30" s="9"/>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ30" s="9"/>
+      <c r="AR30" s="9"/>
+      <c r="AS30" s="9"/>
+      <c r="AT30" s="9"/>
+      <c r="AU30" s="9"/>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2876,7 +3349,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="9"/>
+      <c r="I31" s="32"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -2910,8 +3383,13 @@
       <c r="AN31" s="9"/>
       <c r="AO31" s="9"/>
       <c r="AP31" s="9"/>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ31" s="9"/>
+      <c r="AR31" s="9"/>
+      <c r="AS31" s="9"/>
+      <c r="AT31" s="9"/>
+      <c r="AU31" s="9"/>
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2920,7 +3398,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="9"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -2954,8 +3432,13 @@
       <c r="AN32" s="9"/>
       <c r="AO32" s="9"/>
       <c r="AP32" s="9"/>
-    </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ32" s="9"/>
+      <c r="AR32" s="9"/>
+      <c r="AS32" s="9"/>
+      <c r="AT32" s="9"/>
+      <c r="AU32" s="9"/>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2964,7 +3447,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="9"/>
+      <c r="I33" s="32"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -2998,8 +3481,13 @@
       <c r="AN33" s="9"/>
       <c r="AO33" s="9"/>
       <c r="AP33" s="9"/>
-    </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ33" s="9"/>
+      <c r="AR33" s="9"/>
+      <c r="AS33" s="9"/>
+      <c r="AT33" s="9"/>
+      <c r="AU33" s="9"/>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -3008,7 +3496,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="9"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -3042,8 +3530,13 @@
       <c r="AN34" s="9"/>
       <c r="AO34" s="9"/>
       <c r="AP34" s="9"/>
-    </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ34" s="9"/>
+      <c r="AR34" s="9"/>
+      <c r="AS34" s="9"/>
+      <c r="AT34" s="9"/>
+      <c r="AU34" s="9"/>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -3052,7 +3545,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
-      <c r="I35" s="9"/>
+      <c r="I35" s="32"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -3086,8 +3579,13 @@
       <c r="AN35" s="9"/>
       <c r="AO35" s="9"/>
       <c r="AP35" s="9"/>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ35" s="9"/>
+      <c r="AR35" s="9"/>
+      <c r="AS35" s="9"/>
+      <c r="AT35" s="9"/>
+      <c r="AU35" s="9"/>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -3096,7 +3594,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
-      <c r="I36" s="9"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -3130,8 +3628,13 @@
       <c r="AN36" s="9"/>
       <c r="AO36" s="9"/>
       <c r="AP36" s="9"/>
-    </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ36" s="9"/>
+      <c r="AR36" s="9"/>
+      <c r="AS36" s="9"/>
+      <c r="AT36" s="9"/>
+      <c r="AU36" s="9"/>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -3140,7 +3643,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="9"/>
+      <c r="I37" s="32"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -3174,8 +3677,13 @@
       <c r="AN37" s="9"/>
       <c r="AO37" s="9"/>
       <c r="AP37" s="9"/>
-    </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ37" s="9"/>
+      <c r="AR37" s="9"/>
+      <c r="AS37" s="9"/>
+      <c r="AT37" s="9"/>
+      <c r="AU37" s="9"/>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -3184,7 +3692,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="9"/>
+      <c r="I38" s="32"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -3218,8 +3726,13 @@
       <c r="AN38" s="9"/>
       <c r="AO38" s="9"/>
       <c r="AP38" s="9"/>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ38" s="9"/>
+      <c r="AR38" s="9"/>
+      <c r="AS38" s="9"/>
+      <c r="AT38" s="9"/>
+      <c r="AU38" s="9"/>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -3228,7 +3741,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="9"/>
+      <c r="I39" s="32"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
@@ -3262,8 +3775,13 @@
       <c r="AN39" s="9"/>
       <c r="AO39" s="9"/>
       <c r="AP39" s="9"/>
-    </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ39" s="9"/>
+      <c r="AR39" s="9"/>
+      <c r="AS39" s="9"/>
+      <c r="AT39" s="9"/>
+      <c r="AU39" s="9"/>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -3272,7 +3790,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="9"/>
+      <c r="I40" s="32"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -3306,8 +3824,13 @@
       <c r="AN40" s="9"/>
       <c r="AO40" s="9"/>
       <c r="AP40" s="9"/>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ40" s="9"/>
+      <c r="AR40" s="9"/>
+      <c r="AS40" s="9"/>
+      <c r="AT40" s="9"/>
+      <c r="AU40" s="9"/>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -3316,7 +3839,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="9"/>
+      <c r="I41" s="32"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
@@ -3350,8 +3873,13 @@
       <c r="AN41" s="9"/>
       <c r="AO41" s="9"/>
       <c r="AP41" s="9"/>
-    </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ41" s="9"/>
+      <c r="AR41" s="9"/>
+      <c r="AS41" s="9"/>
+      <c r="AT41" s="9"/>
+      <c r="AU41" s="9"/>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -3360,7 +3888,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="9"/>
+      <c r="I42" s="32"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -3394,8 +3922,13 @@
       <c r="AN42" s="9"/>
       <c r="AO42" s="9"/>
       <c r="AP42" s="9"/>
-    </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ42" s="9"/>
+      <c r="AR42" s="9"/>
+      <c r="AS42" s="9"/>
+      <c r="AT42" s="9"/>
+      <c r="AU42" s="9"/>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -3404,7 +3937,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
-      <c r="I43" s="9"/>
+      <c r="I43" s="32"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
@@ -3438,8 +3971,13 @@
       <c r="AN43" s="9"/>
       <c r="AO43" s="9"/>
       <c r="AP43" s="9"/>
-    </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ43" s="9"/>
+      <c r="AR43" s="9"/>
+      <c r="AS43" s="9"/>
+      <c r="AT43" s="9"/>
+      <c r="AU43" s="9"/>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -3448,7 +3986,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
-      <c r="I44" s="9"/>
+      <c r="I44" s="32"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
@@ -3482,8 +4020,13 @@
       <c r="AN44" s="9"/>
       <c r="AO44" s="9"/>
       <c r="AP44" s="9"/>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ44" s="9"/>
+      <c r="AR44" s="9"/>
+      <c r="AS44" s="9"/>
+      <c r="AT44" s="9"/>
+      <c r="AU44" s="9"/>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3492,7 +4035,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
-      <c r="I45" s="9"/>
+      <c r="I45" s="32"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
@@ -3526,8 +4069,13 @@
       <c r="AN45" s="9"/>
       <c r="AO45" s="9"/>
       <c r="AP45" s="9"/>
-    </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ45" s="9"/>
+      <c r="AR45" s="9"/>
+      <c r="AS45" s="9"/>
+      <c r="AT45" s="9"/>
+      <c r="AU45" s="9"/>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -3536,7 +4084,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
-      <c r="I46" s="9"/>
+      <c r="I46" s="32"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
@@ -3570,8 +4118,13 @@
       <c r="AN46" s="9"/>
       <c r="AO46" s="9"/>
       <c r="AP46" s="9"/>
-    </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ46" s="9"/>
+      <c r="AR46" s="9"/>
+      <c r="AS46" s="9"/>
+      <c r="AT46" s="9"/>
+      <c r="AU46" s="9"/>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -3580,7 +4133,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
-      <c r="I47" s="9"/>
+      <c r="I47" s="32"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
@@ -3614,8 +4167,13 @@
       <c r="AN47" s="9"/>
       <c r="AO47" s="9"/>
       <c r="AP47" s="9"/>
-    </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ47" s="9"/>
+      <c r="AR47" s="9"/>
+      <c r="AS47" s="9"/>
+      <c r="AT47" s="9"/>
+      <c r="AU47" s="9"/>
+    </row>
+    <row r="48" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -3624,7 +4182,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
-      <c r="I48" s="9"/>
+      <c r="I48" s="32"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
@@ -3658,8 +4216,13 @@
       <c r="AN48" s="9"/>
       <c r="AO48" s="9"/>
       <c r="AP48" s="9"/>
-    </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ48" s="9"/>
+      <c r="AR48" s="9"/>
+      <c r="AS48" s="9"/>
+      <c r="AT48" s="9"/>
+      <c r="AU48" s="9"/>
+    </row>
+    <row r="49" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -3668,7 +4231,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
-      <c r="I49" s="9"/>
+      <c r="I49" s="32"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
@@ -3702,8 +4265,13 @@
       <c r="AN49" s="9"/>
       <c r="AO49" s="9"/>
       <c r="AP49" s="9"/>
-    </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ49" s="9"/>
+      <c r="AR49" s="9"/>
+      <c r="AS49" s="9"/>
+      <c r="AT49" s="9"/>
+      <c r="AU49" s="9"/>
+    </row>
+    <row r="50" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -3712,7 +4280,7 @@
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
-      <c r="I50" s="9"/>
+      <c r="I50" s="32"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -3746,8 +4314,13 @@
       <c r="AN50" s="9"/>
       <c r="AO50" s="9"/>
       <c r="AP50" s="9"/>
-    </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ50" s="9"/>
+      <c r="AR50" s="9"/>
+      <c r="AS50" s="9"/>
+      <c r="AT50" s="9"/>
+      <c r="AU50" s="9"/>
+    </row>
+    <row r="51" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -3756,7 +4329,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
-      <c r="I51" s="9"/>
+      <c r="I51" s="32"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -3790,8 +4363,13 @@
       <c r="AN51" s="9"/>
       <c r="AO51" s="9"/>
       <c r="AP51" s="9"/>
-    </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ51" s="9"/>
+      <c r="AR51" s="9"/>
+      <c r="AS51" s="9"/>
+      <c r="AT51" s="9"/>
+      <c r="AU51" s="9"/>
+    </row>
+    <row r="52" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -3800,7 +4378,7 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
-      <c r="I52" s="9"/>
+      <c r="I52" s="32"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -3834,8 +4412,13 @@
       <c r="AN52" s="9"/>
       <c r="AO52" s="9"/>
       <c r="AP52" s="9"/>
-    </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ52" s="9"/>
+      <c r="AR52" s="9"/>
+      <c r="AS52" s="9"/>
+      <c r="AT52" s="9"/>
+      <c r="AU52" s="9"/>
+    </row>
+    <row r="53" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -3844,7 +4427,7 @@
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
-      <c r="I53" s="9"/>
+      <c r="I53" s="32"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
@@ -3878,8 +4461,13 @@
       <c r="AN53" s="9"/>
       <c r="AO53" s="9"/>
       <c r="AP53" s="9"/>
-    </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ53" s="9"/>
+      <c r="AR53" s="9"/>
+      <c r="AS53" s="9"/>
+      <c r="AT53" s="9"/>
+      <c r="AU53" s="9"/>
+    </row>
+    <row r="54" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -3888,7 +4476,7 @@
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
-      <c r="I54" s="9"/>
+      <c r="I54" s="32"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
@@ -3922,8 +4510,13 @@
       <c r="AN54" s="9"/>
       <c r="AO54" s="9"/>
       <c r="AP54" s="9"/>
-    </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ54" s="9"/>
+      <c r="AR54" s="9"/>
+      <c r="AS54" s="9"/>
+      <c r="AT54" s="9"/>
+      <c r="AU54" s="9"/>
+    </row>
+    <row r="55" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -3932,7 +4525,7 @@
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
-      <c r="I55" s="9"/>
+      <c r="I55" s="32"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
@@ -3966,8 +4559,13 @@
       <c r="AN55" s="9"/>
       <c r="AO55" s="9"/>
       <c r="AP55" s="9"/>
-    </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ55" s="9"/>
+      <c r="AR55" s="9"/>
+      <c r="AS55" s="9"/>
+      <c r="AT55" s="9"/>
+      <c r="AU55" s="9"/>
+    </row>
+    <row r="56" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -3976,7 +4574,7 @@
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
-      <c r="I56" s="9"/>
+      <c r="I56" s="32"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
@@ -4010,8 +4608,13 @@
       <c r="AN56" s="9"/>
       <c r="AO56" s="9"/>
       <c r="AP56" s="9"/>
-    </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ56" s="9"/>
+      <c r="AR56" s="9"/>
+      <c r="AS56" s="9"/>
+      <c r="AT56" s="9"/>
+      <c r="AU56" s="9"/>
+    </row>
+    <row r="57" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -4020,7 +4623,7 @@
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
-      <c r="I57" s="9"/>
+      <c r="I57" s="32"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
@@ -4054,8 +4657,13 @@
       <c r="AN57" s="9"/>
       <c r="AO57" s="9"/>
       <c r="AP57" s="9"/>
-    </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ57" s="9"/>
+      <c r="AR57" s="9"/>
+      <c r="AS57" s="9"/>
+      <c r="AT57" s="9"/>
+      <c r="AU57" s="9"/>
+    </row>
+    <row r="58" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -4064,7 +4672,7 @@
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
-      <c r="I58" s="9"/>
+      <c r="I58" s="32"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
@@ -4098,8 +4706,13 @@
       <c r="AN58" s="9"/>
       <c r="AO58" s="9"/>
       <c r="AP58" s="9"/>
-    </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ58" s="9"/>
+      <c r="AR58" s="9"/>
+      <c r="AS58" s="9"/>
+      <c r="AT58" s="9"/>
+      <c r="AU58" s="9"/>
+    </row>
+    <row r="59" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -4108,7 +4721,7 @@
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
-      <c r="I59" s="9"/>
+      <c r="I59" s="32"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
@@ -4142,8 +4755,13 @@
       <c r="AN59" s="9"/>
       <c r="AO59" s="9"/>
       <c r="AP59" s="9"/>
-    </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ59" s="9"/>
+      <c r="AR59" s="9"/>
+      <c r="AS59" s="9"/>
+      <c r="AT59" s="9"/>
+      <c r="AU59" s="9"/>
+    </row>
+    <row r="60" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -4152,7 +4770,7 @@
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
-      <c r="I60" s="9"/>
+      <c r="I60" s="32"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -4186,8 +4804,13 @@
       <c r="AN60" s="9"/>
       <c r="AO60" s="9"/>
       <c r="AP60" s="9"/>
-    </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ60" s="9"/>
+      <c r="AR60" s="9"/>
+      <c r="AS60" s="9"/>
+      <c r="AT60" s="9"/>
+      <c r="AU60" s="9"/>
+    </row>
+    <row r="61" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -4196,7 +4819,7 @@
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
-      <c r="I61" s="9"/>
+      <c r="I61" s="32"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
@@ -4230,8 +4853,13 @@
       <c r="AN61" s="9"/>
       <c r="AO61" s="9"/>
       <c r="AP61" s="9"/>
-    </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ61" s="9"/>
+      <c r="AR61" s="9"/>
+      <c r="AS61" s="9"/>
+      <c r="AT61" s="9"/>
+      <c r="AU61" s="9"/>
+    </row>
+    <row r="62" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -4240,7 +4868,7 @@
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
-      <c r="I62" s="9"/>
+      <c r="I62" s="32"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -4274,8 +4902,13 @@
       <c r="AN62" s="9"/>
       <c r="AO62" s="9"/>
       <c r="AP62" s="9"/>
-    </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ62" s="9"/>
+      <c r="AR62" s="9"/>
+      <c r="AS62" s="9"/>
+      <c r="AT62" s="9"/>
+      <c r="AU62" s="9"/>
+    </row>
+    <row r="63" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -4284,7 +4917,7 @@
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
-      <c r="I63" s="9"/>
+      <c r="I63" s="32"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
@@ -4318,8 +4951,13 @@
       <c r="AN63" s="9"/>
       <c r="AO63" s="9"/>
       <c r="AP63" s="9"/>
-    </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ63" s="9"/>
+      <c r="AR63" s="9"/>
+      <c r="AS63" s="9"/>
+      <c r="AT63" s="9"/>
+      <c r="AU63" s="9"/>
+    </row>
+    <row r="64" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -4328,7 +4966,7 @@
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
-      <c r="I64" s="9"/>
+      <c r="I64" s="32"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
@@ -4362,8 +5000,13 @@
       <c r="AN64" s="9"/>
       <c r="AO64" s="9"/>
       <c r="AP64" s="9"/>
-    </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ64" s="9"/>
+      <c r="AR64" s="9"/>
+      <c r="AS64" s="9"/>
+      <c r="AT64" s="9"/>
+      <c r="AU64" s="9"/>
+    </row>
+    <row r="65" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -4372,7 +5015,7 @@
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
-      <c r="I65" s="9"/>
+      <c r="I65" s="32"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
@@ -4406,8 +5049,13 @@
       <c r="AN65" s="9"/>
       <c r="AO65" s="9"/>
       <c r="AP65" s="9"/>
-    </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ65" s="9"/>
+      <c r="AR65" s="9"/>
+      <c r="AS65" s="9"/>
+      <c r="AT65" s="9"/>
+      <c r="AU65" s="9"/>
+    </row>
+    <row r="66" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -4416,7 +5064,7 @@
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
-      <c r="I66" s="9"/>
+      <c r="I66" s="32"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
@@ -4450,8 +5098,13 @@
       <c r="AN66" s="9"/>
       <c r="AO66" s="9"/>
       <c r="AP66" s="9"/>
-    </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ66" s="9"/>
+      <c r="AR66" s="9"/>
+      <c r="AS66" s="9"/>
+      <c r="AT66" s="9"/>
+      <c r="AU66" s="9"/>
+    </row>
+    <row r="67" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -4460,7 +5113,7 @@
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
-      <c r="I67" s="9"/>
+      <c r="I67" s="32"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
@@ -4494,8 +5147,13 @@
       <c r="AN67" s="9"/>
       <c r="AO67" s="9"/>
       <c r="AP67" s="9"/>
-    </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ67" s="9"/>
+      <c r="AR67" s="9"/>
+      <c r="AS67" s="9"/>
+      <c r="AT67" s="9"/>
+      <c r="AU67" s="9"/>
+    </row>
+    <row r="68" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -4504,7 +5162,7 @@
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
-      <c r="I68" s="9"/>
+      <c r="I68" s="32"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
@@ -4538,8 +5196,13 @@
       <c r="AN68" s="9"/>
       <c r="AO68" s="9"/>
       <c r="AP68" s="9"/>
-    </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ68" s="9"/>
+      <c r="AR68" s="9"/>
+      <c r="AS68" s="9"/>
+      <c r="AT68" s="9"/>
+      <c r="AU68" s="9"/>
+    </row>
+    <row r="69" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -4548,7 +5211,7 @@
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
-      <c r="I69" s="9"/>
+      <c r="I69" s="32"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
@@ -4582,8 +5245,13 @@
       <c r="AN69" s="9"/>
       <c r="AO69" s="9"/>
       <c r="AP69" s="9"/>
-    </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ69" s="9"/>
+      <c r="AR69" s="9"/>
+      <c r="AS69" s="9"/>
+      <c r="AT69" s="9"/>
+      <c r="AU69" s="9"/>
+    </row>
+    <row r="70" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -4592,7 +5260,7 @@
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
-      <c r="I70" s="9"/>
+      <c r="I70" s="32"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
@@ -4626,8 +5294,13 @@
       <c r="AN70" s="9"/>
       <c r="AO70" s="9"/>
       <c r="AP70" s="9"/>
-    </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ70" s="9"/>
+      <c r="AR70" s="9"/>
+      <c r="AS70" s="9"/>
+      <c r="AT70" s="9"/>
+      <c r="AU70" s="9"/>
+    </row>
+    <row r="71" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -4636,7 +5309,7 @@
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
-      <c r="I71" s="9"/>
+      <c r="I71" s="32"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
@@ -4670,8 +5343,13 @@
       <c r="AN71" s="9"/>
       <c r="AO71" s="9"/>
       <c r="AP71" s="9"/>
-    </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ71" s="9"/>
+      <c r="AR71" s="9"/>
+      <c r="AS71" s="9"/>
+      <c r="AT71" s="9"/>
+      <c r="AU71" s="9"/>
+    </row>
+    <row r="72" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -4680,7 +5358,7 @@
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
-      <c r="I72" s="9"/>
+      <c r="I72" s="32"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
@@ -4714,8 +5392,13 @@
       <c r="AN72" s="9"/>
       <c r="AO72" s="9"/>
       <c r="AP72" s="9"/>
-    </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ72" s="9"/>
+      <c r="AR72" s="9"/>
+      <c r="AS72" s="9"/>
+      <c r="AT72" s="9"/>
+      <c r="AU72" s="9"/>
+    </row>
+    <row r="73" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4724,7 +5407,7 @@
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
-      <c r="I73" s="9"/>
+      <c r="I73" s="32"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
@@ -4758,8 +5441,13 @@
       <c r="AN73" s="9"/>
       <c r="AO73" s="9"/>
       <c r="AP73" s="9"/>
-    </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ73" s="9"/>
+      <c r="AR73" s="9"/>
+      <c r="AS73" s="9"/>
+      <c r="AT73" s="9"/>
+      <c r="AU73" s="9"/>
+    </row>
+    <row r="74" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4768,7 +5456,7 @@
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
-      <c r="I74" s="9"/>
+      <c r="I74" s="32"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
@@ -4802,8 +5490,13 @@
       <c r="AN74" s="9"/>
       <c r="AO74" s="9"/>
       <c r="AP74" s="9"/>
-    </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ74" s="9"/>
+      <c r="AR74" s="9"/>
+      <c r="AS74" s="9"/>
+      <c r="AT74" s="9"/>
+      <c r="AU74" s="9"/>
+    </row>
+    <row r="75" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -4812,7 +5505,7 @@
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
-      <c r="I75" s="9"/>
+      <c r="I75" s="32"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
@@ -4846,8 +5539,13 @@
       <c r="AN75" s="9"/>
       <c r="AO75" s="9"/>
       <c r="AP75" s="9"/>
-    </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ75" s="9"/>
+      <c r="AR75" s="9"/>
+      <c r="AS75" s="9"/>
+      <c r="AT75" s="9"/>
+      <c r="AU75" s="9"/>
+    </row>
+    <row r="76" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -4856,7 +5554,7 @@
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
-      <c r="I76" s="9"/>
+      <c r="I76" s="32"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
@@ -4890,8 +5588,13 @@
       <c r="AN76" s="9"/>
       <c r="AO76" s="9"/>
       <c r="AP76" s="9"/>
-    </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ76" s="9"/>
+      <c r="AR76" s="9"/>
+      <c r="AS76" s="9"/>
+      <c r="AT76" s="9"/>
+      <c r="AU76" s="9"/>
+    </row>
+    <row r="77" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -4900,7 +5603,7 @@
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
-      <c r="I77" s="9"/>
+      <c r="I77" s="32"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
@@ -4934,8 +5637,13 @@
       <c r="AN77" s="9"/>
       <c r="AO77" s="9"/>
       <c r="AP77" s="9"/>
-    </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ77" s="9"/>
+      <c r="AR77" s="9"/>
+      <c r="AS77" s="9"/>
+      <c r="AT77" s="9"/>
+      <c r="AU77" s="9"/>
+    </row>
+    <row r="78" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -4944,7 +5652,7 @@
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
-      <c r="I78" s="9"/>
+      <c r="I78" s="32"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
@@ -4978,8 +5686,13 @@
       <c r="AN78" s="9"/>
       <c r="AO78" s="9"/>
       <c r="AP78" s="9"/>
-    </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ78" s="9"/>
+      <c r="AR78" s="9"/>
+      <c r="AS78" s="9"/>
+      <c r="AT78" s="9"/>
+      <c r="AU78" s="9"/>
+    </row>
+    <row r="79" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -4988,7 +5701,7 @@
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
-      <c r="I79" s="9"/>
+      <c r="I79" s="32"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
@@ -5022,8 +5735,13 @@
       <c r="AN79" s="9"/>
       <c r="AO79" s="9"/>
       <c r="AP79" s="9"/>
-    </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ79" s="9"/>
+      <c r="AR79" s="9"/>
+      <c r="AS79" s="9"/>
+      <c r="AT79" s="9"/>
+      <c r="AU79" s="9"/>
+    </row>
+    <row r="80" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -5032,7 +5750,7 @@
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
-      <c r="I80" s="9"/>
+      <c r="I80" s="32"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
@@ -5066,8 +5784,13 @@
       <c r="AN80" s="9"/>
       <c r="AO80" s="9"/>
       <c r="AP80" s="9"/>
-    </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ80" s="9"/>
+      <c r="AR80" s="9"/>
+      <c r="AS80" s="9"/>
+      <c r="AT80" s="9"/>
+      <c r="AU80" s="9"/>
+    </row>
+    <row r="81" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -5076,7 +5799,7 @@
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
-      <c r="I81" s="9"/>
+      <c r="I81" s="32"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
@@ -5110,8 +5833,13 @@
       <c r="AN81" s="9"/>
       <c r="AO81" s="9"/>
       <c r="AP81" s="9"/>
-    </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ81" s="9"/>
+      <c r="AR81" s="9"/>
+      <c r="AS81" s="9"/>
+      <c r="AT81" s="9"/>
+      <c r="AU81" s="9"/>
+    </row>
+    <row r="82" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -5120,7 +5848,7 @@
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
-      <c r="I82" s="9"/>
+      <c r="I82" s="32"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
@@ -5154,8 +5882,13 @@
       <c r="AN82" s="9"/>
       <c r="AO82" s="9"/>
       <c r="AP82" s="9"/>
-    </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ82" s="9"/>
+      <c r="AR82" s="9"/>
+      <c r="AS82" s="9"/>
+      <c r="AT82" s="9"/>
+      <c r="AU82" s="9"/>
+    </row>
+    <row r="83" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -5164,7 +5897,7 @@
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
-      <c r="I83" s="9"/>
+      <c r="I83" s="32"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
@@ -5198,8 +5931,13 @@
       <c r="AN83" s="9"/>
       <c r="AO83" s="9"/>
       <c r="AP83" s="9"/>
-    </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ83" s="9"/>
+      <c r="AR83" s="9"/>
+      <c r="AS83" s="9"/>
+      <c r="AT83" s="9"/>
+      <c r="AU83" s="9"/>
+    </row>
+    <row r="84" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -5208,7 +5946,7 @@
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
-      <c r="I84" s="9"/>
+      <c r="I84" s="32"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
@@ -5242,8 +5980,13 @@
       <c r="AN84" s="9"/>
       <c r="AO84" s="9"/>
       <c r="AP84" s="9"/>
-    </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ84" s="9"/>
+      <c r="AR84" s="9"/>
+      <c r="AS84" s="9"/>
+      <c r="AT84" s="9"/>
+      <c r="AU84" s="9"/>
+    </row>
+    <row r="85" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -5252,7 +5995,7 @@
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
-      <c r="I85" s="9"/>
+      <c r="I85" s="32"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -5286,8 +6029,13 @@
       <c r="AN85" s="9"/>
       <c r="AO85" s="9"/>
       <c r="AP85" s="9"/>
-    </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ85" s="9"/>
+      <c r="AR85" s="9"/>
+      <c r="AS85" s="9"/>
+      <c r="AT85" s="9"/>
+      <c r="AU85" s="9"/>
+    </row>
+    <row r="86" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -5296,7 +6044,7 @@
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
-      <c r="I86" s="9"/>
+      <c r="I86" s="32"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
@@ -5330,8 +6078,13 @@
       <c r="AN86" s="9"/>
       <c r="AO86" s="9"/>
       <c r="AP86" s="9"/>
-    </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ86" s="9"/>
+      <c r="AR86" s="9"/>
+      <c r="AS86" s="9"/>
+      <c r="AT86" s="9"/>
+      <c r="AU86" s="9"/>
+    </row>
+    <row r="87" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -5340,7 +6093,7 @@
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
-      <c r="I87" s="9"/>
+      <c r="I87" s="32"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
@@ -5374,8 +6127,13 @@
       <c r="AN87" s="9"/>
       <c r="AO87" s="9"/>
       <c r="AP87" s="9"/>
-    </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ87" s="9"/>
+      <c r="AR87" s="9"/>
+      <c r="AS87" s="9"/>
+      <c r="AT87" s="9"/>
+      <c r="AU87" s="9"/>
+    </row>
+    <row r="88" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -5384,7 +6142,7 @@
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
-      <c r="I88" s="9"/>
+      <c r="I88" s="32"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
@@ -5418,8 +6176,13 @@
       <c r="AN88" s="9"/>
       <c r="AO88" s="9"/>
       <c r="AP88" s="9"/>
-    </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ88" s="9"/>
+      <c r="AR88" s="9"/>
+      <c r="AS88" s="9"/>
+      <c r="AT88" s="9"/>
+      <c r="AU88" s="9"/>
+    </row>
+    <row r="89" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -5428,7 +6191,7 @@
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
-      <c r="I89" s="9"/>
+      <c r="I89" s="32"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
@@ -5462,8 +6225,13 @@
       <c r="AN89" s="9"/>
       <c r="AO89" s="9"/>
       <c r="AP89" s="9"/>
-    </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ89" s="9"/>
+      <c r="AR89" s="9"/>
+      <c r="AS89" s="9"/>
+      <c r="AT89" s="9"/>
+      <c r="AU89" s="9"/>
+    </row>
+    <row r="90" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -5472,7 +6240,7 @@
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
-      <c r="I90" s="9"/>
+      <c r="I90" s="32"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
@@ -5506,8 +6274,13 @@
       <c r="AN90" s="9"/>
       <c r="AO90" s="9"/>
       <c r="AP90" s="9"/>
-    </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ90" s="9"/>
+      <c r="AR90" s="9"/>
+      <c r="AS90" s="9"/>
+      <c r="AT90" s="9"/>
+      <c r="AU90" s="9"/>
+    </row>
+    <row r="91" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -5516,7 +6289,7 @@
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
-      <c r="I91" s="9"/>
+      <c r="I91" s="32"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
@@ -5550,8 +6323,13 @@
       <c r="AN91" s="9"/>
       <c r="AO91" s="9"/>
       <c r="AP91" s="9"/>
-    </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ91" s="9"/>
+      <c r="AR91" s="9"/>
+      <c r="AS91" s="9"/>
+      <c r="AT91" s="9"/>
+      <c r="AU91" s="9"/>
+    </row>
+    <row r="92" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -5560,7 +6338,7 @@
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
-      <c r="I92" s="9"/>
+      <c r="I92" s="32"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
@@ -5594,8 +6372,13 @@
       <c r="AN92" s="9"/>
       <c r="AO92" s="9"/>
       <c r="AP92" s="9"/>
-    </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ92" s="9"/>
+      <c r="AR92" s="9"/>
+      <c r="AS92" s="9"/>
+      <c r="AT92" s="9"/>
+      <c r="AU92" s="9"/>
+    </row>
+    <row r="93" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -5604,7 +6387,7 @@
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
-      <c r="I93" s="9"/>
+      <c r="I93" s="32"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
@@ -5638,8 +6421,13 @@
       <c r="AN93" s="9"/>
       <c r="AO93" s="9"/>
       <c r="AP93" s="9"/>
-    </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ93" s="9"/>
+      <c r="AR93" s="9"/>
+      <c r="AS93" s="9"/>
+      <c r="AT93" s="9"/>
+      <c r="AU93" s="9"/>
+    </row>
+    <row r="94" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -5648,7 +6436,7 @@
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
-      <c r="I94" s="9"/>
+      <c r="I94" s="32"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
@@ -5682,8 +6470,13 @@
       <c r="AN94" s="9"/>
       <c r="AO94" s="9"/>
       <c r="AP94" s="9"/>
-    </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ94" s="9"/>
+      <c r="AR94" s="9"/>
+      <c r="AS94" s="9"/>
+      <c r="AT94" s="9"/>
+      <c r="AU94" s="9"/>
+    </row>
+    <row r="95" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -5692,7 +6485,7 @@
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
-      <c r="I95" s="9"/>
+      <c r="I95" s="32"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
@@ -5726,8 +6519,13 @@
       <c r="AN95" s="9"/>
       <c r="AO95" s="9"/>
       <c r="AP95" s="9"/>
-    </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ95" s="9"/>
+      <c r="AR95" s="9"/>
+      <c r="AS95" s="9"/>
+      <c r="AT95" s="9"/>
+      <c r="AU95" s="9"/>
+    </row>
+    <row r="96" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -5736,7 +6534,7 @@
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
-      <c r="I96" s="9"/>
+      <c r="I96" s="32"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -5770,8 +6568,13 @@
       <c r="AN96" s="9"/>
       <c r="AO96" s="9"/>
       <c r="AP96" s="9"/>
-    </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ96" s="9"/>
+      <c r="AR96" s="9"/>
+      <c r="AS96" s="9"/>
+      <c r="AT96" s="9"/>
+      <c r="AU96" s="9"/>
+    </row>
+    <row r="97" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -5780,7 +6583,7 @@
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
-      <c r="I97" s="9"/>
+      <c r="I97" s="32"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
@@ -5814,8 +6617,13 @@
       <c r="AN97" s="9"/>
       <c r="AO97" s="9"/>
       <c r="AP97" s="9"/>
-    </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ97" s="9"/>
+      <c r="AR97" s="9"/>
+      <c r="AS97" s="9"/>
+      <c r="AT97" s="9"/>
+      <c r="AU97" s="9"/>
+    </row>
+    <row r="98" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -5824,7 +6632,7 @@
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
-      <c r="I98" s="9"/>
+      <c r="I98" s="32"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
@@ -5858,8 +6666,13 @@
       <c r="AN98" s="9"/>
       <c r="AO98" s="9"/>
       <c r="AP98" s="9"/>
-    </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ98" s="9"/>
+      <c r="AR98" s="9"/>
+      <c r="AS98" s="9"/>
+      <c r="AT98" s="9"/>
+      <c r="AU98" s="9"/>
+    </row>
+    <row r="99" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -5868,7 +6681,7 @@
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
-      <c r="I99" s="9"/>
+      <c r="I99" s="32"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
@@ -5902,8 +6715,13 @@
       <c r="AN99" s="9"/>
       <c r="AO99" s="9"/>
       <c r="AP99" s="9"/>
-    </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ99" s="9"/>
+      <c r="AR99" s="9"/>
+      <c r="AS99" s="9"/>
+      <c r="AT99" s="9"/>
+      <c r="AU99" s="9"/>
+    </row>
+    <row r="100" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -5912,7 +6730,7 @@
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
-      <c r="I100" s="9"/>
+      <c r="I100" s="32"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
@@ -5946,8 +6764,13 @@
       <c r="AN100" s="9"/>
       <c r="AO100" s="9"/>
       <c r="AP100" s="9"/>
-    </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ100" s="9"/>
+      <c r="AR100" s="9"/>
+      <c r="AS100" s="9"/>
+      <c r="AT100" s="9"/>
+      <c r="AU100" s="9"/>
+    </row>
+    <row r="101" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -5956,7 +6779,7 @@
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
-      <c r="I101" s="9"/>
+      <c r="I101" s="32"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
@@ -5990,8 +6813,13 @@
       <c r="AN101" s="9"/>
       <c r="AO101" s="9"/>
       <c r="AP101" s="9"/>
-    </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ101" s="9"/>
+      <c r="AR101" s="9"/>
+      <c r="AS101" s="9"/>
+      <c r="AT101" s="9"/>
+      <c r="AU101" s="9"/>
+    </row>
+    <row r="102" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -6000,7 +6828,7 @@
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
-      <c r="I102" s="9"/>
+      <c r="I102" s="32"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
@@ -6034,8 +6862,13 @@
       <c r="AN102" s="9"/>
       <c r="AO102" s="9"/>
       <c r="AP102" s="9"/>
-    </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ102" s="9"/>
+      <c r="AR102" s="9"/>
+      <c r="AS102" s="9"/>
+      <c r="AT102" s="9"/>
+      <c r="AU102" s="9"/>
+    </row>
+    <row r="103" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -6044,7 +6877,7 @@
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
-      <c r="I103" s="9"/>
+      <c r="I103" s="32"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
@@ -6078,8 +6911,13 @@
       <c r="AN103" s="9"/>
       <c r="AO103" s="9"/>
       <c r="AP103" s="9"/>
-    </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ103" s="9"/>
+      <c r="AR103" s="9"/>
+      <c r="AS103" s="9"/>
+      <c r="AT103" s="9"/>
+      <c r="AU103" s="9"/>
+    </row>
+    <row r="104" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -6088,7 +6926,7 @@
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
-      <c r="I104" s="9"/>
+      <c r="I104" s="32"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
@@ -6122,8 +6960,13 @@
       <c r="AN104" s="9"/>
       <c r="AO104" s="9"/>
       <c r="AP104" s="9"/>
-    </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ104" s="9"/>
+      <c r="AR104" s="9"/>
+      <c r="AS104" s="9"/>
+      <c r="AT104" s="9"/>
+      <c r="AU104" s="9"/>
+    </row>
+    <row r="105" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -6132,7 +6975,7 @@
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
-      <c r="I105" s="9"/>
+      <c r="I105" s="32"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
@@ -6166,8 +7009,13 @@
       <c r="AN105" s="9"/>
       <c r="AO105" s="9"/>
       <c r="AP105" s="9"/>
-    </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ105" s="9"/>
+      <c r="AR105" s="9"/>
+      <c r="AS105" s="9"/>
+      <c r="AT105" s="9"/>
+      <c r="AU105" s="9"/>
+    </row>
+    <row r="106" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -6176,7 +7024,7 @@
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
-      <c r="I106" s="9"/>
+      <c r="I106" s="32"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
@@ -6210,8 +7058,13 @@
       <c r="AN106" s="9"/>
       <c r="AO106" s="9"/>
       <c r="AP106" s="9"/>
-    </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ106" s="9"/>
+      <c r="AR106" s="9"/>
+      <c r="AS106" s="9"/>
+      <c r="AT106" s="9"/>
+      <c r="AU106" s="9"/>
+    </row>
+    <row r="107" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -6220,7 +7073,7 @@
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
-      <c r="I107" s="9"/>
+      <c r="I107" s="32"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
@@ -6254,8 +7107,13 @@
       <c r="AN107" s="9"/>
       <c r="AO107" s="9"/>
       <c r="AP107" s="9"/>
-    </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ107" s="9"/>
+      <c r="AR107" s="9"/>
+      <c r="AS107" s="9"/>
+      <c r="AT107" s="9"/>
+      <c r="AU107" s="9"/>
+    </row>
+    <row r="108" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -6264,7 +7122,7 @@
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
-      <c r="I108" s="9"/>
+      <c r="I108" s="32"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
@@ -6298,8 +7156,13 @@
       <c r="AN108" s="9"/>
       <c r="AO108" s="9"/>
       <c r="AP108" s="9"/>
-    </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ108" s="9"/>
+      <c r="AR108" s="9"/>
+      <c r="AS108" s="9"/>
+      <c r="AT108" s="9"/>
+      <c r="AU108" s="9"/>
+    </row>
+    <row r="109" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -6308,7 +7171,7 @@
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
-      <c r="I109" s="9"/>
+      <c r="I109" s="32"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
@@ -6342,8 +7205,13 @@
       <c r="AN109" s="9"/>
       <c r="AO109" s="9"/>
       <c r="AP109" s="9"/>
-    </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ109" s="9"/>
+      <c r="AR109" s="9"/>
+      <c r="AS109" s="9"/>
+      <c r="AT109" s="9"/>
+      <c r="AU109" s="9"/>
+    </row>
+    <row r="110" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -6352,7 +7220,7 @@
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
-      <c r="I110" s="9"/>
+      <c r="I110" s="32"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
@@ -6386,8 +7254,13 @@
       <c r="AN110" s="9"/>
       <c r="AO110" s="9"/>
       <c r="AP110" s="9"/>
-    </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ110" s="9"/>
+      <c r="AR110" s="9"/>
+      <c r="AS110" s="9"/>
+      <c r="AT110" s="9"/>
+      <c r="AU110" s="9"/>
+    </row>
+    <row r="111" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -6396,7 +7269,7 @@
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
-      <c r="I111" s="9"/>
+      <c r="I111" s="32"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
@@ -6430,8 +7303,13 @@
       <c r="AN111" s="9"/>
       <c r="AO111" s="9"/>
       <c r="AP111" s="9"/>
-    </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ111" s="9"/>
+      <c r="AR111" s="9"/>
+      <c r="AS111" s="9"/>
+      <c r="AT111" s="9"/>
+      <c r="AU111" s="9"/>
+    </row>
+    <row r="112" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -6440,7 +7318,7 @@
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
-      <c r="I112" s="9"/>
+      <c r="I112" s="32"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
@@ -6474,8 +7352,13 @@
       <c r="AN112" s="9"/>
       <c r="AO112" s="9"/>
       <c r="AP112" s="9"/>
-    </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ112" s="9"/>
+      <c r="AR112" s="9"/>
+      <c r="AS112" s="9"/>
+      <c r="AT112" s="9"/>
+      <c r="AU112" s="9"/>
+    </row>
+    <row r="113" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -6484,7 +7367,7 @@
       <c r="F113" s="11"/>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
-      <c r="I113" s="9"/>
+      <c r="I113" s="32"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
@@ -6518,8 +7401,13 @@
       <c r="AN113" s="9"/>
       <c r="AO113" s="9"/>
       <c r="AP113" s="9"/>
-    </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ113" s="9"/>
+      <c r="AR113" s="9"/>
+      <c r="AS113" s="9"/>
+      <c r="AT113" s="9"/>
+      <c r="AU113" s="9"/>
+    </row>
+    <row r="114" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -6528,7 +7416,7 @@
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
-      <c r="I114" s="9"/>
+      <c r="I114" s="32"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
@@ -6562,8 +7450,13 @@
       <c r="AN114" s="9"/>
       <c r="AO114" s="9"/>
       <c r="AP114" s="9"/>
-    </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ114" s="9"/>
+      <c r="AR114" s="9"/>
+      <c r="AS114" s="9"/>
+      <c r="AT114" s="9"/>
+      <c r="AU114" s="9"/>
+    </row>
+    <row r="115" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -6572,7 +7465,7 @@
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
-      <c r="I115" s="9"/>
+      <c r="I115" s="32"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
@@ -6606,8 +7499,13 @@
       <c r="AN115" s="9"/>
       <c r="AO115" s="9"/>
       <c r="AP115" s="9"/>
-    </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ115" s="9"/>
+      <c r="AR115" s="9"/>
+      <c r="AS115" s="9"/>
+      <c r="AT115" s="9"/>
+      <c r="AU115" s="9"/>
+    </row>
+    <row r="116" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -6616,7 +7514,7 @@
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
-      <c r="I116" s="9"/>
+      <c r="I116" s="32"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
@@ -6650,8 +7548,13 @@
       <c r="AN116" s="9"/>
       <c r="AO116" s="9"/>
       <c r="AP116" s="9"/>
-    </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ116" s="9"/>
+      <c r="AR116" s="9"/>
+      <c r="AS116" s="9"/>
+      <c r="AT116" s="9"/>
+      <c r="AU116" s="9"/>
+    </row>
+    <row r="117" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -6660,7 +7563,7 @@
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
-      <c r="I117" s="9"/>
+      <c r="I117" s="32"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
@@ -6694,8 +7597,13 @@
       <c r="AN117" s="9"/>
       <c r="AO117" s="9"/>
       <c r="AP117" s="9"/>
-    </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ117" s="9"/>
+      <c r="AR117" s="9"/>
+      <c r="AS117" s="9"/>
+      <c r="AT117" s="9"/>
+      <c r="AU117" s="9"/>
+    </row>
+    <row r="118" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -6704,7 +7612,7 @@
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
-      <c r="I118" s="9"/>
+      <c r="I118" s="32"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
@@ -6738,8 +7646,13 @@
       <c r="AN118" s="9"/>
       <c r="AO118" s="9"/>
       <c r="AP118" s="9"/>
-    </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ118" s="9"/>
+      <c r="AR118" s="9"/>
+      <c r="AS118" s="9"/>
+      <c r="AT118" s="9"/>
+      <c r="AU118" s="9"/>
+    </row>
+    <row r="119" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -6748,7 +7661,7 @@
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
-      <c r="I119" s="9"/>
+      <c r="I119" s="32"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
@@ -6782,8 +7695,13 @@
       <c r="AN119" s="9"/>
       <c r="AO119" s="9"/>
       <c r="AP119" s="9"/>
-    </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ119" s="9"/>
+      <c r="AR119" s="9"/>
+      <c r="AS119" s="9"/>
+      <c r="AT119" s="9"/>
+      <c r="AU119" s="9"/>
+    </row>
+    <row r="120" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -6792,7 +7710,7 @@
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
-      <c r="I120" s="9"/>
+      <c r="I120" s="32"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
@@ -6826,8 +7744,13 @@
       <c r="AN120" s="9"/>
       <c r="AO120" s="9"/>
       <c r="AP120" s="9"/>
-    </row>
-    <row r="121" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ120" s="9"/>
+      <c r="AR120" s="9"/>
+      <c r="AS120" s="9"/>
+      <c r="AT120" s="9"/>
+      <c r="AU120" s="9"/>
+    </row>
+    <row r="121" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -6836,7 +7759,7 @@
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
-      <c r="I121" s="9"/>
+      <c r="I121" s="32"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
@@ -6870,8 +7793,13 @@
       <c r="AN121" s="9"/>
       <c r="AO121" s="9"/>
       <c r="AP121" s="9"/>
-    </row>
-    <row r="122" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ121" s="9"/>
+      <c r="AR121" s="9"/>
+      <c r="AS121" s="9"/>
+      <c r="AT121" s="9"/>
+      <c r="AU121" s="9"/>
+    </row>
+    <row r="122" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -6880,7 +7808,7 @@
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
-      <c r="I122" s="9"/>
+      <c r="I122" s="32"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
@@ -6914,8 +7842,13 @@
       <c r="AN122" s="9"/>
       <c r="AO122" s="9"/>
       <c r="AP122" s="9"/>
-    </row>
-    <row r="123" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ122" s="9"/>
+      <c r="AR122" s="9"/>
+      <c r="AS122" s="9"/>
+      <c r="AT122" s="9"/>
+      <c r="AU122" s="9"/>
+    </row>
+    <row r="123" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -6924,7 +7857,7 @@
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
-      <c r="I123" s="9"/>
+      <c r="I123" s="32"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
@@ -6958,8 +7891,13 @@
       <c r="AN123" s="9"/>
       <c r="AO123" s="9"/>
       <c r="AP123" s="9"/>
-    </row>
-    <row r="124" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ123" s="9"/>
+      <c r="AR123" s="9"/>
+      <c r="AS123" s="9"/>
+      <c r="AT123" s="9"/>
+      <c r="AU123" s="9"/>
+    </row>
+    <row r="124" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -6968,7 +7906,7 @@
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
-      <c r="I124" s="9"/>
+      <c r="I124" s="32"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
@@ -7002,8 +7940,13 @@
       <c r="AN124" s="9"/>
       <c r="AO124" s="9"/>
       <c r="AP124" s="9"/>
-    </row>
-    <row r="125" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ124" s="9"/>
+      <c r="AR124" s="9"/>
+      <c r="AS124" s="9"/>
+      <c r="AT124" s="9"/>
+      <c r="AU124" s="9"/>
+    </row>
+    <row r="125" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -7012,7 +7955,7 @@
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
-      <c r="I125" s="9"/>
+      <c r="I125" s="32"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
@@ -7046,8 +7989,13 @@
       <c r="AN125" s="9"/>
       <c r="AO125" s="9"/>
       <c r="AP125" s="9"/>
-    </row>
-    <row r="126" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ125" s="9"/>
+      <c r="AR125" s="9"/>
+      <c r="AS125" s="9"/>
+      <c r="AT125" s="9"/>
+      <c r="AU125" s="9"/>
+    </row>
+    <row r="126" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -7056,7 +8004,7 @@
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
-      <c r="I126" s="9"/>
+      <c r="I126" s="32"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
@@ -7090,8 +8038,13 @@
       <c r="AN126" s="9"/>
       <c r="AO126" s="9"/>
       <c r="AP126" s="9"/>
-    </row>
-    <row r="127" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ126" s="9"/>
+      <c r="AR126" s="9"/>
+      <c r="AS126" s="9"/>
+      <c r="AT126" s="9"/>
+      <c r="AU126" s="9"/>
+    </row>
+    <row r="127" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -7100,7 +8053,7 @@
       <c r="F127" s="11"/>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
-      <c r="I127" s="9"/>
+      <c r="I127" s="32"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c r="L127" s="9"/>
@@ -7134,8 +8087,13 @@
       <c r="AN127" s="9"/>
       <c r="AO127" s="9"/>
       <c r="AP127" s="9"/>
-    </row>
-    <row r="128" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ127" s="9"/>
+      <c r="AR127" s="9"/>
+      <c r="AS127" s="9"/>
+      <c r="AT127" s="9"/>
+      <c r="AU127" s="9"/>
+    </row>
+    <row r="128" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -7144,7 +8102,7 @@
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
-      <c r="I128" s="9"/>
+      <c r="I128" s="32"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
@@ -7178,8 +8136,13 @@
       <c r="AN128" s="9"/>
       <c r="AO128" s="9"/>
       <c r="AP128" s="9"/>
-    </row>
-    <row r="129" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ128" s="9"/>
+      <c r="AR128" s="9"/>
+      <c r="AS128" s="9"/>
+      <c r="AT128" s="9"/>
+      <c r="AU128" s="9"/>
+    </row>
+    <row r="129" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -7188,7 +8151,7 @@
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
-      <c r="I129" s="9"/>
+      <c r="I129" s="32"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
@@ -7222,8 +8185,13 @@
       <c r="AN129" s="9"/>
       <c r="AO129" s="9"/>
       <c r="AP129" s="9"/>
-    </row>
-    <row r="130" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ129" s="9"/>
+      <c r="AR129" s="9"/>
+      <c r="AS129" s="9"/>
+      <c r="AT129" s="9"/>
+      <c r="AU129" s="9"/>
+    </row>
+    <row r="130" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -7232,7 +8200,7 @@
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
-      <c r="I130" s="9"/>
+      <c r="I130" s="32"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
@@ -7266,8 +8234,13 @@
       <c r="AN130" s="9"/>
       <c r="AO130" s="9"/>
       <c r="AP130" s="9"/>
-    </row>
-    <row r="131" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ130" s="9"/>
+      <c r="AR130" s="9"/>
+      <c r="AS130" s="9"/>
+      <c r="AT130" s="9"/>
+      <c r="AU130" s="9"/>
+    </row>
+    <row r="131" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -7276,7 +8249,7 @@
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
-      <c r="I131" s="9"/>
+      <c r="I131" s="32"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
@@ -7310,8 +8283,13 @@
       <c r="AN131" s="9"/>
       <c r="AO131" s="9"/>
       <c r="AP131" s="9"/>
-    </row>
-    <row r="132" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ131" s="9"/>
+      <c r="AR131" s="9"/>
+      <c r="AS131" s="9"/>
+      <c r="AT131" s="9"/>
+      <c r="AU131" s="9"/>
+    </row>
+    <row r="132" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -7320,7 +8298,7 @@
       <c r="F132" s="11"/>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
-      <c r="I132" s="9"/>
+      <c r="I132" s="32"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
@@ -7354,8 +8332,13 @@
       <c r="AN132" s="9"/>
       <c r="AO132" s="9"/>
       <c r="AP132" s="9"/>
-    </row>
-    <row r="133" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ132" s="9"/>
+      <c r="AR132" s="9"/>
+      <c r="AS132" s="9"/>
+      <c r="AT132" s="9"/>
+      <c r="AU132" s="9"/>
+    </row>
+    <row r="133" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -7364,7 +8347,7 @@
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
-      <c r="I133" s="9"/>
+      <c r="I133" s="32"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
@@ -7398,8 +8381,13 @@
       <c r="AN133" s="9"/>
       <c r="AO133" s="9"/>
       <c r="AP133" s="9"/>
-    </row>
-    <row r="134" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ133" s="9"/>
+      <c r="AR133" s="9"/>
+      <c r="AS133" s="9"/>
+      <c r="AT133" s="9"/>
+      <c r="AU133" s="9"/>
+    </row>
+    <row r="134" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -7408,7 +8396,7 @@
       <c r="F134" s="11"/>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
-      <c r="I134" s="9"/>
+      <c r="I134" s="32"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
@@ -7442,8 +8430,13 @@
       <c r="AN134" s="9"/>
       <c r="AO134" s="9"/>
       <c r="AP134" s="9"/>
-    </row>
-    <row r="135" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ134" s="9"/>
+      <c r="AR134" s="9"/>
+      <c r="AS134" s="9"/>
+      <c r="AT134" s="9"/>
+      <c r="AU134" s="9"/>
+    </row>
+    <row r="135" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -7452,7 +8445,7 @@
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
-      <c r="I135" s="9"/>
+      <c r="I135" s="32"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
@@ -7486,8 +8479,13 @@
       <c r="AN135" s="9"/>
       <c r="AO135" s="9"/>
       <c r="AP135" s="9"/>
-    </row>
-    <row r="136" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ135" s="9"/>
+      <c r="AR135" s="9"/>
+      <c r="AS135" s="9"/>
+      <c r="AT135" s="9"/>
+      <c r="AU135" s="9"/>
+    </row>
+    <row r="136" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -7496,7 +8494,7 @@
       <c r="F136" s="11"/>
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
-      <c r="I136" s="9"/>
+      <c r="I136" s="32"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c r="L136" s="9"/>
@@ -7530,8 +8528,13 @@
       <c r="AN136" s="9"/>
       <c r="AO136" s="9"/>
       <c r="AP136" s="9"/>
-    </row>
-    <row r="137" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ136" s="9"/>
+      <c r="AR136" s="9"/>
+      <c r="AS136" s="9"/>
+      <c r="AT136" s="9"/>
+      <c r="AU136" s="9"/>
+    </row>
+    <row r="137" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -7540,7 +8543,7 @@
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
-      <c r="I137" s="9"/>
+      <c r="I137" s="32"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c r="L137" s="9"/>
@@ -7574,8 +8577,13 @@
       <c r="AN137" s="9"/>
       <c r="AO137" s="9"/>
       <c r="AP137" s="9"/>
-    </row>
-    <row r="138" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ137" s="9"/>
+      <c r="AR137" s="9"/>
+      <c r="AS137" s="9"/>
+      <c r="AT137" s="9"/>
+      <c r="AU137" s="9"/>
+    </row>
+    <row r="138" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -7584,7 +8592,7 @@
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
-      <c r="I138" s="9"/>
+      <c r="I138" s="32"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c r="L138" s="9"/>
@@ -7618,8 +8626,13 @@
       <c r="AN138" s="9"/>
       <c r="AO138" s="9"/>
       <c r="AP138" s="9"/>
-    </row>
-    <row r="139" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ138" s="9"/>
+      <c r="AR138" s="9"/>
+      <c r="AS138" s="9"/>
+      <c r="AT138" s="9"/>
+      <c r="AU138" s="9"/>
+    </row>
+    <row r="139" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -7628,7 +8641,7 @@
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
-      <c r="I139" s="9"/>
+      <c r="I139" s="32"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c r="L139" s="9"/>
@@ -7662,8 +8675,13 @@
       <c r="AN139" s="9"/>
       <c r="AO139" s="9"/>
       <c r="AP139" s="9"/>
-    </row>
-    <row r="140" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ139" s="9"/>
+      <c r="AR139" s="9"/>
+      <c r="AS139" s="9"/>
+      <c r="AT139" s="9"/>
+      <c r="AU139" s="9"/>
+    </row>
+    <row r="140" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -7672,7 +8690,7 @@
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
-      <c r="I140" s="9"/>
+      <c r="I140" s="32"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c r="L140" s="9"/>
@@ -7706,8 +8724,13 @@
       <c r="AN140" s="9"/>
       <c r="AO140" s="9"/>
       <c r="AP140" s="9"/>
-    </row>
-    <row r="141" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ140" s="9"/>
+      <c r="AR140" s="9"/>
+      <c r="AS140" s="9"/>
+      <c r="AT140" s="9"/>
+      <c r="AU140" s="9"/>
+    </row>
+    <row r="141" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -7716,7 +8739,7 @@
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
-      <c r="I141" s="9"/>
+      <c r="I141" s="32"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c r="L141" s="9"/>
@@ -7750,8 +8773,13 @@
       <c r="AN141" s="9"/>
       <c r="AO141" s="9"/>
       <c r="AP141" s="9"/>
-    </row>
-    <row r="142" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ141" s="9"/>
+      <c r="AR141" s="9"/>
+      <c r="AS141" s="9"/>
+      <c r="AT141" s="9"/>
+      <c r="AU141" s="9"/>
+    </row>
+    <row r="142" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -7760,7 +8788,7 @@
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
-      <c r="I142" s="9"/>
+      <c r="I142" s="32"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c r="L142" s="9"/>
@@ -7794,8 +8822,13 @@
       <c r="AN142" s="9"/>
       <c r="AO142" s="9"/>
       <c r="AP142" s="9"/>
-    </row>
-    <row r="143" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ142" s="9"/>
+      <c r="AR142" s="9"/>
+      <c r="AS142" s="9"/>
+      <c r="AT142" s="9"/>
+      <c r="AU142" s="9"/>
+    </row>
+    <row r="143" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -7804,7 +8837,7 @@
       <c r="F143" s="11"/>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
-      <c r="I143" s="9"/>
+      <c r="I143" s="32"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c r="L143" s="9"/>
@@ -7838,8 +8871,13 @@
       <c r="AN143" s="9"/>
       <c r="AO143" s="9"/>
       <c r="AP143" s="9"/>
-    </row>
-    <row r="144" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ143" s="9"/>
+      <c r="AR143" s="9"/>
+      <c r="AS143" s="9"/>
+      <c r="AT143" s="9"/>
+      <c r="AU143" s="9"/>
+    </row>
+    <row r="144" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -7848,7 +8886,7 @@
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
-      <c r="I144" s="9"/>
+      <c r="I144" s="32"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c r="L144" s="9"/>
@@ -7882,8 +8920,13 @@
       <c r="AN144" s="9"/>
       <c r="AO144" s="9"/>
       <c r="AP144" s="9"/>
-    </row>
-    <row r="145" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ144" s="9"/>
+      <c r="AR144" s="9"/>
+      <c r="AS144" s="9"/>
+      <c r="AT144" s="9"/>
+      <c r="AU144" s="9"/>
+    </row>
+    <row r="145" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -7892,7 +8935,7 @@
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
-      <c r="I145" s="9"/>
+      <c r="I145" s="32"/>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
       <c r="L145" s="9"/>
@@ -7926,8 +8969,13 @@
       <c r="AN145" s="9"/>
       <c r="AO145" s="9"/>
       <c r="AP145" s="9"/>
-    </row>
-    <row r="146" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ145" s="9"/>
+      <c r="AR145" s="9"/>
+      <c r="AS145" s="9"/>
+      <c r="AT145" s="9"/>
+      <c r="AU145" s="9"/>
+    </row>
+    <row r="146" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -7936,7 +8984,7 @@
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
-      <c r="I146" s="9"/>
+      <c r="I146" s="32"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c r="L146" s="9"/>
@@ -7970,8 +9018,13 @@
       <c r="AN146" s="9"/>
       <c r="AO146" s="9"/>
       <c r="AP146" s="9"/>
-    </row>
-    <row r="147" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ146" s="9"/>
+      <c r="AR146" s="9"/>
+      <c r="AS146" s="9"/>
+      <c r="AT146" s="9"/>
+      <c r="AU146" s="9"/>
+    </row>
+    <row r="147" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -7980,7 +9033,7 @@
       <c r="F147" s="11"/>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
-      <c r="I147" s="9"/>
+      <c r="I147" s="32"/>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
       <c r="L147" s="9"/>
@@ -8014,8 +9067,13 @@
       <c r="AN147" s="9"/>
       <c r="AO147" s="9"/>
       <c r="AP147" s="9"/>
-    </row>
-    <row r="148" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ147" s="9"/>
+      <c r="AR147" s="9"/>
+      <c r="AS147" s="9"/>
+      <c r="AT147" s="9"/>
+      <c r="AU147" s="9"/>
+    </row>
+    <row r="148" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -8024,7 +9082,7 @@
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
-      <c r="I148" s="9"/>
+      <c r="I148" s="32"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
       <c r="L148" s="9"/>
@@ -8058,8 +9116,13 @@
       <c r="AN148" s="9"/>
       <c r="AO148" s="9"/>
       <c r="AP148" s="9"/>
-    </row>
-    <row r="149" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ148" s="9"/>
+      <c r="AR148" s="9"/>
+      <c r="AS148" s="9"/>
+      <c r="AT148" s="9"/>
+      <c r="AU148" s="9"/>
+    </row>
+    <row r="149" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -8068,7 +9131,7 @@
       <c r="F149" s="11"/>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
-      <c r="I149" s="9"/>
+      <c r="I149" s="32"/>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
       <c r="L149" s="9"/>
@@ -8102,8 +9165,13 @@
       <c r="AN149" s="9"/>
       <c r="AO149" s="9"/>
       <c r="AP149" s="9"/>
-    </row>
-    <row r="150" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ149" s="9"/>
+      <c r="AR149" s="9"/>
+      <c r="AS149" s="9"/>
+      <c r="AT149" s="9"/>
+      <c r="AU149" s="9"/>
+    </row>
+    <row r="150" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -8112,7 +9180,7 @@
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
-      <c r="I150" s="9"/>
+      <c r="I150" s="32"/>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
       <c r="L150" s="9"/>
@@ -8146,8 +9214,13 @@
       <c r="AN150" s="9"/>
       <c r="AO150" s="9"/>
       <c r="AP150" s="9"/>
-    </row>
-    <row r="151" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ150" s="9"/>
+      <c r="AR150" s="9"/>
+      <c r="AS150" s="9"/>
+      <c r="AT150" s="9"/>
+      <c r="AU150" s="9"/>
+    </row>
+    <row r="151" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -8156,7 +9229,7 @@
       <c r="F151" s="11"/>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
-      <c r="I151" s="9"/>
+      <c r="I151" s="32"/>
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
       <c r="L151" s="9"/>
@@ -8190,8 +9263,13 @@
       <c r="AN151" s="9"/>
       <c r="AO151" s="9"/>
       <c r="AP151" s="9"/>
-    </row>
-    <row r="152" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ151" s="9"/>
+      <c r="AR151" s="9"/>
+      <c r="AS151" s="9"/>
+      <c r="AT151" s="9"/>
+      <c r="AU151" s="9"/>
+    </row>
+    <row r="152" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -8200,7 +9278,7 @@
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
-      <c r="I152" s="9"/>
+      <c r="I152" s="32"/>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
       <c r="L152" s="9"/>
@@ -8234,8 +9312,13 @@
       <c r="AN152" s="9"/>
       <c r="AO152" s="9"/>
       <c r="AP152" s="9"/>
-    </row>
-    <row r="153" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ152" s="9"/>
+      <c r="AR152" s="9"/>
+      <c r="AS152" s="9"/>
+      <c r="AT152" s="9"/>
+      <c r="AU152" s="9"/>
+    </row>
+    <row r="153" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -8244,7 +9327,7 @@
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
-      <c r="I153" s="9"/>
+      <c r="I153" s="32"/>
       <c r="J153" s="9"/>
       <c r="K153" s="9"/>
       <c r="L153" s="9"/>
@@ -8278,8 +9361,13 @@
       <c r="AN153" s="9"/>
       <c r="AO153" s="9"/>
       <c r="AP153" s="9"/>
-    </row>
-    <row r="154" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ153" s="9"/>
+      <c r="AR153" s="9"/>
+      <c r="AS153" s="9"/>
+      <c r="AT153" s="9"/>
+      <c r="AU153" s="9"/>
+    </row>
+    <row r="154" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -8288,7 +9376,7 @@
       <c r="F154" s="11"/>
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
-      <c r="I154" s="9"/>
+      <c r="I154" s="32"/>
       <c r="J154" s="9"/>
       <c r="K154" s="9"/>
       <c r="L154" s="9"/>
@@ -8322,8 +9410,13 @@
       <c r="AN154" s="9"/>
       <c r="AO154" s="9"/>
       <c r="AP154" s="9"/>
-    </row>
-    <row r="155" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ154" s="9"/>
+      <c r="AR154" s="9"/>
+      <c r="AS154" s="9"/>
+      <c r="AT154" s="9"/>
+      <c r="AU154" s="9"/>
+    </row>
+    <row r="155" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -8332,7 +9425,7 @@
       <c r="F155" s="11"/>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
-      <c r="I155" s="9"/>
+      <c r="I155" s="32"/>
       <c r="J155" s="9"/>
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
@@ -8366,8 +9459,13 @@
       <c r="AN155" s="9"/>
       <c r="AO155" s="9"/>
       <c r="AP155" s="9"/>
-    </row>
-    <row r="156" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ155" s="9"/>
+      <c r="AR155" s="9"/>
+      <c r="AS155" s="9"/>
+      <c r="AT155" s="9"/>
+      <c r="AU155" s="9"/>
+    </row>
+    <row r="156" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -8376,7 +9474,7 @@
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
-      <c r="I156" s="9"/>
+      <c r="I156" s="32"/>
       <c r="J156" s="9"/>
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
@@ -8410,8 +9508,13 @@
       <c r="AN156" s="9"/>
       <c r="AO156" s="9"/>
       <c r="AP156" s="9"/>
-    </row>
-    <row r="157" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ156" s="9"/>
+      <c r="AR156" s="9"/>
+      <c r="AS156" s="9"/>
+      <c r="AT156" s="9"/>
+      <c r="AU156" s="9"/>
+    </row>
+    <row r="157" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -8420,7 +9523,7 @@
       <c r="F157" s="11"/>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
-      <c r="I157" s="9"/>
+      <c r="I157" s="32"/>
       <c r="J157" s="9"/>
       <c r="K157" s="9"/>
       <c r="L157" s="9"/>
@@ -8454,8 +9557,13 @@
       <c r="AN157" s="9"/>
       <c r="AO157" s="9"/>
       <c r="AP157" s="9"/>
-    </row>
-    <row r="158" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ157" s="9"/>
+      <c r="AR157" s="9"/>
+      <c r="AS157" s="9"/>
+      <c r="AT157" s="9"/>
+      <c r="AU157" s="9"/>
+    </row>
+    <row r="158" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -8464,7 +9572,7 @@
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
-      <c r="I158" s="9"/>
+      <c r="I158" s="32"/>
       <c r="J158" s="9"/>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
@@ -8498,8 +9606,13 @@
       <c r="AN158" s="9"/>
       <c r="AO158" s="9"/>
       <c r="AP158" s="9"/>
-    </row>
-    <row r="159" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ158" s="9"/>
+      <c r="AR158" s="9"/>
+      <c r="AS158" s="9"/>
+      <c r="AT158" s="9"/>
+      <c r="AU158" s="9"/>
+    </row>
+    <row r="159" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -8508,7 +9621,7 @@
       <c r="F159" s="11"/>
       <c r="G159" s="11"/>
       <c r="H159" s="11"/>
-      <c r="I159" s="9"/>
+      <c r="I159" s="32"/>
       <c r="J159" s="9"/>
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
@@ -8542,8 +9655,13 @@
       <c r="AN159" s="9"/>
       <c r="AO159" s="9"/>
       <c r="AP159" s="9"/>
-    </row>
-    <row r="160" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ159" s="9"/>
+      <c r="AR159" s="9"/>
+      <c r="AS159" s="9"/>
+      <c r="AT159" s="9"/>
+      <c r="AU159" s="9"/>
+    </row>
+    <row r="160" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -8552,7 +9670,7 @@
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
       <c r="H160" s="11"/>
-      <c r="I160" s="9"/>
+      <c r="I160" s="32"/>
       <c r="J160" s="9"/>
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
@@ -8586,8 +9704,13 @@
       <c r="AN160" s="9"/>
       <c r="AO160" s="9"/>
       <c r="AP160" s="9"/>
-    </row>
-    <row r="161" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ160" s="9"/>
+      <c r="AR160" s="9"/>
+      <c r="AS160" s="9"/>
+      <c r="AT160" s="9"/>
+      <c r="AU160" s="9"/>
+    </row>
+    <row r="161" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -8596,7 +9719,7 @@
       <c r="F161" s="11"/>
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
-      <c r="I161" s="9"/>
+      <c r="I161" s="32"/>
       <c r="J161" s="9"/>
       <c r="K161" s="9"/>
       <c r="L161" s="9"/>
@@ -8630,8 +9753,13 @@
       <c r="AN161" s="9"/>
       <c r="AO161" s="9"/>
       <c r="AP161" s="9"/>
-    </row>
-    <row r="162" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="AQ161" s="9"/>
+      <c r="AR161" s="9"/>
+      <c r="AS161" s="9"/>
+      <c r="AT161" s="9"/>
+      <c r="AU161" s="9"/>
+    </row>
+    <row r="162" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -8640,7 +9768,7 @@
       <c r="F162" s="11"/>
       <c r="G162" s="11"/>
       <c r="H162" s="11"/>
-      <c r="I162" s="9"/>
+      <c r="I162" s="32"/>
       <c r="J162" s="9"/>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
@@ -8674,18 +9802,122 @@
       <c r="AN162" s="9"/>
       <c r="AO162" s="9"/>
       <c r="AP162" s="9"/>
+      <c r="AQ162" s="9"/>
+      <c r="AR162" s="9"/>
+      <c r="AS162" s="9"/>
+      <c r="AT162" s="9"/>
+      <c r="AU162" s="9"/>
+    </row>
+    <row r="163" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A163" s="11"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="32"/>
+      <c r="J163" s="9"/>
+      <c r="K163" s="9"/>
+      <c r="L163" s="9"/>
+      <c r="M163" s="9"/>
+      <c r="N163" s="9"/>
+      <c r="O163" s="9"/>
+      <c r="P163" s="9"/>
+      <c r="Q163" s="9"/>
+      <c r="R163" s="9"/>
+      <c r="S163" s="9"/>
+      <c r="T163" s="9"/>
+      <c r="U163" s="9"/>
+      <c r="V163" s="9"/>
+      <c r="W163" s="9"/>
+      <c r="X163" s="9"/>
+      <c r="Y163" s="9"/>
+      <c r="Z163" s="9"/>
+      <c r="AA163" s="9"/>
+      <c r="AB163" s="9"/>
+      <c r="AC163" s="9"/>
+      <c r="AD163" s="9"/>
+      <c r="AE163" s="9"/>
+      <c r="AF163" s="9"/>
+      <c r="AG163" s="9"/>
+      <c r="AH163" s="9"/>
+      <c r="AI163" s="9"/>
+      <c r="AJ163" s="9"/>
+      <c r="AK163" s="9"/>
+      <c r="AL163" s="9"/>
+      <c r="AM163" s="9"/>
+      <c r="AN163" s="9"/>
+      <c r="AO163" s="9"/>
+      <c r="AP163" s="9"/>
+      <c r="AQ163" s="9"/>
+      <c r="AR163" s="9"/>
+      <c r="AS163" s="9"/>
+      <c r="AT163" s="9"/>
+      <c r="AU163" s="9"/>
+    </row>
+    <row r="164" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="32"/>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
+      <c r="L164" s="9"/>
+      <c r="M164" s="9"/>
+      <c r="N164" s="9"/>
+      <c r="O164" s="9"/>
+      <c r="P164" s="9"/>
+      <c r="Q164" s="9"/>
+      <c r="R164" s="9"/>
+      <c r="S164" s="9"/>
+      <c r="T164" s="9"/>
+      <c r="U164" s="9"/>
+      <c r="V164" s="9"/>
+      <c r="W164" s="9"/>
+      <c r="X164" s="9"/>
+      <c r="Y164" s="9"/>
+      <c r="Z164" s="9"/>
+      <c r="AA164" s="9"/>
+      <c r="AB164" s="9"/>
+      <c r="AC164" s="9"/>
+      <c r="AD164" s="9"/>
+      <c r="AE164" s="9"/>
+      <c r="AF164" s="9"/>
+      <c r="AG164" s="9"/>
+      <c r="AH164" s="9"/>
+      <c r="AI164" s="9"/>
+      <c r="AJ164" s="9"/>
+      <c r="AK164" s="9"/>
+      <c r="AL164" s="9"/>
+      <c r="AM164" s="9"/>
+      <c r="AN164" s="9"/>
+      <c r="AO164" s="9"/>
+      <c r="AP164" s="9"/>
+      <c r="AQ164" s="9"/>
+      <c r="AR164" s="9"/>
+      <c r="AS164" s="9"/>
+      <c r="AT164" s="9"/>
+      <c r="AU164" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="I1:J1"/>
+  <mergeCells count="7">
+    <mergeCell ref="AD2:AI2"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="I1:M1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B12:E1048576 B2:E2 B4:E7">
+  <conditionalFormatting sqref="B15:E1048576 B2:E2 B4:E7">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>
@@ -8707,7 +9939,7 @@
       <formula>"50_59"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:A1048576 A2 A4:A7">
+  <conditionalFormatting sqref="A15:A1048576 A2 A4:A7">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>

--- a/Assets/Data/excel/功法数据表.xlsx
+++ b/Assets/Data/excel/功法数据表.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="120" windowWidth="19200" windowHeight="11610" tabRatio="763"/>
+    <workbookView minimized="1" xWindow="1035" yWindow="120" windowWidth="19200" windowHeight="11610" tabRatio="763"/>
   </bookViews>
   <sheets>
     <sheet name="GongfaDef" sheetId="27" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GongfaDef!$C$2:$C$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GongfaDef!$C$2:$C$165</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="158">
   <si>
     <t>功法名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -552,10 +552,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -620,7 +616,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.5</t>
+    <t>40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -628,7 +624,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25</t>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.67777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴拳_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨家刀法_D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1369,13 +1393,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU164"/>
+  <dimension ref="A1:AU165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1490,10 +1514,10 @@
         <v>113</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>116</v>
@@ -1664,10 +1688,10 @@
         <v>114</v>
       </c>
       <c r="J4" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>142</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>115</v>
@@ -1676,10 +1700,10 @@
         <v>44</v>
       </c>
       <c r="N4" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O4" s="14" t="s">
         <v>137</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>138</v>
       </c>
       <c r="P4" s="14" t="s">
         <v>45</v>
@@ -1788,7 +1812,7 @@
         <v>39</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L5" s="14" t="s">
         <v>39</v>
@@ -2099,7 +2123,7 @@
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
       <c r="AJ9" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK9" s="19"/>
       <c r="AL9" s="19"/>
@@ -2188,7 +2212,7 @@
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
       <c r="AJ10" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK10" s="19"/>
       <c r="AL10" s="19"/>
@@ -2281,7 +2305,7 @@
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
       <c r="AJ11" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AK11" s="19"/>
       <c r="AL11" s="19"/>
@@ -2328,7 +2352,7 @@
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="19" t="s">
@@ -2348,13 +2372,13 @@
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA12" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB12" s="19" t="s">
         <v>134</v>
-      </c>
-      <c r="AA12" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB12" s="19" t="s">
-        <v>135</v>
       </c>
       <c r="AC12" s="19"/>
       <c r="AD12" s="19" t="s">
@@ -2368,7 +2392,7 @@
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
       <c r="AJ12" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK12" s="19"/>
       <c r="AL12" s="19"/>
@@ -2382,13 +2406,13 @@
       <c r="AT12" s="19"/>
       <c r="AU12" s="19"/>
     </row>
-    <row r="13" spans="1:47" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18"/>
       <c r="B13" s="18" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="D13" s="18">
         <v>8</v>
@@ -2408,19 +2432,17 @@
       <c r="I13" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="19"/>
+      <c r="J13" s="19" t="s">
+        <v>148</v>
+      </c>
       <c r="K13" s="19"/>
-      <c r="L13" s="19" t="s">
-        <v>132</v>
-      </c>
+      <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="P13" s="19" t="s">
-        <v>151</v>
-      </c>
+      <c r="N13" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
       <c r="Q13" s="19" t="s">
         <v>123</v>
       </c>
@@ -2434,28 +2456,18 @@
       <c r="W13" s="19"/>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
-      <c r="Z13" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA13" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB13" s="19" t="s">
-        <v>135</v>
-      </c>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
       <c r="AC13" s="19"/>
-      <c r="AD13" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE13" s="19" t="s">
-        <v>106</v>
-      </c>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
       <c r="AJ13" s="19" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AK13" s="19"/>
       <c r="AL13" s="19"/>
@@ -2469,13 +2481,13 @@
       <c r="AT13" s="19"/>
       <c r="AU13" s="19"/>
     </row>
-    <row r="14" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:47" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D14" s="18">
         <v>8</v>
@@ -2495,19 +2507,17 @@
       <c r="I14" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="19" t="s">
-        <v>118</v>
-      </c>
+      <c r="J14" s="19"/>
       <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="L14" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="M14" s="19"/>
-      <c r="N14" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="P14" s="19"/>
       <c r="Q14" s="19" t="s">
         <v>123</v>
       </c>
@@ -2521,28 +2531,18 @@
       <c r="W14" s="19"/>
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
-      <c r="Z14" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA14" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB14" s="19" t="s">
-        <v>135</v>
-      </c>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
       <c r="AC14" s="19"/>
-      <c r="AD14" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE14" s="19" t="s">
-        <v>106</v>
-      </c>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
       <c r="AJ14" s="19" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AK14" s="19"/>
       <c r="AL14" s="19"/>
@@ -2557,24 +2557,48 @@
       <c r="AU14" s="19"/>
     </row>
     <row r="15" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="19"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="18">
+        <v>8</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="18">
+        <v>10</v>
+      </c>
+      <c r="G15" s="18">
+        <v>100</v>
+      </c>
+      <c r="H15" s="22">
+        <v>2</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>118</v>
+      </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
+      <c r="N15" s="19" t="s">
+        <v>147</v>
+      </c>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
+      <c r="Q15" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>124</v>
+      </c>
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
       <c r="U15" s="19"/>
@@ -2592,7 +2616,9 @@
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
+      <c r="AJ15" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="AK15" s="19"/>
       <c r="AL15" s="19"/>
       <c r="AM15" s="19"/>
@@ -2605,25 +2631,49 @@
       <c r="AT15" s="19"/>
       <c r="AU15" s="19"/>
     </row>
-    <row r="16" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="33"/>
+    <row r="16" spans="1:47" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="18">
+        <v>8</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="18">
+        <v>5</v>
+      </c>
+      <c r="G16" s="18">
+        <v>100</v>
+      </c>
+      <c r="H16" s="22">
+        <v>2</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>23</v>
+      </c>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="M16" s="19" t="s">
+        <v>118</v>
+      </c>
       <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
+      <c r="O16" s="19" t="s">
+        <v>153</v>
+      </c>
       <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
+      <c r="Q16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="S16" s="19"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
@@ -2641,7 +2691,9 @@
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
+      <c r="AJ16" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="AK16" s="19"/>
       <c r="AL16" s="19"/>
       <c r="AM16" s="19"/>
@@ -2997,54 +3049,54 @@
       <c r="AT23" s="19"/>
       <c r="AU23" s="19"/>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
-      <c r="AL24" s="9"/>
-      <c r="AM24" s="9"/>
-      <c r="AN24" s="9"/>
-      <c r="AO24" s="9"/>
-      <c r="AP24" s="9"/>
-      <c r="AQ24" s="9"/>
-      <c r="AR24" s="9"/>
-      <c r="AS24" s="9"/>
-      <c r="AT24" s="9"/>
-      <c r="AU24" s="9"/>
+    <row r="24" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
@@ -9906,6 +9958,55 @@
       <c r="AT164" s="9"/>
       <c r="AU164" s="9"/>
     </row>
+    <row r="165" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="32"/>
+      <c r="J165" s="9"/>
+      <c r="K165" s="9"/>
+      <c r="L165" s="9"/>
+      <c r="M165" s="9"/>
+      <c r="N165" s="9"/>
+      <c r="O165" s="9"/>
+      <c r="P165" s="9"/>
+      <c r="Q165" s="9"/>
+      <c r="R165" s="9"/>
+      <c r="S165" s="9"/>
+      <c r="T165" s="9"/>
+      <c r="U165" s="9"/>
+      <c r="V165" s="9"/>
+      <c r="W165" s="9"/>
+      <c r="X165" s="9"/>
+      <c r="Y165" s="9"/>
+      <c r="Z165" s="9"/>
+      <c r="AA165" s="9"/>
+      <c r="AB165" s="9"/>
+      <c r="AC165" s="9"/>
+      <c r="AD165" s="9"/>
+      <c r="AE165" s="9"/>
+      <c r="AF165" s="9"/>
+      <c r="AG165" s="9"/>
+      <c r="AH165" s="9"/>
+      <c r="AI165" s="9"/>
+      <c r="AJ165" s="9"/>
+      <c r="AK165" s="9"/>
+      <c r="AL165" s="9"/>
+      <c r="AM165" s="9"/>
+      <c r="AN165" s="9"/>
+      <c r="AO165" s="9"/>
+      <c r="AP165" s="9"/>
+      <c r="AQ165" s="9"/>
+      <c r="AR165" s="9"/>
+      <c r="AS165" s="9"/>
+      <c r="AT165" s="9"/>
+      <c r="AU165" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="AD2:AI2"/>
@@ -9917,7 +10018,7 @@
     <mergeCell ref="N1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B15:E1048576 B2:E2 B4:E7">
+  <conditionalFormatting sqref="B17:E1048576 B2:E2 B4:E7">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>
@@ -9939,7 +10040,7 @@
       <formula>"50_59"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A1048576 A2 A4:A7">
+  <conditionalFormatting sqref="A17:A1048576 A2 A4:A7">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>

--- a/Assets/Data/excel/功法数据表.xlsx
+++ b/Assets/Data/excel/功法数据表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="1035" yWindow="120" windowWidth="19200" windowHeight="11610" tabRatio="763"/>
+    <workbookView xWindow="1035" yWindow="120" windowWidth="19200" windowHeight="11610" tabRatio="763"/>
   </bookViews>
   <sheets>
     <sheet name="GongfaDef" sheetId="27" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="160">
   <si>
     <t>功法名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,599 +60,607 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击部位组倾向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上肢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下肢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰腹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击区域方位倾向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲闪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseEnegyCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseEngDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasePower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseClever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtPartGroup_Neck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtPartGroup_Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtPartGroup_Private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtPartGroup_LowerLimbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtArea_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtArea_Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqStrength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqDexterity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqConstitution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqComprehension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqWillpower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资质使用需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqAptitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功法类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GongfaType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级属性使用需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定部位概率倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtPartProbMultiDict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腿法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戳眼抓耳功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撩阴腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"LeftEye":5.0,"RightEye":5.0,"LeftEar":5.0,"RightEar":5.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Private":10.0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseActionCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练成经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReqVitality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtPartGroup_Head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtPartGroup_Belly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtPartGroup_UpperLimbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TgtArea_Middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseBluntDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钝伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆仑剑法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透/忽视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pierce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>割伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasePierceDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseCutDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戳眼抓耳功_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆仑剑法_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.67777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴拳_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨家刀法_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击部位组倾向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上肢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下肢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腰腹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品阶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击区域方位倾向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>躲闪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卸力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxEfficiency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseEnegyCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseEngDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasePower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseClever</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtPartGroup_Neck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtPartGroup_Chest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtPartGroup_Private</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtPartGroup_LowerLimbs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BEGIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtArea_Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtArea_Down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReqStrength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReqDexterity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReqConstitution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReqComprehension</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReqWillpower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资质使用需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReqAptitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功法类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GongfaType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级属性使用需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定部位概率倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtPartProbMultiDict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拳掌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腿法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戳眼抓耳功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撩阴腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"LeftEye":5.0,"RightEye":5.0,"LeftEar":5.0,"RightEar":5.0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Private":10.0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseActionCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>练成经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReqVitality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtPartGroup_Head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtPartGroup_Belly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtPartGroup_UpperLimbs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TgtArea_Middle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#BasePhyDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseBluntDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钝伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆仑剑法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透/忽视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pierce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ignore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>割伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasePierceDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseCutDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戳眼抓耳功_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆仑剑法_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.67777</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴拳_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨家刀法_D</t>
+    <t>功法价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,7 +668,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,21 +726,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -842,7 +835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,21 +924,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1399,7 +1377,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1409,8 +1387,7 @@
     <col min="3" max="4" width="8.75" style="10" customWidth="1"/>
     <col min="5" max="5" width="10.25" style="12" customWidth="1"/>
     <col min="6" max="6" width="12.375" style="10" customWidth="1"/>
-    <col min="7" max="8" width="8.75" style="10" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="34" customWidth="1"/>
+    <col min="7" max="9" width="8.75" style="10" customWidth="1"/>
     <col min="10" max="13" width="7.25" style="12" customWidth="1"/>
     <col min="14" max="15" width="6.875" style="12" customWidth="1"/>
     <col min="16" max="18" width="7.25" style="12" customWidth="1"/>
@@ -1424,26 +1401,26 @@
     <col min="48" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:47" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="23"/>
       <c r="F1" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="26"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="26" t="s">
+        <v>156</v>
+      </c>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
       <c r="M1" s="27"/>
       <c r="N1" s="25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O1" s="26"/>
       <c r="P1" s="25" t="s">
@@ -1452,7 +1429,7 @@
       <c r="Q1" s="26"/>
       <c r="R1" s="27"/>
       <c r="S1" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T1" s="26"/>
       <c r="U1" s="26"/>
@@ -1461,7 +1438,7 @@
       <c r="X1" s="26"/>
       <c r="Y1" s="27"/>
       <c r="Z1" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="26"/>
       <c r="AB1" s="27"/>
@@ -1487,19 +1464,19 @@
     </row>
     <row r="2" spans="1:47" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -1510,26 +1487,26 @@
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>113</v>
+      <c r="I2" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>1</v>
@@ -1541,40 +1518,40 @@
         <v>3</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="Z2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="AC2" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AD2" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AE2" s="26"/>
       <c r="AF2" s="26"/>
@@ -1582,22 +1559,22 @@
       <c r="AH2" s="26"/>
       <c r="AI2" s="27"/>
       <c r="AJ2" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AK2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="AP2" s="5"/>
       <c r="AQ2" s="5"/>
@@ -1608,10 +1585,10 @@
     </row>
     <row r="3" spans="1:47" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -1619,7 +1596,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="31"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -1661,112 +1638,112 @@
     </row>
     <row r="4" spans="1:47" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="X4" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z4" s="14" t="s">
+      <c r="AC4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AA4" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AE4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AC4" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AF4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AG4" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AF4" s="15" t="s">
+      <c r="AI4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AG4" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH4" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI4" s="15" t="s">
-        <v>68</v>
-      </c>
       <c r="AJ4" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AK4" s="14"/>
       <c r="AL4" s="14"/>
@@ -1782,112 +1759,112 @@
     </row>
     <row r="5" spans="1:47" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="14" t="s">
+      <c r="R5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="W5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" s="14" t="s">
+      <c r="X5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="V5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="W5" s="14" t="s">
+      <c r="Z5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC5" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="AD5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG5" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ5" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="Y5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC5" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG5" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ5" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="AK5" s="14"/>
       <c r="AL5" s="14"/>
@@ -1903,7 +1880,7 @@
     </row>
     <row r="6" spans="1:47" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1912,7 +1889,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="31"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -1961,7 +1938,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="31"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -2003,7 +1980,7 @@
     </row>
     <row r="8" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2012,7 +1989,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="32"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -2055,16 +2032,16 @@
     <row r="9" spans="1:47" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="18">
         <v>9</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F9" s="18">
         <v>5</v>
@@ -2075,27 +2052,28 @@
       <c r="H9" s="22">
         <v>2</v>
       </c>
-      <c r="I9" s="33" t="s">
-        <v>23</v>
+      <c r="I9" s="19">
+        <f t="shared" ref="I9:I16" si="0">J9*2+K9*2+L9*2.5+M9*4+N9</f>
+        <v>60</v>
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N9" s="19"/>
       <c r="O9" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="R9" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
@@ -2105,25 +2083,25 @@
       <c r="X9" s="19"/>
       <c r="Y9" s="19"/>
       <c r="Z9" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AB9" s="19"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AE9" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
       <c r="AJ9" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AK9" s="19"/>
       <c r="AL9" s="19"/>
@@ -2140,16 +2118,16 @@
     <row r="10" spans="1:47" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
       <c r="B10" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D10" s="18">
         <v>8</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F10" s="18">
         <v>10</v>
@@ -2160,33 +2138,34 @@
       <c r="H10" s="22">
         <v>2</v>
       </c>
-      <c r="I10" s="33" t="s">
-        <v>28</v>
+      <c r="I10" s="19">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
       <c r="O10" s="19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
@@ -2194,25 +2173,25 @@
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
       <c r="Z10" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA10" s="19"/>
       <c r="AB10" s="19"/>
       <c r="AC10" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AE10" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
       <c r="AJ10" s="19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AK10" s="19"/>
       <c r="AL10" s="19"/>
@@ -2229,16 +2208,16 @@
     <row r="11" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
       <c r="B11" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="18">
         <v>8</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F11" s="18">
         <v>10</v>
@@ -2249,63 +2228,64 @@
       <c r="H11" s="22">
         <v>2</v>
       </c>
-      <c r="I11" s="33" t="s">
-        <v>28</v>
+      <c r="I11" s="19">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
       <c r="O11" s="19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
       <c r="V11" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W11" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AB11" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AC11" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AD11" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AE11" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
       <c r="AJ11" s="19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AK11" s="19"/>
       <c r="AL11" s="19"/>
@@ -2322,16 +2302,16 @@
     <row r="12" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18"/>
       <c r="B12" s="18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D12" s="18">
         <v>8</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F12" s="18">
         <v>10</v>
@@ -2342,27 +2322,28 @@
       <c r="H12" s="22">
         <v>2</v>
       </c>
-      <c r="I12" s="33" t="s">
-        <v>28</v>
+      <c r="I12" s="19">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
@@ -2372,27 +2353,27 @@
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AA12" s="19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AB12" s="19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AC12" s="19"/>
       <c r="AD12" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AE12" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
       <c r="AJ12" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AK12" s="19"/>
       <c r="AL12" s="19"/>
@@ -2409,16 +2390,16 @@
     <row r="13" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18"/>
       <c r="B13" s="18" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D13" s="18">
         <v>8</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F13" s="18">
         <v>10</v>
@@ -2429,25 +2410,26 @@
       <c r="H13" s="22">
         <v>2</v>
       </c>
-      <c r="I13" s="33" t="s">
-        <v>28</v>
+      <c r="I13" s="19">
+        <f>J13*2+K13*2+L13*2.5+M13*4+N13</f>
+        <v>200</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
@@ -2467,7 +2449,7 @@
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
       <c r="AJ13" s="19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AK13" s="19"/>
       <c r="AL13" s="19"/>
@@ -2481,19 +2463,19 @@
       <c r="AT13" s="19"/>
       <c r="AU13" s="19"/>
     </row>
-    <row r="14" spans="1:47" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="D14" s="18">
         <v>8</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F14" s="18">
         <v>10</v>
@@ -2504,25 +2486,26 @@
       <c r="H14" s="22">
         <v>2</v>
       </c>
-      <c r="I14" s="33" t="s">
-        <v>28</v>
+      <c r="I14" s="19">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19" t="s">
-        <v>150</v>
-      </c>
+      <c r="K14" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="19"/>
       <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19" t="s">
-        <v>151</v>
-      </c>
+      <c r="N14" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
@@ -2542,7 +2525,7 @@
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
       <c r="AJ14" s="19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AK14" s="19"/>
       <c r="AL14" s="19"/>
@@ -2556,19 +2539,19 @@
       <c r="AT14" s="19"/>
       <c r="AU14" s="19"/>
     </row>
-    <row r="15" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:47" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="18" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="D15" s="18">
         <v>8</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F15" s="18">
         <v>10</v>
@@ -2579,25 +2562,26 @@
       <c r="H15" s="22">
         <v>2</v>
       </c>
-      <c r="I15" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>118</v>
-      </c>
+      <c r="I15" s="19">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J15" s="19"/>
       <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="L15" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="M15" s="19"/>
-      <c r="N15" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="O15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19" t="s">
+        <v>144</v>
+      </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
@@ -2617,7 +2601,7 @@
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
       <c r="AJ15" s="19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AK15" s="19"/>
       <c r="AL15" s="19"/>
@@ -2634,16 +2618,16 @@
     <row r="16" spans="1:47" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18"/>
       <c r="B16" s="18" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D16" s="18">
         <v>8</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F16" s="18">
         <v>5</v>
@@ -2654,25 +2638,26 @@
       <c r="H16" s="22">
         <v>2</v>
       </c>
-      <c r="I16" s="33" t="s">
-        <v>23</v>
+      <c r="I16" s="19">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="N16" s="19"/>
       <c r="O16" s="19" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R16" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S16" s="19"/>
       <c r="T16" s="19"/>
@@ -2692,7 +2677,7 @@
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
       <c r="AJ16" s="19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AK16" s="19"/>
       <c r="AL16" s="19"/>
@@ -2715,7 +2700,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="33"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
@@ -2764,7 +2749,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="33"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
@@ -2813,7 +2798,7 @@
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="33"/>
+      <c r="I19" s="21"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
@@ -2862,7 +2847,7 @@
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="33"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
@@ -2911,7 +2896,7 @@
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="33"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
@@ -2960,7 +2945,7 @@
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="33"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
@@ -3009,7 +2994,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="33"/>
+      <c r="I23" s="21"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -3058,7 +3043,7 @@
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="33"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
@@ -3107,7 +3092,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="32"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -3156,7 +3141,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="32"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -3205,7 +3190,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="32"/>
+      <c r="I27" s="11"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -3254,7 +3239,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="32"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -3303,7 +3288,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="32"/>
+      <c r="I29" s="11"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -3352,7 +3337,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="32"/>
+      <c r="I30" s="11"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -3401,7 +3386,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="32"/>
+      <c r="I31" s="11"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -3450,7 +3435,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="32"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -3499,7 +3484,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="32"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -3548,7 +3533,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
-      <c r="I34" s="32"/>
+      <c r="I34" s="11"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -3597,7 +3582,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
-      <c r="I35" s="32"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -3646,7 +3631,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
-      <c r="I36" s="32"/>
+      <c r="I36" s="11"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -3695,7 +3680,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="32"/>
+      <c r="I37" s="11"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -3744,7 +3729,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="32"/>
+      <c r="I38" s="11"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -3793,7 +3778,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="32"/>
+      <c r="I39" s="11"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
@@ -3842,7 +3827,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="32"/>
+      <c r="I40" s="11"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -3891,7 +3876,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
-      <c r="I41" s="32"/>
+      <c r="I41" s="11"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
@@ -3940,7 +3925,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
-      <c r="I42" s="32"/>
+      <c r="I42" s="11"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -3989,7 +3974,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
-      <c r="I43" s="32"/>
+      <c r="I43" s="11"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
@@ -4038,7 +4023,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
-      <c r="I44" s="32"/>
+      <c r="I44" s="11"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
@@ -4087,7 +4072,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
-      <c r="I45" s="32"/>
+      <c r="I45" s="11"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
@@ -4136,7 +4121,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
-      <c r="I46" s="32"/>
+      <c r="I46" s="11"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
@@ -4185,7 +4170,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
-      <c r="I47" s="32"/>
+      <c r="I47" s="11"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
@@ -4234,7 +4219,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
-      <c r="I48" s="32"/>
+      <c r="I48" s="11"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
@@ -4283,7 +4268,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
-      <c r="I49" s="32"/>
+      <c r="I49" s="11"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
@@ -4332,7 +4317,7 @@
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
-      <c r="I50" s="32"/>
+      <c r="I50" s="11"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -4381,7 +4366,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
-      <c r="I51" s="32"/>
+      <c r="I51" s="11"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -4430,7 +4415,7 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
-      <c r="I52" s="32"/>
+      <c r="I52" s="11"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -4479,7 +4464,7 @@
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
-      <c r="I53" s="32"/>
+      <c r="I53" s="11"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
@@ -4528,7 +4513,7 @@
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
-      <c r="I54" s="32"/>
+      <c r="I54" s="11"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
@@ -4577,7 +4562,7 @@
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
-      <c r="I55" s="32"/>
+      <c r="I55" s="11"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
@@ -4626,7 +4611,7 @@
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
-      <c r="I56" s="32"/>
+      <c r="I56" s="11"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
@@ -4675,7 +4660,7 @@
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
-      <c r="I57" s="32"/>
+      <c r="I57" s="11"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
@@ -4724,7 +4709,7 @@
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
-      <c r="I58" s="32"/>
+      <c r="I58" s="11"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
@@ -4773,7 +4758,7 @@
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
-      <c r="I59" s="32"/>
+      <c r="I59" s="11"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
@@ -4822,7 +4807,7 @@
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
-      <c r="I60" s="32"/>
+      <c r="I60" s="11"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -4871,7 +4856,7 @@
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
-      <c r="I61" s="32"/>
+      <c r="I61" s="11"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
@@ -4920,7 +4905,7 @@
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
-      <c r="I62" s="32"/>
+      <c r="I62" s="11"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -4969,7 +4954,7 @@
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
-      <c r="I63" s="32"/>
+      <c r="I63" s="11"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
@@ -5018,7 +5003,7 @@
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
-      <c r="I64" s="32"/>
+      <c r="I64" s="11"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
@@ -5067,7 +5052,7 @@
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
-      <c r="I65" s="32"/>
+      <c r="I65" s="11"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
@@ -5116,7 +5101,7 @@
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
-      <c r="I66" s="32"/>
+      <c r="I66" s="11"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
@@ -5165,7 +5150,7 @@
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
-      <c r="I67" s="32"/>
+      <c r="I67" s="11"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
@@ -5214,7 +5199,7 @@
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
-      <c r="I68" s="32"/>
+      <c r="I68" s="11"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
@@ -5263,7 +5248,7 @@
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
-      <c r="I69" s="32"/>
+      <c r="I69" s="11"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
@@ -5312,7 +5297,7 @@
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
-      <c r="I70" s="32"/>
+      <c r="I70" s="11"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
@@ -5361,7 +5346,7 @@
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
-      <c r="I71" s="32"/>
+      <c r="I71" s="11"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
@@ -5410,7 +5395,7 @@
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
-      <c r="I72" s="32"/>
+      <c r="I72" s="11"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
@@ -5459,7 +5444,7 @@
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
-      <c r="I73" s="32"/>
+      <c r="I73" s="11"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
@@ -5508,7 +5493,7 @@
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
-      <c r="I74" s="32"/>
+      <c r="I74" s="11"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
@@ -5557,7 +5542,7 @@
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
-      <c r="I75" s="32"/>
+      <c r="I75" s="11"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
@@ -5606,7 +5591,7 @@
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
-      <c r="I76" s="32"/>
+      <c r="I76" s="11"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
@@ -5655,7 +5640,7 @@
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
-      <c r="I77" s="32"/>
+      <c r="I77" s="11"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
@@ -5704,7 +5689,7 @@
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
-      <c r="I78" s="32"/>
+      <c r="I78" s="11"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
@@ -5753,7 +5738,7 @@
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
-      <c r="I79" s="32"/>
+      <c r="I79" s="11"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
@@ -5802,7 +5787,7 @@
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
-      <c r="I80" s="32"/>
+      <c r="I80" s="11"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
@@ -5851,7 +5836,7 @@
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
-      <c r="I81" s="32"/>
+      <c r="I81" s="11"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
@@ -5900,7 +5885,7 @@
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
-      <c r="I82" s="32"/>
+      <c r="I82" s="11"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
@@ -5949,7 +5934,7 @@
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
-      <c r="I83" s="32"/>
+      <c r="I83" s="11"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
@@ -5998,7 +5983,7 @@
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
-      <c r="I84" s="32"/>
+      <c r="I84" s="11"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
@@ -6047,7 +6032,7 @@
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
-      <c r="I85" s="32"/>
+      <c r="I85" s="11"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -6096,7 +6081,7 @@
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
-      <c r="I86" s="32"/>
+      <c r="I86" s="11"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
@@ -6145,7 +6130,7 @@
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
-      <c r="I87" s="32"/>
+      <c r="I87" s="11"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
@@ -6194,7 +6179,7 @@
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
-      <c r="I88" s="32"/>
+      <c r="I88" s="11"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
@@ -6243,7 +6228,7 @@
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
-      <c r="I89" s="32"/>
+      <c r="I89" s="11"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
@@ -6292,7 +6277,7 @@
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
-      <c r="I90" s="32"/>
+      <c r="I90" s="11"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
@@ -6341,7 +6326,7 @@
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
-      <c r="I91" s="32"/>
+      <c r="I91" s="11"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
@@ -6390,7 +6375,7 @@
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
-      <c r="I92" s="32"/>
+      <c r="I92" s="11"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
@@ -6439,7 +6424,7 @@
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
-      <c r="I93" s="32"/>
+      <c r="I93" s="11"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
@@ -6488,7 +6473,7 @@
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
-      <c r="I94" s="32"/>
+      <c r="I94" s="11"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
@@ -6537,7 +6522,7 @@
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
-      <c r="I95" s="32"/>
+      <c r="I95" s="11"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
@@ -6586,7 +6571,7 @@
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
-      <c r="I96" s="32"/>
+      <c r="I96" s="11"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -6635,7 +6620,7 @@
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
-      <c r="I97" s="32"/>
+      <c r="I97" s="11"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
@@ -6684,7 +6669,7 @@
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
-      <c r="I98" s="32"/>
+      <c r="I98" s="11"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
@@ -6733,7 +6718,7 @@
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
-      <c r="I99" s="32"/>
+      <c r="I99" s="11"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
@@ -6782,7 +6767,7 @@
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
-      <c r="I100" s="32"/>
+      <c r="I100" s="11"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
@@ -6831,7 +6816,7 @@
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
-      <c r="I101" s="32"/>
+      <c r="I101" s="11"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
@@ -6880,7 +6865,7 @@
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
-      <c r="I102" s="32"/>
+      <c r="I102" s="11"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
@@ -6929,7 +6914,7 @@
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
-      <c r="I103" s="32"/>
+      <c r="I103" s="11"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
@@ -6978,7 +6963,7 @@
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
-      <c r="I104" s="32"/>
+      <c r="I104" s="11"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
@@ -7027,7 +7012,7 @@
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
-      <c r="I105" s="32"/>
+      <c r="I105" s="11"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
@@ -7076,7 +7061,7 @@
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
-      <c r="I106" s="32"/>
+      <c r="I106" s="11"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
@@ -7125,7 +7110,7 @@
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
-      <c r="I107" s="32"/>
+      <c r="I107" s="11"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
@@ -7174,7 +7159,7 @@
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
-      <c r="I108" s="32"/>
+      <c r="I108" s="11"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
@@ -7223,7 +7208,7 @@
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
-      <c r="I109" s="32"/>
+      <c r="I109" s="11"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
@@ -7272,7 +7257,7 @@
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
-      <c r="I110" s="32"/>
+      <c r="I110" s="11"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
@@ -7321,7 +7306,7 @@
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
-      <c r="I111" s="32"/>
+      <c r="I111" s="11"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
@@ -7370,7 +7355,7 @@
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
-      <c r="I112" s="32"/>
+      <c r="I112" s="11"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
@@ -7419,7 +7404,7 @@
       <c r="F113" s="11"/>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
-      <c r="I113" s="32"/>
+      <c r="I113" s="11"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
@@ -7468,7 +7453,7 @@
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
-      <c r="I114" s="32"/>
+      <c r="I114" s="11"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
@@ -7517,7 +7502,7 @@
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
-      <c r="I115" s="32"/>
+      <c r="I115" s="11"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
@@ -7566,7 +7551,7 @@
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
-      <c r="I116" s="32"/>
+      <c r="I116" s="11"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
@@ -7615,7 +7600,7 @@
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
-      <c r="I117" s="32"/>
+      <c r="I117" s="11"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
@@ -7664,7 +7649,7 @@
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
-      <c r="I118" s="32"/>
+      <c r="I118" s="11"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
@@ -7713,7 +7698,7 @@
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
-      <c r="I119" s="32"/>
+      <c r="I119" s="11"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
@@ -7762,7 +7747,7 @@
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
-      <c r="I120" s="32"/>
+      <c r="I120" s="11"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
@@ -7811,7 +7796,7 @@
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
-      <c r="I121" s="32"/>
+      <c r="I121" s="11"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
@@ -7860,7 +7845,7 @@
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
-      <c r="I122" s="32"/>
+      <c r="I122" s="11"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
@@ -7909,7 +7894,7 @@
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
-      <c r="I123" s="32"/>
+      <c r="I123" s="11"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
@@ -7958,7 +7943,7 @@
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
-      <c r="I124" s="32"/>
+      <c r="I124" s="11"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
@@ -8007,7 +7992,7 @@
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
-      <c r="I125" s="32"/>
+      <c r="I125" s="11"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
@@ -8056,7 +8041,7 @@
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
-      <c r="I126" s="32"/>
+      <c r="I126" s="11"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
@@ -8105,7 +8090,7 @@
       <c r="F127" s="11"/>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
-      <c r="I127" s="32"/>
+      <c r="I127" s="11"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c r="L127" s="9"/>
@@ -8154,7 +8139,7 @@
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
-      <c r="I128" s="32"/>
+      <c r="I128" s="11"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
@@ -8203,7 +8188,7 @@
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
-      <c r="I129" s="32"/>
+      <c r="I129" s="11"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
@@ -8252,7 +8237,7 @@
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
-      <c r="I130" s="32"/>
+      <c r="I130" s="11"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
@@ -8301,7 +8286,7 @@
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
-      <c r="I131" s="32"/>
+      <c r="I131" s="11"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
@@ -8350,7 +8335,7 @@
       <c r="F132" s="11"/>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
-      <c r="I132" s="32"/>
+      <c r="I132" s="11"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
@@ -8399,7 +8384,7 @@
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
-      <c r="I133" s="32"/>
+      <c r="I133" s="11"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
@@ -8448,7 +8433,7 @@
       <c r="F134" s="11"/>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
-      <c r="I134" s="32"/>
+      <c r="I134" s="11"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
@@ -8497,7 +8482,7 @@
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
-      <c r="I135" s="32"/>
+      <c r="I135" s="11"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
@@ -8546,7 +8531,7 @@
       <c r="F136" s="11"/>
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
-      <c r="I136" s="32"/>
+      <c r="I136" s="11"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c r="L136" s="9"/>
@@ -8595,7 +8580,7 @@
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
-      <c r="I137" s="32"/>
+      <c r="I137" s="11"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c r="L137" s="9"/>
@@ -8644,7 +8629,7 @@
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
-      <c r="I138" s="32"/>
+      <c r="I138" s="11"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c r="L138" s="9"/>
@@ -8693,7 +8678,7 @@
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
-      <c r="I139" s="32"/>
+      <c r="I139" s="11"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c r="L139" s="9"/>
@@ -8742,7 +8727,7 @@
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
-      <c r="I140" s="32"/>
+      <c r="I140" s="11"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c r="L140" s="9"/>
@@ -8791,7 +8776,7 @@
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
-      <c r="I141" s="32"/>
+      <c r="I141" s="11"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c r="L141" s="9"/>
@@ -8840,7 +8825,7 @@
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
-      <c r="I142" s="32"/>
+      <c r="I142" s="11"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c r="L142" s="9"/>
@@ -8889,7 +8874,7 @@
       <c r="F143" s="11"/>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
-      <c r="I143" s="32"/>
+      <c r="I143" s="11"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c r="L143" s="9"/>
@@ -8938,7 +8923,7 @@
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
-      <c r="I144" s="32"/>
+      <c r="I144" s="11"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c r="L144" s="9"/>
@@ -8987,7 +8972,7 @@
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
-      <c r="I145" s="32"/>
+      <c r="I145" s="11"/>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
       <c r="L145" s="9"/>
@@ -9036,7 +9021,7 @@
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
-      <c r="I146" s="32"/>
+      <c r="I146" s="11"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c r="L146" s="9"/>
@@ -9085,7 +9070,7 @@
       <c r="F147" s="11"/>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
-      <c r="I147" s="32"/>
+      <c r="I147" s="11"/>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
       <c r="L147" s="9"/>
@@ -9134,7 +9119,7 @@
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
-      <c r="I148" s="32"/>
+      <c r="I148" s="11"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
       <c r="L148" s="9"/>
@@ -9183,7 +9168,7 @@
       <c r="F149" s="11"/>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
-      <c r="I149" s="32"/>
+      <c r="I149" s="11"/>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
       <c r="L149" s="9"/>
@@ -9232,7 +9217,7 @@
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
-      <c r="I150" s="32"/>
+      <c r="I150" s="11"/>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
       <c r="L150" s="9"/>
@@ -9281,7 +9266,7 @@
       <c r="F151" s="11"/>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
-      <c r="I151" s="32"/>
+      <c r="I151" s="11"/>
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
       <c r="L151" s="9"/>
@@ -9330,7 +9315,7 @@
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
-      <c r="I152" s="32"/>
+      <c r="I152" s="11"/>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
       <c r="L152" s="9"/>
@@ -9379,7 +9364,7 @@
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
-      <c r="I153" s="32"/>
+      <c r="I153" s="11"/>
       <c r="J153" s="9"/>
       <c r="K153" s="9"/>
       <c r="L153" s="9"/>
@@ -9428,7 +9413,7 @@
       <c r="F154" s="11"/>
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
-      <c r="I154" s="32"/>
+      <c r="I154" s="11"/>
       <c r="J154" s="9"/>
       <c r="K154" s="9"/>
       <c r="L154" s="9"/>
@@ -9477,7 +9462,7 @@
       <c r="F155" s="11"/>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
-      <c r="I155" s="32"/>
+      <c r="I155" s="11"/>
       <c r="J155" s="9"/>
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
@@ -9526,7 +9511,7 @@
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
-      <c r="I156" s="32"/>
+      <c r="I156" s="11"/>
       <c r="J156" s="9"/>
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
@@ -9575,7 +9560,7 @@
       <c r="F157" s="11"/>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
-      <c r="I157" s="32"/>
+      <c r="I157" s="11"/>
       <c r="J157" s="9"/>
       <c r="K157" s="9"/>
       <c r="L157" s="9"/>
@@ -9624,7 +9609,7 @@
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
-      <c r="I158" s="32"/>
+      <c r="I158" s="11"/>
       <c r="J158" s="9"/>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
@@ -9673,7 +9658,7 @@
       <c r="F159" s="11"/>
       <c r="G159" s="11"/>
       <c r="H159" s="11"/>
-      <c r="I159" s="32"/>
+      <c r="I159" s="11"/>
       <c r="J159" s="9"/>
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
@@ -9722,7 +9707,7 @@
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
       <c r="H160" s="11"/>
-      <c r="I160" s="32"/>
+      <c r="I160" s="11"/>
       <c r="J160" s="9"/>
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
@@ -9771,7 +9756,7 @@
       <c r="F161" s="11"/>
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
-      <c r="I161" s="32"/>
+      <c r="I161" s="11"/>
       <c r="J161" s="9"/>
       <c r="K161" s="9"/>
       <c r="L161" s="9"/>
@@ -9820,7 +9805,7 @@
       <c r="F162" s="11"/>
       <c r="G162" s="11"/>
       <c r="H162" s="11"/>
-      <c r="I162" s="32"/>
+      <c r="I162" s="11"/>
       <c r="J162" s="9"/>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
@@ -9869,7 +9854,7 @@
       <c r="F163" s="11"/>
       <c r="G163" s="11"/>
       <c r="H163" s="11"/>
-      <c r="I163" s="32"/>
+      <c r="I163" s="11"/>
       <c r="J163" s="9"/>
       <c r="K163" s="9"/>
       <c r="L163" s="9"/>
@@ -9918,7 +9903,7 @@
       <c r="F164" s="11"/>
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
-      <c r="I164" s="32"/>
+      <c r="I164" s="11"/>
       <c r="J164" s="9"/>
       <c r="K164" s="9"/>
       <c r="L164" s="9"/>
@@ -9967,7 +9952,7 @@
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
       <c r="H165" s="11"/>
-      <c r="I165" s="32"/>
+      <c r="I165" s="11"/>
       <c r="J165" s="9"/>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
@@ -10011,11 +9996,11 @@
   <mergeCells count="7">
     <mergeCell ref="AD2:AI2"/>
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="I1:M1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="S1:Y1"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B17:E1048576 B2:E2 B4:E7">

--- a/Assets/Data/excel/功法数据表.xlsx
+++ b/Assets/Data/excel/功法数据表.xlsx
@@ -1377,7 +1377,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="R24" sqref="R23:R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>

--- a/Assets/Data/excel/功法数据表.xlsx
+++ b/Assets/Data/excel/功法数据表.xlsx
@@ -200,14 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BaseSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseClever</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TgtPartGroup_Neck</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -661,6 +653,14 @@
   </si>
   <si>
     <t>#score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseCunning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseQuickness</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1377,7 +1377,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R24" sqref="R23:R24"/>
+      <selection pane="bottomRight" activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1414,13 +1414,13 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
       <c r="M1" s="27"/>
       <c r="N1" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O1" s="26"/>
       <c r="P1" s="25" t="s">
@@ -1464,19 +1464,19 @@
     </row>
     <row r="2" spans="1:47" s="6" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -1488,25 +1488,25 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="N2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>1</v>
@@ -1548,10 +1548,10 @@
         <v>12</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AD2" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AE2" s="26"/>
       <c r="AF2" s="26"/>
@@ -1559,7 +1559,7 @@
       <c r="AH2" s="26"/>
       <c r="AI2" s="27"/>
       <c r="AJ2" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK2" s="5" t="s">
         <v>30</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="3" spans="1:47" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -1638,112 +1638,112 @@
     </row>
     <row r="4" spans="1:47" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M4" s="14" t="s">
         <v>42</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P4" s="14" t="s">
         <v>43</v>
       </c>
       <c r="Q4" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="T4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="U4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="V4" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="T4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="U4" s="14" t="s">
+      <c r="Y4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="Z4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="W4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="X4" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z4" s="14" t="s">
+      <c r="AB4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA4" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AE4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AC4" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AF4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AG4" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AF4" s="15" t="s">
+      <c r="AI4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AG4" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI4" s="15" t="s">
-        <v>66</v>
-      </c>
       <c r="AJ4" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AK4" s="14"/>
       <c r="AL4" s="14"/>
@@ -1759,19 +1759,19 @@
     </row>
     <row r="5" spans="1:47" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>37</v>
@@ -1783,88 +1783,88 @@
         <v>39</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>37</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L5" s="14" t="s">
         <v>37</v>
       </c>
       <c r="M5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="14" t="s">
+      <c r="X5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="V5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="W5" s="14" t="s">
+      <c r="Z5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="AD5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG5" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ5" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="Y5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG5" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ5" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="AK5" s="14"/>
       <c r="AL5" s="14"/>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="6" spans="1:47" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="8" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2032,16 +2032,16 @@
     <row r="9" spans="1:47" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D9" s="18">
         <v>9</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F9" s="18">
         <v>5</v>
@@ -2060,11 +2060,11 @@
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N9" s="19"/>
       <c r="O9" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P9" s="19" t="s">
         <v>22</v>
@@ -2083,25 +2083,25 @@
       <c r="X9" s="19"/>
       <c r="Y9" s="19"/>
       <c r="Z9" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AB9" s="19"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AE9" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
       <c r="AJ9" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AK9" s="19"/>
       <c r="AL9" s="19"/>
@@ -2118,16 +2118,16 @@
     <row r="10" spans="1:47" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
       <c r="B10" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10" s="18">
         <v>8</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F10" s="18">
         <v>10</v>
@@ -2145,27 +2145,27 @@
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
       <c r="O10" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P10" s="19" t="s">
         <v>26</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
@@ -2173,25 +2173,25 @@
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
       <c r="Z10" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AA10" s="19"/>
       <c r="AB10" s="19"/>
       <c r="AC10" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AD10" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AE10" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
       <c r="AJ10" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AK10" s="19"/>
       <c r="AL10" s="19"/>
@@ -2208,16 +2208,16 @@
     <row r="11" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
       <c r="B11" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" s="18">
         <v>8</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F11" s="18">
         <v>10</v>
@@ -2235,12 +2235,12 @@
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
       <c r="O11" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P11" s="19" t="s">
         <v>27</v>
@@ -2255,37 +2255,37 @@
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
       <c r="V11" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W11" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AB11" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AC11" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AD11" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AE11" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
       <c r="AJ11" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK11" s="19"/>
       <c r="AL11" s="19"/>
@@ -2302,16 +2302,16 @@
     <row r="12" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18"/>
       <c r="B12" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D12" s="18">
         <v>8</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F12" s="18">
         <v>10</v>
@@ -2327,23 +2327,23 @@
         <v>100</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="R12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
@@ -2353,27 +2353,27 @@
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AA12" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB12" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="AB12" s="19" t="s">
-        <v>130</v>
       </c>
       <c r="AC12" s="19"/>
       <c r="AD12" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AE12" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
       <c r="AJ12" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AK12" s="19"/>
       <c r="AL12" s="19"/>
@@ -2390,16 +2390,16 @@
     <row r="13" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18"/>
       <c r="B13" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D13" s="18">
         <v>8</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F13" s="18">
         <v>10</v>
@@ -2415,21 +2415,21 @@
         <v>200</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
@@ -2449,7 +2449,7 @@
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
       <c r="AJ13" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AK13" s="19"/>
       <c r="AL13" s="19"/>
@@ -2466,16 +2466,16 @@
     <row r="14" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D14" s="18">
         <v>8</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F14" s="18">
         <v>10</v>
@@ -2492,20 +2492,20 @@
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
@@ -2525,7 +2525,7 @@
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
       <c r="AJ14" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AK14" s="19"/>
       <c r="AL14" s="19"/>
@@ -2542,16 +2542,16 @@
     <row r="15" spans="1:47" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15" s="18">
         <v>8</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F15" s="18">
         <v>10</v>
@@ -2569,19 +2569,19 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
@@ -2601,7 +2601,7 @@
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
       <c r="AJ15" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AK15" s="19"/>
       <c r="AL15" s="19"/>
@@ -2618,16 +2618,16 @@
     <row r="16" spans="1:47" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18"/>
       <c r="B16" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D16" s="18">
         <v>8</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F16" s="18">
         <v>5</v>
@@ -2646,11 +2646,11 @@
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N16" s="19"/>
       <c r="O16" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="19" t="s">
@@ -2677,7 +2677,7 @@
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
       <c r="AJ16" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AK16" s="19"/>
       <c r="AL16" s="19"/>
